--- a/QBO Data.xlsx
+++ b/QBO Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -7560,5 +7560,8 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D9 D2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/QBO Data.xlsx
+++ b/QBO Data.xlsx
@@ -1,1285 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37a0ce551f5721cc/Documents/Coding TA/Uji Coba TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_5C01B3BFD3505B2853DA2511595ED87656CC0979" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A596D6E-34E7-4137-9C0D-811748504FC2}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_5C01B3BFD3505B2853DA2511595ED87656CC0979" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4FB7880-74C0-40A6-975A-D1ADE08F5EE9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>01011987</t>
-  </si>
-  <si>
-    <t>01021987</t>
-  </si>
-  <si>
-    <t>01031987</t>
-  </si>
-  <si>
-    <t>01041987</t>
-  </si>
-  <si>
-    <t>01051987</t>
-  </si>
-  <si>
-    <t>01061987</t>
-  </si>
-  <si>
-    <t>01071987</t>
-  </si>
-  <si>
-    <t>01081987</t>
-  </si>
-  <si>
-    <t>01091987</t>
-  </si>
-  <si>
-    <t>01101987</t>
-  </si>
-  <si>
-    <t>01111987</t>
-  </si>
-  <si>
-    <t>01121987</t>
-  </si>
-  <si>
-    <t>01011988</t>
-  </si>
-  <si>
-    <t>01021988</t>
-  </si>
-  <si>
-    <t>01031988</t>
-  </si>
-  <si>
-    <t>01041988</t>
-  </si>
-  <si>
-    <t>01051988</t>
-  </si>
-  <si>
-    <t>01061988</t>
-  </si>
-  <si>
-    <t>01071988</t>
-  </si>
-  <si>
-    <t>01081988</t>
-  </si>
-  <si>
-    <t>01091988</t>
-  </si>
-  <si>
-    <t>01101988</t>
-  </si>
-  <si>
-    <t>01111988</t>
-  </si>
-  <si>
-    <t>01121988</t>
-  </si>
-  <si>
-    <t>01011989</t>
-  </si>
-  <si>
-    <t>01021989</t>
-  </si>
-  <si>
-    <t>01031989</t>
-  </si>
-  <si>
-    <t>01041989</t>
-  </si>
-  <si>
-    <t>01051989</t>
-  </si>
-  <si>
-    <t>01061989</t>
-  </si>
-  <si>
-    <t>01071989</t>
-  </si>
-  <si>
-    <t>01081989</t>
-  </si>
-  <si>
-    <t>01091989</t>
-  </si>
-  <si>
-    <t>01101989</t>
-  </si>
-  <si>
-    <t>01111989</t>
-  </si>
-  <si>
-    <t>01121989</t>
-  </si>
-  <si>
-    <t>01011990</t>
-  </si>
-  <si>
-    <t>01021990</t>
-  </si>
-  <si>
-    <t>01031990</t>
-  </si>
-  <si>
-    <t>01041990</t>
-  </si>
-  <si>
-    <t>01051990</t>
-  </si>
-  <si>
-    <t>01061990</t>
-  </si>
-  <si>
-    <t>01071990</t>
-  </si>
-  <si>
-    <t>01081990</t>
-  </si>
-  <si>
-    <t>01091990</t>
-  </si>
-  <si>
-    <t>01101990</t>
-  </si>
-  <si>
-    <t>01111990</t>
-  </si>
-  <si>
-    <t>01121990</t>
-  </si>
-  <si>
-    <t>01011991</t>
-  </si>
-  <si>
-    <t>01021991</t>
-  </si>
-  <si>
-    <t>01031991</t>
-  </si>
-  <si>
-    <t>01041991</t>
-  </si>
-  <si>
-    <t>01051991</t>
-  </si>
-  <si>
-    <t>01061991</t>
-  </si>
-  <si>
-    <t>01071991</t>
-  </si>
-  <si>
-    <t>01081991</t>
-  </si>
-  <si>
-    <t>01091991</t>
-  </si>
-  <si>
-    <t>01101991</t>
-  </si>
-  <si>
-    <t>01111991</t>
-  </si>
-  <si>
-    <t>01121991</t>
-  </si>
-  <si>
-    <t>01011992</t>
-  </si>
-  <si>
-    <t>01021992</t>
-  </si>
-  <si>
-    <t>01031992</t>
-  </si>
-  <si>
-    <t>01041992</t>
-  </si>
-  <si>
-    <t>01051992</t>
-  </si>
-  <si>
-    <t>01061992</t>
-  </si>
-  <si>
-    <t>01071992</t>
-  </si>
-  <si>
-    <t>01081992</t>
-  </si>
-  <si>
-    <t>01091992</t>
-  </si>
-  <si>
-    <t>01101992</t>
-  </si>
-  <si>
-    <t>01111992</t>
-  </si>
-  <si>
-    <t>01121992</t>
-  </si>
-  <si>
-    <t>01011993</t>
-  </si>
-  <si>
-    <t>01021993</t>
-  </si>
-  <si>
-    <t>01031993</t>
-  </si>
-  <si>
-    <t>01041993</t>
-  </si>
-  <si>
-    <t>01051993</t>
-  </si>
-  <si>
-    <t>01061993</t>
-  </si>
-  <si>
-    <t>01071993</t>
-  </si>
-  <si>
-    <t>01081993</t>
-  </si>
-  <si>
-    <t>01091993</t>
-  </si>
-  <si>
-    <t>01101993</t>
-  </si>
-  <si>
-    <t>01111993</t>
-  </si>
-  <si>
-    <t>01121993</t>
-  </si>
-  <si>
-    <t>01011994</t>
-  </si>
-  <si>
-    <t>01021994</t>
-  </si>
-  <si>
-    <t>01031994</t>
-  </si>
-  <si>
-    <t>01041994</t>
-  </si>
-  <si>
-    <t>01051994</t>
-  </si>
-  <si>
-    <t>01061994</t>
-  </si>
-  <si>
-    <t>01071994</t>
-  </si>
-  <si>
-    <t>01081994</t>
-  </si>
-  <si>
-    <t>01091994</t>
-  </si>
-  <si>
-    <t>01101994</t>
-  </si>
-  <si>
-    <t>01111994</t>
-  </si>
-  <si>
-    <t>01121994</t>
-  </si>
-  <si>
-    <t>01011995</t>
-  </si>
-  <si>
-    <t>01021995</t>
-  </si>
-  <si>
-    <t>01031995</t>
-  </si>
-  <si>
-    <t>01041995</t>
-  </si>
-  <si>
-    <t>01051995</t>
-  </si>
-  <si>
-    <t>01061995</t>
-  </si>
-  <si>
-    <t>01071995</t>
-  </si>
-  <si>
-    <t>01081995</t>
-  </si>
-  <si>
-    <t>01091995</t>
-  </si>
-  <si>
-    <t>01101995</t>
-  </si>
-  <si>
-    <t>01111995</t>
-  </si>
-  <si>
-    <t>01121995</t>
-  </si>
-  <si>
-    <t>01011996</t>
-  </si>
-  <si>
-    <t>01021996</t>
-  </si>
-  <si>
-    <t>01031996</t>
-  </si>
-  <si>
-    <t>01041996</t>
-  </si>
-  <si>
-    <t>01051996</t>
-  </si>
-  <si>
-    <t>01061996</t>
-  </si>
-  <si>
-    <t>01071996</t>
-  </si>
-  <si>
-    <t>01081996</t>
-  </si>
-  <si>
-    <t>01091996</t>
-  </si>
-  <si>
-    <t>01101996</t>
-  </si>
-  <si>
-    <t>01111996</t>
-  </si>
-  <si>
-    <t>01121996</t>
-  </si>
-  <si>
-    <t>01011997</t>
-  </si>
-  <si>
-    <t>01021997</t>
-  </si>
-  <si>
-    <t>01031997</t>
-  </si>
-  <si>
-    <t>01041997</t>
-  </si>
-  <si>
-    <t>01051997</t>
-  </si>
-  <si>
-    <t>01061997</t>
-  </si>
-  <si>
-    <t>01071997</t>
-  </si>
-  <si>
-    <t>01081997</t>
-  </si>
-  <si>
-    <t>01091997</t>
-  </si>
-  <si>
-    <t>01101997</t>
-  </si>
-  <si>
-    <t>01111997</t>
-  </si>
-  <si>
-    <t>01121997</t>
-  </si>
-  <si>
-    <t>01011998</t>
-  </si>
-  <si>
-    <t>01021998</t>
-  </si>
-  <si>
-    <t>01031998</t>
-  </si>
-  <si>
-    <t>01041998</t>
-  </si>
-  <si>
-    <t>01051998</t>
-  </si>
-  <si>
-    <t>01061998</t>
-  </si>
-  <si>
-    <t>01071998</t>
-  </si>
-  <si>
-    <t>01081998</t>
-  </si>
-  <si>
-    <t>01091998</t>
-  </si>
-  <si>
-    <t>01101998</t>
-  </si>
-  <si>
-    <t>01111998</t>
-  </si>
-  <si>
-    <t>01121998</t>
-  </si>
-  <si>
-    <t>01011999</t>
-  </si>
-  <si>
-    <t>01021999</t>
-  </si>
-  <si>
-    <t>01031999</t>
-  </si>
-  <si>
-    <t>01041999</t>
-  </si>
-  <si>
-    <t>01051999</t>
-  </si>
-  <si>
-    <t>01061999</t>
-  </si>
-  <si>
-    <t>01071999</t>
-  </si>
-  <si>
-    <t>01081999</t>
-  </si>
-  <si>
-    <t>01091999</t>
-  </si>
-  <si>
-    <t>01101999</t>
-  </si>
-  <si>
-    <t>01111999</t>
-  </si>
-  <si>
-    <t>01121999</t>
-  </si>
-  <si>
-    <t>01012000</t>
-  </si>
-  <si>
-    <t>01022000</t>
-  </si>
-  <si>
-    <t>01032000</t>
-  </si>
-  <si>
-    <t>01042000</t>
-  </si>
-  <si>
-    <t>01052000</t>
-  </si>
-  <si>
-    <t>01062000</t>
-  </si>
-  <si>
-    <t>01072000</t>
-  </si>
-  <si>
-    <t>01082000</t>
-  </si>
-  <si>
-    <t>01092000</t>
-  </si>
-  <si>
-    <t>01102000</t>
-  </si>
-  <si>
-    <t>01112000</t>
-  </si>
-  <si>
-    <t>01122000</t>
-  </si>
-  <si>
-    <t>01012001</t>
-  </si>
-  <si>
-    <t>01022001</t>
-  </si>
-  <si>
-    <t>01032001</t>
-  </si>
-  <si>
-    <t>01042001</t>
-  </si>
-  <si>
-    <t>01052001</t>
-  </si>
-  <si>
-    <t>01062001</t>
-  </si>
-  <si>
-    <t>01072001</t>
-  </si>
-  <si>
-    <t>01082001</t>
-  </si>
-  <si>
-    <t>01092001</t>
-  </si>
-  <si>
-    <t>01102001</t>
-  </si>
-  <si>
-    <t>01112001</t>
-  </si>
-  <si>
-    <t>01122001</t>
-  </si>
-  <si>
-    <t>01012002</t>
-  </si>
-  <si>
-    <t>01022002</t>
-  </si>
-  <si>
-    <t>01032002</t>
-  </si>
-  <si>
-    <t>01042002</t>
-  </si>
-  <si>
-    <t>01052002</t>
-  </si>
-  <si>
-    <t>01062002</t>
-  </si>
-  <si>
-    <t>01072002</t>
-  </si>
-  <si>
-    <t>01082002</t>
-  </si>
-  <si>
-    <t>01092002</t>
-  </si>
-  <si>
-    <t>01102002</t>
-  </si>
-  <si>
-    <t>01112002</t>
-  </si>
-  <si>
-    <t>01122002</t>
-  </si>
-  <si>
-    <t>01012003</t>
-  </si>
-  <si>
-    <t>01022003</t>
-  </si>
-  <si>
-    <t>01032003</t>
-  </si>
-  <si>
-    <t>01042003</t>
-  </si>
-  <si>
-    <t>01052003</t>
-  </si>
-  <si>
-    <t>01062003</t>
-  </si>
-  <si>
-    <t>01072003</t>
-  </si>
-  <si>
-    <t>01082003</t>
-  </si>
-  <si>
-    <t>01092003</t>
-  </si>
-  <si>
-    <t>01102003</t>
-  </si>
-  <si>
-    <t>01112003</t>
-  </si>
-  <si>
-    <t>01122003</t>
-  </si>
-  <si>
-    <t>01012004</t>
-  </si>
-  <si>
-    <t>01022004</t>
-  </si>
-  <si>
-    <t>01032004</t>
-  </si>
-  <si>
-    <t>01042004</t>
-  </si>
-  <si>
-    <t>01052004</t>
-  </si>
-  <si>
-    <t>01062004</t>
-  </si>
-  <si>
-    <t>01072004</t>
-  </si>
-  <si>
-    <t>01082004</t>
-  </si>
-  <si>
-    <t>01092004</t>
-  </si>
-  <si>
-    <t>01102004</t>
-  </si>
-  <si>
-    <t>01112004</t>
-  </si>
-  <si>
-    <t>01122004</t>
-  </si>
-  <si>
-    <t>01012005</t>
-  </si>
-  <si>
-    <t>01022005</t>
-  </si>
-  <si>
-    <t>01032005</t>
-  </si>
-  <si>
-    <t>01042005</t>
-  </si>
-  <si>
-    <t>01052005</t>
-  </si>
-  <si>
-    <t>01062005</t>
-  </si>
-  <si>
-    <t>01072005</t>
-  </si>
-  <si>
-    <t>01082005</t>
-  </si>
-  <si>
-    <t>01092005</t>
-  </si>
-  <si>
-    <t>01102005</t>
-  </si>
-  <si>
-    <t>01112005</t>
-  </si>
-  <si>
-    <t>01122005</t>
-  </si>
-  <si>
-    <t>01012006</t>
-  </si>
-  <si>
-    <t>01022006</t>
-  </si>
-  <si>
-    <t>01032006</t>
-  </si>
-  <si>
-    <t>01042006</t>
-  </si>
-  <si>
-    <t>01052006</t>
-  </si>
-  <si>
-    <t>01062006</t>
-  </si>
-  <si>
-    <t>01072006</t>
-  </si>
-  <si>
-    <t>01082006</t>
-  </si>
-  <si>
-    <t>01092006</t>
-  </si>
-  <si>
-    <t>01102006</t>
-  </si>
-  <si>
-    <t>01112006</t>
-  </si>
-  <si>
-    <t>01122006</t>
-  </si>
-  <si>
-    <t>01012007</t>
-  </si>
-  <si>
-    <t>01022007</t>
-  </si>
-  <si>
-    <t>01032007</t>
-  </si>
-  <si>
-    <t>01042007</t>
-  </si>
-  <si>
-    <t>01052007</t>
-  </si>
-  <si>
-    <t>01062007</t>
-  </si>
-  <si>
-    <t>01072007</t>
-  </si>
-  <si>
-    <t>01082007</t>
-  </si>
-  <si>
-    <t>01092007</t>
-  </si>
-  <si>
-    <t>01102007</t>
-  </si>
-  <si>
-    <t>01112007</t>
-  </si>
-  <si>
-    <t>01122007</t>
-  </si>
-  <si>
-    <t>01012008</t>
-  </si>
-  <si>
-    <t>01022008</t>
-  </si>
-  <si>
-    <t>01032008</t>
-  </si>
-  <si>
-    <t>01042008</t>
-  </si>
-  <si>
-    <t>01052008</t>
-  </si>
-  <si>
-    <t>01062008</t>
-  </si>
-  <si>
-    <t>01072008</t>
-  </si>
-  <si>
-    <t>01082008</t>
-  </si>
-  <si>
-    <t>01092008</t>
-  </si>
-  <si>
-    <t>01102008</t>
-  </si>
-  <si>
-    <t>01112008</t>
-  </si>
-  <si>
-    <t>01122008</t>
-  </si>
-  <si>
-    <t>01012009</t>
-  </si>
-  <si>
-    <t>01022009</t>
-  </si>
-  <si>
-    <t>01032009</t>
-  </si>
-  <si>
-    <t>01042009</t>
-  </si>
-  <si>
-    <t>01052009</t>
-  </si>
-  <si>
-    <t>01062009</t>
-  </si>
-  <si>
-    <t>01072009</t>
-  </si>
-  <si>
-    <t>01082009</t>
-  </si>
-  <si>
-    <t>01092009</t>
-  </si>
-  <si>
-    <t>01102009</t>
-  </si>
-  <si>
-    <t>01112009</t>
-  </si>
-  <si>
-    <t>01122009</t>
-  </si>
-  <si>
-    <t>01012010</t>
-  </si>
-  <si>
-    <t>01022010</t>
-  </si>
-  <si>
-    <t>01032010</t>
-  </si>
-  <si>
-    <t>01042010</t>
-  </si>
-  <si>
-    <t>01052010</t>
-  </si>
-  <si>
-    <t>01062010</t>
-  </si>
-  <si>
-    <t>01072010</t>
-  </si>
-  <si>
-    <t>01082010</t>
-  </si>
-  <si>
-    <t>01092010</t>
-  </si>
-  <si>
-    <t>01102010</t>
-  </si>
-  <si>
-    <t>01112010</t>
-  </si>
-  <si>
-    <t>01122010</t>
-  </si>
-  <si>
-    <t>01012011</t>
-  </si>
-  <si>
-    <t>01022011</t>
-  </si>
-  <si>
-    <t>01032011</t>
-  </si>
-  <si>
-    <t>01042011</t>
-  </si>
-  <si>
-    <t>01052011</t>
-  </si>
-  <si>
-    <t>01062011</t>
-  </si>
-  <si>
-    <t>01072011</t>
-  </si>
-  <si>
-    <t>01082011</t>
-  </si>
-  <si>
-    <t>01092011</t>
-  </si>
-  <si>
-    <t>01102011</t>
-  </si>
-  <si>
-    <t>01112011</t>
-  </si>
-  <si>
-    <t>01122011</t>
-  </si>
-  <si>
-    <t>01012012</t>
-  </si>
-  <si>
-    <t>01022012</t>
-  </si>
-  <si>
-    <t>01032012</t>
-  </si>
-  <si>
-    <t>01042012</t>
-  </si>
-  <si>
-    <t>01052012</t>
-  </si>
-  <si>
-    <t>01062012</t>
-  </si>
-  <si>
-    <t>01072012</t>
-  </si>
-  <si>
-    <t>01082012</t>
-  </si>
-  <si>
-    <t>01092012</t>
-  </si>
-  <si>
-    <t>01102012</t>
-  </si>
-  <si>
-    <t>01112012</t>
-  </si>
-  <si>
-    <t>01122012</t>
-  </si>
-  <si>
-    <t>01012013</t>
-  </si>
-  <si>
-    <t>01022013</t>
-  </si>
-  <si>
-    <t>01032013</t>
-  </si>
-  <si>
-    <t>01042013</t>
-  </si>
-  <si>
-    <t>01052013</t>
-  </si>
-  <si>
-    <t>01062013</t>
-  </si>
-  <si>
-    <t>01072013</t>
-  </si>
-  <si>
-    <t>01082013</t>
-  </si>
-  <si>
-    <t>01092013</t>
-  </si>
-  <si>
-    <t>01102013</t>
-  </si>
-  <si>
-    <t>01112013</t>
-  </si>
-  <si>
-    <t>01122013</t>
-  </si>
-  <si>
-    <t>01012014</t>
-  </si>
-  <si>
-    <t>01022014</t>
-  </si>
-  <si>
-    <t>01032014</t>
-  </si>
-  <si>
-    <t>01042014</t>
-  </si>
-  <si>
-    <t>01052014</t>
-  </si>
-  <si>
-    <t>01062014</t>
-  </si>
-  <si>
-    <t>01072014</t>
-  </si>
-  <si>
-    <t>01082014</t>
-  </si>
-  <si>
-    <t>01092014</t>
-  </si>
-  <si>
-    <t>01102014</t>
-  </si>
-  <si>
-    <t>01112014</t>
-  </si>
-  <si>
-    <t>01122014</t>
-  </si>
-  <si>
-    <t>01012015</t>
-  </si>
-  <si>
-    <t>01022015</t>
-  </si>
-  <si>
-    <t>01032015</t>
-  </si>
-  <si>
-    <t>01042015</t>
-  </si>
-  <si>
-    <t>01052015</t>
-  </si>
-  <si>
-    <t>01062015</t>
-  </si>
-  <si>
-    <t>01072015</t>
-  </si>
-  <si>
-    <t>01082015</t>
-  </si>
-  <si>
-    <t>01092015</t>
-  </si>
-  <si>
-    <t>01102015</t>
-  </si>
-  <si>
-    <t>01112015</t>
-  </si>
-  <si>
-    <t>01122015</t>
-  </si>
-  <si>
-    <t>01012016</t>
-  </si>
-  <si>
-    <t>01022016</t>
-  </si>
-  <si>
-    <t>01032016</t>
-  </si>
-  <si>
-    <t>01042016</t>
-  </si>
-  <si>
-    <t>01052016</t>
-  </si>
-  <si>
-    <t>01062016</t>
-  </si>
-  <si>
-    <t>01072016</t>
-  </si>
-  <si>
-    <t>01082016</t>
-  </si>
-  <si>
-    <t>01092016</t>
-  </si>
-  <si>
-    <t>01102016</t>
-  </si>
-  <si>
-    <t>01112016</t>
-  </si>
-  <si>
-    <t>01122016</t>
-  </si>
-  <si>
-    <t>01012017</t>
-  </si>
-  <si>
-    <t>01022017</t>
-  </si>
-  <si>
-    <t>01032017</t>
-  </si>
-  <si>
-    <t>01042017</t>
-  </si>
-  <si>
-    <t>01052017</t>
-  </si>
-  <si>
-    <t>01062017</t>
-  </si>
-  <si>
-    <t>01072017</t>
-  </si>
-  <si>
-    <t>01082017</t>
-  </si>
-  <si>
-    <t>01092017</t>
-  </si>
-  <si>
-    <t>01102017</t>
-  </si>
-  <si>
-    <t>01112017</t>
-  </si>
-  <si>
-    <t>01122017</t>
-  </si>
-  <si>
-    <t>01012018</t>
-  </si>
-  <si>
-    <t>01022018</t>
-  </si>
-  <si>
-    <t>01032018</t>
-  </si>
-  <si>
-    <t>01042018</t>
-  </si>
-  <si>
-    <t>01052018</t>
-  </si>
-  <si>
-    <t>01062018</t>
-  </si>
-  <si>
-    <t>01072018</t>
-  </si>
-  <si>
-    <t>01082018</t>
-  </si>
-  <si>
-    <t>01092018</t>
-  </si>
-  <si>
-    <t>01102018</t>
-  </si>
-  <si>
-    <t>01112018</t>
-  </si>
-  <si>
-    <t>01122018</t>
-  </si>
-  <si>
-    <t>01012019</t>
-  </si>
-  <si>
-    <t>01022019</t>
-  </si>
-  <si>
-    <t>01032019</t>
-  </si>
-  <si>
-    <t>01042019</t>
-  </si>
-  <si>
-    <t>01052019</t>
-  </si>
-  <si>
-    <t>01062019</t>
-  </si>
-  <si>
-    <t>01072019</t>
-  </si>
-  <si>
-    <t>01082019</t>
-  </si>
-  <si>
-    <t>01092019</t>
-  </si>
-  <si>
-    <t>01102019</t>
-  </si>
-  <si>
-    <t>01112019</t>
-  </si>
-  <si>
-    <t>01122019</t>
-  </si>
-  <si>
-    <t>01012020</t>
-  </si>
-  <si>
-    <t>01022020</t>
-  </si>
-  <si>
-    <t>01032020</t>
-  </si>
-  <si>
-    <t>01042020</t>
-  </si>
-  <si>
-    <t>01052020</t>
-  </si>
-  <si>
-    <t>01062020</t>
-  </si>
-  <si>
-    <t>01072020</t>
-  </si>
-  <si>
-    <t>01082020</t>
-  </si>
-  <si>
-    <t>01092020</t>
-  </si>
-  <si>
-    <t>01102020</t>
-  </si>
-  <si>
-    <t>01112020</t>
-  </si>
-  <si>
-    <t>01122020</t>
-  </si>
-  <si>
-    <t>01012021</t>
-  </si>
-  <si>
-    <t>01022021</t>
-  </si>
-  <si>
-    <t>01032021</t>
-  </si>
-  <si>
-    <t>01042021</t>
-  </si>
-  <si>
-    <t>01052021</t>
-  </si>
-  <si>
-    <t>01062021</t>
-  </si>
-  <si>
-    <t>01072021</t>
-  </si>
-  <si>
-    <t>01082021</t>
-  </si>
-  <si>
-    <t>01092021</t>
-  </si>
-  <si>
-    <t>01102021</t>
-  </si>
-  <si>
-    <t>01112021</t>
   </si>
   <si>
     <t>30 hPa</t>
@@ -1350,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1362,6 +105,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1666,26 +412,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D420"/>
+  <dimension ref="A1:D421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="F410" sqref="F410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>420</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>421</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>422</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -1701,8 +449,9 @@
       <c r="C2" s="1">
         <v>-326</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
+      <c r="D2" s="5">
+        <f>DATE(1987,1,1)</f>
+        <v>31778</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1715,8 +464,9 @@
       <c r="C3" s="1">
         <v>-307</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
+      <c r="D3" s="5">
+        <f>DATE(1987,2,1)</f>
+        <v>31809</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1729,8 +479,9 @@
       <c r="C4" s="1">
         <v>-311</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
+      <c r="D4" s="5">
+        <f>DATE(1987,3,1)</f>
+        <v>31837</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1743,8 +494,9 @@
       <c r="C5" s="1">
         <v>-328</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
+      <c r="D5" s="5">
+        <f>DATE(1987,4,1)</f>
+        <v>31868</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1757,8 +509,9 @@
       <c r="C6" s="1">
         <v>-295</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
+      <c r="D6" s="5">
+        <f>DATE(1987,5,1)</f>
+        <v>31898</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1771,8 +524,9 @@
       <c r="C7" s="1">
         <v>-11</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
+      <c r="D7" s="5">
+        <f>DATE(1987,6,1)</f>
+        <v>31929</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1785,8 +539,9 @@
       <c r="C8" s="1">
         <v>93</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
+      <c r="D8" s="5">
+        <f>DATE(1987,7,1)</f>
+        <v>31959</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1799,8 +554,9 @@
       <c r="C9" s="1">
         <v>124</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
+      <c r="D9" s="5">
+        <f>DATE(1987,8,1)</f>
+        <v>31990</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1813,8 +569,9 @@
       <c r="C10" s="1">
         <v>145</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
+      <c r="D10" s="5">
+        <f>DATE(1987,9,1)</f>
+        <v>32021</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1827,8 +584,9 @@
       <c r="C11" s="1">
         <v>133</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
+      <c r="D11" s="5">
+        <f>DATE(1987,10,1)</f>
+        <v>32051</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1841,8 +599,9 @@
       <c r="C12" s="1">
         <v>124</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
+      <c r="D12" s="5">
+        <f>DATE(1987,11,1)</f>
+        <v>32082</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1855,8 +614,9 @@
       <c r="C13" s="1">
         <v>86</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
+      <c r="D13" s="5">
+        <f>DATE(1987,12,1)</f>
+        <v>32112</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1869,8 +629,9 @@
       <c r="C14" s="1">
         <v>89</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
+      <c r="D14" s="5">
+        <f>DATE(1988,1,1)</f>
+        <v>32143</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1883,8 +644,9 @@
       <c r="C15" s="1">
         <v>12</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
+      <c r="D15" s="5">
+        <f>DATE(1988,2,1)</f>
+        <v>32174</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1897,8 +659,9 @@
       <c r="C16" s="1">
         <v>-53</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>15</v>
+      <c r="D16" s="5">
+        <f>DATE(1988,3,1)</f>
+        <v>32203</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1911,8 +674,9 @@
       <c r="C17" s="1">
         <v>-150</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>16</v>
+      <c r="D17" s="5">
+        <f>DATE(1988,4,1)</f>
+        <v>32234</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1925,8 +689,9 @@
       <c r="C18" s="1">
         <v>-258</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>17</v>
+      <c r="D18" s="5">
+        <f>DATE(1988,5,1)</f>
+        <v>32264</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1939,8 +704,9 @@
       <c r="C19" s="1">
         <v>-297</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>18</v>
+      <c r="D19" s="5">
+        <f>DATE(1988,6,1)</f>
+        <v>32295</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1953,8 +719,9 @@
       <c r="C20" s="1">
         <v>-322</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>19</v>
+      <c r="D20" s="5">
+        <f>DATE(1988,7,1)</f>
+        <v>32325</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1967,8 +734,9 @@
       <c r="C21" s="1">
         <v>-327</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>20</v>
+      <c r="D21" s="5">
+        <f>DATE(1988,8,1)</f>
+        <v>32356</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1981,8 +749,9 @@
       <c r="C22" s="1">
         <v>-334</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>21</v>
+      <c r="D22" s="5">
+        <f>DATE(1988,9,1)</f>
+        <v>32387</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1995,8 +764,9 @@
       <c r="C23" s="1">
         <v>-321</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>22</v>
+      <c r="D23" s="5">
+        <f>DATE(1988,10,1)</f>
+        <v>32417</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2009,8 +779,9 @@
       <c r="C24" s="1">
         <v>-306</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>23</v>
+      <c r="D24" s="5">
+        <f>DATE(1988,11,1)</f>
+        <v>32448</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2023,8 +794,9 @@
       <c r="C25" s="1">
         <v>-306</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>24</v>
+      <c r="D25" s="5">
+        <f>DATE(1988,12,1)</f>
+        <v>32478</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2037,8 +809,9 @@
       <c r="C26" s="1">
         <v>-328</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>25</v>
+      <c r="D26" s="5">
+        <f>DATE(1989,1,1)</f>
+        <v>32509</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2051,8 +824,9 @@
       <c r="C27" s="1">
         <v>-310</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>26</v>
+      <c r="D27" s="5">
+        <f>DATE(1989,2,1)</f>
+        <v>32540</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2065,8 +839,9 @@
       <c r="C28" s="1">
         <v>-303</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>27</v>
+      <c r="D28" s="5">
+        <f>DATE(1989,3,1)</f>
+        <v>32568</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2079,8 +854,9 @@
       <c r="C29" s="1">
         <v>-323</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>28</v>
+      <c r="D29" s="5">
+        <f>DATE(1989,4,1)</f>
+        <v>32599</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2093,8 +869,9 @@
       <c r="C30" s="1">
         <v>-327</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>29</v>
+      <c r="D30" s="5">
+        <f>DATE(1989,5,1)</f>
+        <v>32629</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2107,8 +884,9 @@
       <c r="C31" s="1">
         <v>-338</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>30</v>
+      <c r="D31" s="5">
+        <f>DATE(1989,6,1)</f>
+        <v>32660</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2121,8 +899,9 @@
       <c r="C32" s="1">
         <v>-363</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>31</v>
+      <c r="D32" s="5">
+        <f>DATE(1989,7,1)</f>
+        <v>32690</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2135,8 +914,9 @@
       <c r="C33" s="1">
         <v>-350</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>32</v>
+      <c r="D33" s="5">
+        <f>DATE(1989,8,1)</f>
+        <v>32721</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2149,8 +929,9 @@
       <c r="C34" s="1">
         <v>-346</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>33</v>
+      <c r="D34" s="5">
+        <f>DATE(1989,9,1)</f>
+        <v>32752</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2163,8 +944,9 @@
       <c r="C35" s="1">
         <v>-235</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>34</v>
+      <c r="D35" s="5">
+        <f>DATE(1989,10,1)</f>
+        <v>32782</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2177,8 +959,9 @@
       <c r="C36" s="1">
         <v>-95</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>35</v>
+      <c r="D36" s="5">
+        <f>DATE(1989,11,1)</f>
+        <v>32813</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2191,8 +974,9 @@
       <c r="C37" s="1">
         <v>127</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>36</v>
+      <c r="D37" s="5">
+        <f>DATE(1989,12,1)</f>
+        <v>32843</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2205,8 +989,9 @@
       <c r="C38" s="1">
         <v>131</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>37</v>
+      <c r="D38" s="5">
+        <f>DATE(1990,1,1)</f>
+        <v>32874</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2219,8 +1004,9 @@
       <c r="C39" s="1">
         <v>146</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>38</v>
+      <c r="D39" s="5">
+        <f>DATE(1990,2,1)</f>
+        <v>32905</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2233,8 +1019,9 @@
       <c r="C40" s="1">
         <v>181</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>39</v>
+      <c r="D40" s="5">
+        <f>DATE(1990,3,1)</f>
+        <v>32933</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2247,8 +1034,9 @@
       <c r="C41" s="1">
         <v>166</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>40</v>
+      <c r="D41" s="5">
+        <f>DATE(1990,4,1)</f>
+        <v>32964</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2261,8 +1049,9 @@
       <c r="C42" s="1">
         <v>136</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>41</v>
+      <c r="D42" s="5">
+        <f>DATE(1990,5,1)</f>
+        <v>32994</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2275,8 +1064,9 @@
       <c r="C43" s="1">
         <v>172</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>42</v>
+      <c r="D43" s="5">
+        <f>DATE(1990,6,1)</f>
+        <v>33025</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2289,8 +1079,9 @@
       <c r="C44" s="1">
         <v>118</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>43</v>
+      <c r="D44" s="5">
+        <f>DATE(1990,7,1)</f>
+        <v>33055</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2303,8 +1094,9 @@
       <c r="C45" s="1">
         <v>134</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>44</v>
+      <c r="D45" s="5">
+        <f>DATE(1990,8,1)</f>
+        <v>33086</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2317,8 +1109,9 @@
       <c r="C46" s="1">
         <v>143</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>45</v>
+      <c r="D46" s="5">
+        <f>DATE(1990,9,1)</f>
+        <v>33117</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2331,8 +1124,9 @@
       <c r="C47" s="1">
         <v>139</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>46</v>
+      <c r="D47" s="5">
+        <f>DATE(1990,10,1)</f>
+        <v>33147</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2345,8 +1139,9 @@
       <c r="C48" s="1">
         <v>110</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>47</v>
+      <c r="D48" s="5">
+        <f>DATE(1990,11,1)</f>
+        <v>33178</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2359,8 +1154,9 @@
       <c r="C49" s="1">
         <v>25</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>48</v>
+      <c r="D49" s="5">
+        <f>DATE(1990,12,1)</f>
+        <v>33208</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2373,8 +1169,9 @@
       <c r="C50" s="1">
         <v>7</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>49</v>
+      <c r="D50" s="5">
+        <f>DATE(1991,1,1)</f>
+        <v>33239</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2387,8 +1184,9 @@
       <c r="C51" s="1">
         <v>44</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>50</v>
+      <c r="D51" s="5">
+        <f>DATE(1991,2,1)</f>
+        <v>33270</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2401,8 +1199,9 @@
       <c r="C52" s="1">
         <v>10</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>51</v>
+      <c r="D52" s="5">
+        <f>DATE(1991,3,1)</f>
+        <v>33298</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2415,8 +1214,9 @@
       <c r="C53" s="1">
         <v>-182</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>52</v>
+      <c r="D53" s="5">
+        <f>DATE(1991,4,1)</f>
+        <v>33329</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2429,8 +1229,9 @@
       <c r="C54" s="1">
         <v>-256</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>53</v>
+      <c r="D54" s="5">
+        <f>DATE(1991,5,1)</f>
+        <v>33359</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2443,8 +1244,9 @@
       <c r="C55" s="1">
         <v>-286</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>54</v>
+      <c r="D55" s="5">
+        <f>DATE(1991,6,1)</f>
+        <v>33390</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2457,8 +1259,9 @@
       <c r="C56" s="1">
         <v>-293</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>55</v>
+      <c r="D56" s="5">
+        <f>DATE(1991,7,1)</f>
+        <v>33420</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2471,8 +1274,9 @@
       <c r="C57" s="1">
         <v>-287</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>56</v>
+      <c r="D57" s="5">
+        <f>DATE(1991,8,1)</f>
+        <v>33451</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2485,8 +1289,9 @@
       <c r="C58" s="1">
         <v>-288</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>57</v>
+      <c r="D58" s="5">
+        <f>DATE(1991,9,1)</f>
+        <v>33482</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2499,8 +1304,9 @@
       <c r="C59" s="1">
         <v>-269</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>58</v>
+      <c r="D59" s="5">
+        <f>DATE(1991,10,1)</f>
+        <v>33512</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2513,8 +1319,9 @@
       <c r="C60" s="1">
         <v>-275</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>59</v>
+      <c r="D60" s="5">
+        <f>DATE(1991,11,1)</f>
+        <v>33543</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2527,8 +1334,9 @@
       <c r="C61" s="1">
         <v>-268</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>60</v>
+      <c r="D61" s="5">
+        <f>DATE(1991,12,1)</f>
+        <v>33573</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2541,8 +1349,9 @@
       <c r="C62" s="1">
         <v>-289</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>61</v>
+      <c r="D62" s="5">
+        <f>DATE(1992,1,1)</f>
+        <v>33604</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2555,8 +1364,9 @@
       <c r="C63" s="1">
         <v>-299</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>62</v>
+      <c r="D63" s="5">
+        <f>DATE(1992,2,1)</f>
+        <v>33635</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2569,8 +1379,9 @@
       <c r="C64" s="1">
         <v>-289</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>63</v>
+      <c r="D64" s="5">
+        <f>DATE(1992,3,1)</f>
+        <v>33664</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2583,8 +1394,9 @@
       <c r="C65" s="1">
         <v>-250</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>64</v>
+      <c r="D65" s="5">
+        <f>DATE(1992,4,1)</f>
+        <v>33695</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2597,8 +1409,9 @@
       <c r="C66" s="1">
         <v>-42</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>65</v>
+      <c r="D66" s="5">
+        <f>DATE(1992,5,1)</f>
+        <v>33725</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2611,8 +1424,9 @@
       <c r="C67" s="1">
         <v>66</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>66</v>
+      <c r="D67" s="5">
+        <f>DATE(1992,6,1)</f>
+        <v>33756</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2625,8 +1439,9 @@
       <c r="C68" s="1">
         <v>79</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>67</v>
+      <c r="D68" s="5">
+        <f>DATE(1992,7,1)</f>
+        <v>33786</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2639,8 +1454,9 @@
       <c r="C69" s="1">
         <v>153</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>68</v>
+      <c r="D69" s="5">
+        <f>DATE(1992,8,1)</f>
+        <v>33817</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2653,8 +1469,9 @@
       <c r="C70" s="1">
         <v>159</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>69</v>
+      <c r="D70" s="5">
+        <f>DATE(1992,9,1)</f>
+        <v>33848</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2667,8 +1484,9 @@
       <c r="C71" s="1">
         <v>160</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>70</v>
+      <c r="D71" s="5">
+        <f>DATE(1992,10,1)</f>
+        <v>33878</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2681,8 +1499,9 @@
       <c r="C72" s="1">
         <v>189</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>71</v>
+      <c r="D72" s="5">
+        <f>DATE(1992,11,1)</f>
+        <v>33909</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2695,8 +1514,9 @@
       <c r="C73" s="1">
         <v>189</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>72</v>
+      <c r="D73" s="5">
+        <f>DATE(1992,12,1)</f>
+        <v>33939</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2709,8 +1529,9 @@
       <c r="C74" s="1">
         <v>178</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>73</v>
+      <c r="D74" s="5">
+        <f>DATE(1993,1,1)</f>
+        <v>33970</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2723,8 +1544,9 @@
       <c r="C75" s="1">
         <v>208</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>74</v>
+      <c r="D75" s="5">
+        <f>DATE(1993,2,1)</f>
+        <v>34001</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2737,8 +1559,9 @@
       <c r="C76" s="1">
         <v>190</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>75</v>
+      <c r="D76" s="5">
+        <f>DATE(1993,3,1)</f>
+        <v>34029</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2751,8 +1574,9 @@
       <c r="C77" s="1">
         <v>121</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>76</v>
+      <c r="D77" s="5">
+        <f>DATE(1993,4,1)</f>
+        <v>34060</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2765,8 +1589,9 @@
       <c r="C78" s="1">
         <v>-52</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>77</v>
+      <c r="D78" s="5">
+        <f>DATE(1993,5,1)</f>
+        <v>34090</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2779,8 +1604,9 @@
       <c r="C79" s="1">
         <v>-226</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>78</v>
+      <c r="D79" s="5">
+        <f>DATE(1993,6,1)</f>
+        <v>34121</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2793,8 +1619,9 @@
       <c r="C80" s="1">
         <v>-258</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>79</v>
+      <c r="D80" s="5">
+        <f>DATE(1993,7,1)</f>
+        <v>34151</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2807,8 +1634,9 @@
       <c r="C81" s="1">
         <v>-280</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>80</v>
+      <c r="D81" s="5">
+        <f>DATE(1993,8,1)</f>
+        <v>34182</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2821,8 +1649,9 @@
       <c r="C82" s="1">
         <v>-316</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>81</v>
+      <c r="D82" s="5">
+        <f>DATE(1993,9,1)</f>
+        <v>34213</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2835,8 +1664,9 @@
       <c r="C83" s="1">
         <v>-301</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>82</v>
+      <c r="D83" s="5">
+        <f>DATE(1993,10,1)</f>
+        <v>34243</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2849,8 +1679,9 @@
       <c r="C84" s="1">
         <v>-311</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>83</v>
+      <c r="D84" s="5">
+        <f>DATE(1993,11,1)</f>
+        <v>34274</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2863,8 +1694,9 @@
       <c r="C85" s="1">
         <v>-300</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>84</v>
+      <c r="D85" s="5">
+        <f>DATE(1993,12,1)</f>
+        <v>34304</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2877,8 +1709,9 @@
       <c r="C86" s="1">
         <v>-315</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>85</v>
+      <c r="D86" s="5">
+        <f>DATE(1994,1,1)</f>
+        <v>34335</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2891,8 +1724,9 @@
       <c r="C87" s="1">
         <v>-315</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>86</v>
+      <c r="D87" s="5">
+        <f>DATE(1994,2,1)</f>
+        <v>34366</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2905,8 +1739,9 @@
       <c r="C88" s="1">
         <v>-319</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>87</v>
+      <c r="D88" s="5">
+        <f>DATE(1994,3,1)</f>
+        <v>34394</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2919,8 +1754,9 @@
       <c r="C89" s="1">
         <v>-332</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>88</v>
+      <c r="D89" s="5">
+        <f>DATE(1994,4,1)</f>
+        <v>34425</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2933,8 +1769,9 @@
       <c r="C90" s="1">
         <v>-336</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>89</v>
+      <c r="D90" s="5">
+        <f>DATE(1994,5,1)</f>
+        <v>34455</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2947,8 +1784,9 @@
       <c r="C91" s="1">
         <v>-349</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>90</v>
+      <c r="D91" s="5">
+        <f>DATE(1994,6,1)</f>
+        <v>34486</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2961,8 +1799,9 @@
       <c r="C92" s="1">
         <v>-293</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>91</v>
+      <c r="D92" s="5">
+        <f>DATE(1994,7,1)</f>
+        <v>34516</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2975,8 +1814,9 @@
       <c r="C93" s="1">
         <v>-48</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>92</v>
+      <c r="D93" s="5">
+        <f>DATE(1994,8,1)</f>
+        <v>34547</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2989,8 +1829,9 @@
       <c r="C94" s="1">
         <v>86</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>93</v>
+      <c r="D94" s="5">
+        <f>DATE(1994,9,1)</f>
+        <v>34578</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3003,8 +1844,9 @@
       <c r="C95" s="1">
         <v>117</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>94</v>
+      <c r="D95" s="5">
+        <f>DATE(1994,10,1)</f>
+        <v>34608</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3017,8 +1859,9 @@
       <c r="C96" s="1">
         <v>160</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>95</v>
+      <c r="D96" s="5">
+        <f>DATE(1994,11,1)</f>
+        <v>34639</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3031,8 +1874,9 @@
       <c r="C97" s="1">
         <v>190</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>96</v>
+      <c r="D97" s="5">
+        <f>DATE(1994,12,1)</f>
+        <v>34669</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3045,8 +1889,9 @@
       <c r="C98" s="1">
         <v>174</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>97</v>
+      <c r="D98" s="5">
+        <f>DATE(1995,1,1)</f>
+        <v>34700</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3059,8 +1904,9 @@
       <c r="C99" s="1">
         <v>112</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>98</v>
+      <c r="D99" s="5">
+        <f>DATE(1995,2,1)</f>
+        <v>34731</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3073,8 +1919,9 @@
       <c r="C100" s="1">
         <v>111</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>99</v>
+      <c r="D100" s="5">
+        <f>DATE(1995,3,1)</f>
+        <v>34759</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3087,8 +1934,9 @@
       <c r="C101" s="1">
         <v>152</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>100</v>
+      <c r="D101" s="5">
+        <f>DATE(1995,4,1)</f>
+        <v>34790</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3101,8 +1949,9 @@
       <c r="C102" s="1">
         <v>148</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>101</v>
+      <c r="D102" s="5">
+        <f>DATE(1995,5,1)</f>
+        <v>34820</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3115,8 +1964,9 @@
       <c r="C103" s="1">
         <v>102</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>102</v>
+      <c r="D103" s="5">
+        <f>DATE(1995,6,1)</f>
+        <v>34851</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3129,8 +1979,9 @@
       <c r="C104" s="1">
         <v>16</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>103</v>
+      <c r="D104" s="5">
+        <f>DATE(1995,7,1)</f>
+        <v>34881</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3143,8 +1994,9 @@
       <c r="C105" s="1">
         <v>-28</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>104</v>
+      <c r="D105" s="5">
+        <f>DATE(1995,8,1)</f>
+        <v>34912</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3157,8 +2009,9 @@
       <c r="C106" s="1">
         <v>-66</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>105</v>
+      <c r="D106" s="5">
+        <f>DATE(1995,9,1)</f>
+        <v>34943</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3171,8 +2024,9 @@
       <c r="C107" s="1">
         <v>-134</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>106</v>
+      <c r="D107" s="5">
+        <f>DATE(1995,10,1)</f>
+        <v>34973</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3185,8 +2039,9 @@
       <c r="C108" s="1">
         <v>-191</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>107</v>
+      <c r="D108" s="5">
+        <f>DATE(1995,11,1)</f>
+        <v>35004</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3199,8 +2054,9 @@
       <c r="C109" s="1">
         <v>-232</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>108</v>
+      <c r="D109" s="5">
+        <f>DATE(1995,12,1)</f>
+        <v>35034</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3213,8 +2069,9 @@
       <c r="C110" s="1">
         <v>-261</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>109</v>
+      <c r="D110" s="5">
+        <f>DATE(1996,1,1)</f>
+        <v>35065</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3227,8 +2084,9 @@
       <c r="C111" s="1">
         <v>-283</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>110</v>
+      <c r="D111" s="5">
+        <f>DATE(1996,2,1)</f>
+        <v>35096</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3241,8 +2099,9 @@
       <c r="C112" s="1">
         <v>-321</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>111</v>
+      <c r="D112" s="5">
+        <f>DATE(1996,3,1)</f>
+        <v>35125</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3255,8 +2114,9 @@
       <c r="C113" s="1">
         <v>-328</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>112</v>
+      <c r="D113" s="5">
+        <f>DATE(1996,4,1)</f>
+        <v>35156</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3269,8 +2129,9 @@
       <c r="C114" s="1">
         <v>-333</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>113</v>
+      <c r="D114" s="5">
+        <f>DATE(1996,5,1)</f>
+        <v>35186</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3283,8 +2144,9 @@
       <c r="C115" s="1">
         <v>-345</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>114</v>
+      <c r="D115" s="5">
+        <f>DATE(1996,6,1)</f>
+        <v>35217</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3297,8 +2159,9 @@
       <c r="C116" s="1">
         <v>-353</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>115</v>
+      <c r="D116" s="5">
+        <f>DATE(1996,7,1)</f>
+        <v>35247</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3311,8 +2174,9 @@
       <c r="C117" s="1">
         <v>-359</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>116</v>
+      <c r="D117" s="5">
+        <f>DATE(1996,8,1)</f>
+        <v>35278</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3325,8 +2189,9 @@
       <c r="C118" s="1">
         <v>-259</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>117</v>
+      <c r="D118" s="5">
+        <f>DATE(1996,9,1)</f>
+        <v>35309</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3339,8 +2204,9 @@
       <c r="C119" s="1">
         <v>-42</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>118</v>
+      <c r="D119" s="5">
+        <f>DATE(1996,10,1)</f>
+        <v>35339</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3353,8 +2219,9 @@
       <c r="C120" s="1">
         <v>41</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>119</v>
+      <c r="D120" s="5">
+        <f>DATE(1996,11,1)</f>
+        <v>35370</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3367,8 +2234,9 @@
       <c r="C121" s="1">
         <v>179</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>120</v>
+      <c r="D121" s="5">
+        <f>DATE(1996,12,1)</f>
+        <v>35400</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3381,8 +2249,9 @@
       <c r="C122" s="1">
         <v>154</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>121</v>
+      <c r="D122" s="5">
+        <f>DATE(1997,1,1)</f>
+        <v>35431</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3395,8 +2264,9 @@
       <c r="C123" s="1">
         <v>152</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>122</v>
+      <c r="D123" s="5">
+        <f>DATE(1997,2,1)</f>
+        <v>35462</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3409,8 +2279,9 @@
       <c r="C124" s="1">
         <v>171</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>123</v>
+      <c r="D124" s="5">
+        <f>DATE(1997,3,1)</f>
+        <v>35490</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3423,8 +2294,9 @@
       <c r="C125" s="1">
         <v>180</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>124</v>
+      <c r="D125" s="5">
+        <f>DATE(1997,4,1)</f>
+        <v>35521</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3437,8 +2309,9 @@
       <c r="C126" s="1">
         <v>170</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>125</v>
+      <c r="D126" s="5">
+        <f>DATE(1997,5,1)</f>
+        <v>35551</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3451,8 +2324,9 @@
       <c r="C127" s="1">
         <v>173</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>126</v>
+      <c r="D127" s="5">
+        <f>DATE(1997,6,1)</f>
+        <v>35582</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3465,8 +2339,9 @@
       <c r="C128" s="1">
         <v>125</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>127</v>
+      <c r="D128" s="5">
+        <f>DATE(1997,7,1)</f>
+        <v>35612</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3479,8 +2354,9 @@
       <c r="C129" s="1">
         <v>117</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>128</v>
+      <c r="D129" s="5">
+        <f>DATE(1997,8,1)</f>
+        <v>35643</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3493,8 +2369,9 @@
       <c r="C130" s="1">
         <v>114</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>129</v>
+      <c r="D130" s="5">
+        <f>DATE(1997,9,1)</f>
+        <v>35674</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3507,8 +2384,9 @@
       <c r="C131" s="1">
         <v>32</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>130</v>
+      <c r="D131" s="5">
+        <f>DATE(1997,10,1)</f>
+        <v>35704</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3521,8 +2399,9 @@
       <c r="C132" s="1">
         <v>-104</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>131</v>
+      <c r="D132" s="5">
+        <f>DATE(1997,11,1)</f>
+        <v>35735</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3535,8 +2414,9 @@
       <c r="C133" s="1">
         <v>-200</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>132</v>
+      <c r="D133" s="5">
+        <f>DATE(1997,12,1)</f>
+        <v>35765</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3549,8 +2429,9 @@
       <c r="C134" s="1">
         <v>-235</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>133</v>
+      <c r="D134" s="5">
+        <f>DATE(1998,1,1)</f>
+        <v>35796</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3563,8 +2444,9 @@
       <c r="C135" s="1">
         <v>-267</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>134</v>
+      <c r="D135" s="5">
+        <f>DATE(1998,2,1)</f>
+        <v>35827</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3577,8 +2459,9 @@
       <c r="C136" s="1">
         <v>-310</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>135</v>
+      <c r="D136" s="5">
+        <f>DATE(1998,3,1)</f>
+        <v>35855</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3591,8 +2474,9 @@
       <c r="C137" s="1">
         <v>-303</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>136</v>
+      <c r="D137" s="5">
+        <f>DATE(1998,4,1)</f>
+        <v>35886</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3605,8 +2489,9 @@
       <c r="C138" s="1">
         <v>-303</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>137</v>
+      <c r="D138" s="5">
+        <f>DATE(1998,5,1)</f>
+        <v>35916</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3619,8 +2504,9 @@
       <c r="C139" s="1">
         <v>-316</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>138</v>
+      <c r="D139" s="5">
+        <f>DATE(1998,6,1)</f>
+        <v>35947</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3633,8 +2519,9 @@
       <c r="C140" s="1">
         <v>-324</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>139</v>
+      <c r="D140" s="5">
+        <f>DATE(1998,7,1)</f>
+        <v>35977</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3647,8 +2534,9 @@
       <c r="C141" s="1">
         <v>-224</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>140</v>
+      <c r="D141" s="5">
+        <f>DATE(1998,8,1)</f>
+        <v>36008</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3661,8 +2549,9 @@
       <c r="C142" s="1">
         <v>-11</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>141</v>
+      <c r="D142" s="5">
+        <f>DATE(1998,9,1)</f>
+        <v>36039</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3675,8 +2564,9 @@
       <c r="C143" s="1">
         <v>92</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>142</v>
+      <c r="D143" s="5">
+        <f>DATE(1998,10,1)</f>
+        <v>36069</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3689,8 +2579,9 @@
       <c r="C144" s="1">
         <v>162</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>143</v>
+      <c r="D144" s="5">
+        <f>DATE(1998,11,1)</f>
+        <v>36100</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3703,8 +2594,9 @@
       <c r="C145" s="1">
         <v>209</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>144</v>
+      <c r="D145" s="5">
+        <f>DATE(1998,12,1)</f>
+        <v>36130</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3717,8 +2609,9 @@
       <c r="C146" s="1">
         <v>153</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>145</v>
+      <c r="D146" s="5">
+        <f>DATE(1999,1,1)</f>
+        <v>36161</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3731,8 +2624,9 @@
       <c r="C147" s="1">
         <v>199</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>146</v>
+      <c r="D147" s="5">
+        <f>DATE(1999,2,1)</f>
+        <v>36192</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3745,8 +2639,9 @@
       <c r="C148" s="1">
         <v>105</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>147</v>
+      <c r="D148" s="5">
+        <f>DATE(1999,3,1)</f>
+        <v>36220</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3759,8 +2654,9 @@
       <c r="C149" s="1">
         <v>172</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>148</v>
+      <c r="D149" s="5">
+        <f>DATE(1999,4,1)</f>
+        <v>36251</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3773,8 +2669,9 @@
       <c r="C150" s="1">
         <v>129</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>149</v>
+      <c r="D150" s="5">
+        <f>DATE(1999,5,1)</f>
+        <v>36281</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3787,8 +2684,9 @@
       <c r="C151" s="1">
         <v>121</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>150</v>
+      <c r="D151" s="5">
+        <f>DATE(1999,6,1)</f>
+        <v>36312</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3801,8 +2699,9 @@
       <c r="C152" s="1">
         <v>70</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>151</v>
+      <c r="D152" s="5">
+        <f>DATE(1999,7,1)</f>
+        <v>36342</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3815,8 +2714,9 @@
       <c r="C153" s="1">
         <v>65</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>152</v>
+      <c r="D153" s="5">
+        <f>DATE(1999,8,1)</f>
+        <v>36373</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3829,8 +2729,9 @@
       <c r="C154" s="1">
         <v>58</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>153</v>
+      <c r="D154" s="5">
+        <f>DATE(1999,9,1)</f>
+        <v>36404</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3843,8 +2744,9 @@
       <c r="C155" s="1">
         <v>-22</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>154</v>
+      <c r="D155" s="5">
+        <f>DATE(1999,10,1)</f>
+        <v>36434</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3857,8 +2759,9 @@
       <c r="C156" s="1">
         <v>-95</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>155</v>
+      <c r="D156" s="5">
+        <f>DATE(1999,11,1)</f>
+        <v>36465</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3871,8 +2774,9 @@
       <c r="C157" s="1">
         <v>-186</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>156</v>
+      <c r="D157" s="5">
+        <f>DATE(1999,12,1)</f>
+        <v>36495</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3885,8 +2789,9 @@
       <c r="C158" s="1">
         <v>-232</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>157</v>
+      <c r="D158" s="5">
+        <f>DATE(2000,1,1)</f>
+        <v>36526</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3899,8 +2804,9 @@
       <c r="C159" s="1">
         <v>-223</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>158</v>
+      <c r="D159" s="5">
+        <f>DATE(2000,2,1)</f>
+        <v>36557</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3913,8 +2819,9 @@
       <c r="C160" s="1">
         <v>-227</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>159</v>
+      <c r="D160" s="5">
+        <f>DATE(2000,3,1)</f>
+        <v>36586</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3927,8 +2834,9 @@
       <c r="C161" s="1">
         <v>-304</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>160</v>
+      <c r="D161" s="5">
+        <f>DATE(2000,4,1)</f>
+        <v>36617</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3941,8 +2849,9 @@
       <c r="C162" s="1">
         <v>-333</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>161</v>
+      <c r="D162" s="5">
+        <f>DATE(2000,5,1)</f>
+        <v>36647</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3955,8 +2864,9 @@
       <c r="C163" s="1">
         <v>-343</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>162</v>
+      <c r="D163" s="5">
+        <f>DATE(2000,6,1)</f>
+        <v>36678</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3969,8 +2879,9 @@
       <c r="C164" s="1">
         <v>-363</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>163</v>
+      <c r="D164" s="5">
+        <f>DATE(2000,7,1)</f>
+        <v>36708</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3983,8 +2894,9 @@
       <c r="C165" s="1">
         <v>-353</v>
       </c>
-      <c r="D165" s="1" t="s">
-        <v>164</v>
+      <c r="D165" s="5">
+        <f>DATE(2000,8,1)</f>
+        <v>36739</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3997,8 +2909,9 @@
       <c r="C166" s="1">
         <v>-357</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>165</v>
+      <c r="D166" s="5">
+        <f>DATE(2000,9,1)</f>
+        <v>36770</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4011,8 +2924,9 @@
       <c r="C167" s="1">
         <v>-369</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>166</v>
+      <c r="D167" s="5">
+        <f>DATE(2000,10,1)</f>
+        <v>36800</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4025,8 +2939,9 @@
       <c r="C168" s="1">
         <v>-357</v>
       </c>
-      <c r="D168" s="1" t="s">
-        <v>167</v>
+      <c r="D168" s="5">
+        <f>DATE(2000,11,1)</f>
+        <v>36831</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4039,8 +2954,9 @@
       <c r="C169" s="1">
         <v>-328</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>168</v>
+      <c r="D169" s="5">
+        <f>DATE(2000,12,1)</f>
+        <v>36861</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -4053,8 +2969,9 @@
       <c r="C170" s="1">
         <v>-321</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>169</v>
+      <c r="D170" s="5">
+        <f>DATE(2001,1,1)</f>
+        <v>36892</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4067,8 +2984,9 @@
       <c r="C171" s="1">
         <v>-311</v>
       </c>
-      <c r="D171" s="1" t="s">
-        <v>170</v>
+      <c r="D171" s="5">
+        <f>DATE(2001,2,1)</f>
+        <v>36923</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4081,8 +2999,9 @@
       <c r="C172" s="1">
         <v>-322</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>171</v>
+      <c r="D172" s="5">
+        <f>DATE(2001,3,1)</f>
+        <v>36951</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4095,8 +3014,9 @@
       <c r="C173" s="1">
         <v>-344</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>172</v>
+      <c r="D173" s="5">
+        <f>DATE(2001,4,1)</f>
+        <v>36982</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4109,8 +3029,9 @@
       <c r="C174" s="1">
         <v>-352</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>173</v>
+      <c r="D174" s="5">
+        <f>DATE(2001,5,1)</f>
+        <v>37012</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4123,8 +3044,9 @@
       <c r="C175" s="1">
         <v>-255</v>
       </c>
-      <c r="D175" s="1" t="s">
-        <v>174</v>
+      <c r="D175" s="5">
+        <f>DATE(2001,6,1)</f>
+        <v>37043</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4137,8 +3059,9 @@
       <c r="C176" s="1">
         <v>-35</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>175</v>
+      <c r="D176" s="5">
+        <f>DATE(2001,7,1)</f>
+        <v>37073</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -4151,8 +3074,9 @@
       <c r="C177" s="1">
         <v>39</v>
       </c>
-      <c r="D177" s="1" t="s">
-        <v>176</v>
+      <c r="D177" s="5">
+        <f>DATE(2001,8,1)</f>
+        <v>37104</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4165,8 +3089,9 @@
       <c r="C178" s="1">
         <v>74</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>177</v>
+      <c r="D178" s="5">
+        <f>DATE(2001,9,1)</f>
+        <v>37135</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4179,8 +3104,9 @@
       <c r="C179" s="1">
         <v>106</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>178</v>
+      <c r="D179" s="5">
+        <f>DATE(2001,10,1)</f>
+        <v>37165</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4193,8 +3119,9 @@
       <c r="C180" s="1">
         <v>153</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>179</v>
+      <c r="D180" s="5">
+        <f>DATE(2001,11,1)</f>
+        <v>37196</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4207,8 +3134,9 @@
       <c r="C181" s="1">
         <v>211</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>180</v>
+      <c r="D181" s="5">
+        <f>DATE(2001,12,1)</f>
+        <v>37226</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4221,8 +3149,9 @@
       <c r="C182" s="1">
         <v>199</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>181</v>
+      <c r="D182" s="5">
+        <f>DATE(2002,1,1)</f>
+        <v>37257</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4235,8 +3164,9 @@
       <c r="C183" s="1">
         <v>202</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>182</v>
+      <c r="D183" s="5">
+        <f>DATE(2002,2,1)</f>
+        <v>37288</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4249,8 +3179,9 @@
       <c r="C184" s="1">
         <v>213</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>183</v>
+      <c r="D184" s="5">
+        <f>DATE(2002,3,1)</f>
+        <v>37316</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4263,8 +3194,9 @@
       <c r="C185" s="1">
         <v>167</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>184</v>
+      <c r="D185" s="5">
+        <f>DATE(2002,4,1)</f>
+        <v>37347</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4277,8 +3209,9 @@
       <c r="C186" s="1">
         <v>151</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>185</v>
+      <c r="D186" s="5">
+        <f>DATE(2002,5,1)</f>
+        <v>37377</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4291,8 +3224,9 @@
       <c r="C187" s="1">
         <v>52</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>186</v>
+      <c r="D187" s="5">
+        <f>DATE(2002,6,1)</f>
+        <v>37408</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4305,8 +3239,9 @@
       <c r="C188" s="1">
         <v>73</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>187</v>
+      <c r="D188" s="5">
+        <f>DATE(2002,7,1)</f>
+        <v>37438</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4319,8 +3254,9 @@
       <c r="C189" s="1">
         <v>73</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>188</v>
+      <c r="D189" s="5">
+        <f>DATE(2002,8,1)</f>
+        <v>37469</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4333,8 +3269,9 @@
       <c r="C190" s="1">
         <v>66</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>189</v>
+      <c r="D190" s="5">
+        <f>DATE(2002,9,1)</f>
+        <v>37500</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4347,8 +3284,9 @@
       <c r="C191" s="1">
         <v>-13</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>190</v>
+      <c r="D191" s="5">
+        <f>DATE(2002,10,1)</f>
+        <v>37530</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4361,8 +3299,9 @@
       <c r="C192" s="1">
         <v>-118</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>191</v>
+      <c r="D192" s="5">
+        <f>DATE(2002,11,1)</f>
+        <v>37561</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4375,8 +3314,9 @@
       <c r="C193" s="1">
         <v>-198</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>192</v>
+      <c r="D193" s="5">
+        <f>DATE(2002,12,1)</f>
+        <v>37591</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4389,8 +3329,9 @@
       <c r="C194" s="1">
         <v>-262</v>
       </c>
-      <c r="D194" s="1" t="s">
-        <v>193</v>
+      <c r="D194" s="5">
+        <f>DATE(2003,1,1)</f>
+        <v>37622</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4403,8 +3344,9 @@
       <c r="C195" s="1">
         <v>-280</v>
       </c>
-      <c r="D195" s="1" t="s">
-        <v>194</v>
+      <c r="D195" s="5">
+        <f>DATE(2003,2,1)</f>
+        <v>37653</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4417,8 +3359,9 @@
       <c r="C196" s="1">
         <v>-290</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>195</v>
+      <c r="D196" s="5">
+        <f>DATE(2003,3,1)</f>
+        <v>37681</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4431,8 +3374,9 @@
       <c r="C197" s="1">
         <v>-295</v>
       </c>
-      <c r="D197" s="1" t="s">
-        <v>196</v>
+      <c r="D197" s="5">
+        <f>DATE(2003,4,1)</f>
+        <v>37712</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4445,8 +3389,9 @@
       <c r="C198" s="1">
         <v>-301</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>197</v>
+      <c r="D198" s="5">
+        <f>DATE(2003,5,1)</f>
+        <v>37742</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4459,8 +3404,9 @@
       <c r="C199" s="1">
         <v>-308</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>198</v>
+      <c r="D199" s="5">
+        <f>DATE(2003,6,1)</f>
+        <v>37773</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4473,8 +3419,9 @@
       <c r="C200" s="1">
         <v>-329</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>199</v>
+      <c r="D200" s="5">
+        <f>DATE(2003,7,1)</f>
+        <v>37803</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4487,8 +3434,9 @@
       <c r="C201" s="1">
         <v>-237</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>200</v>
+      <c r="D201" s="5">
+        <f>DATE(2003,8,1)</f>
+        <v>37834</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4501,8 +3449,9 @@
       <c r="C202" s="1">
         <v>-95</v>
       </c>
-      <c r="D202" s="1" t="s">
-        <v>201</v>
+      <c r="D202" s="5">
+        <f>DATE(2003,9,1)</f>
+        <v>37865</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4515,8 +3464,9 @@
       <c r="C203" s="1">
         <v>-15</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>202</v>
+      <c r="D203" s="5">
+        <f>DATE(2003,10,1)</f>
+        <v>37895</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4529,8 +3479,9 @@
       <c r="C204" s="1">
         <v>69</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>203</v>
+      <c r="D204" s="5">
+        <f>DATE(2003,11,1)</f>
+        <v>37926</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4543,8 +3494,9 @@
       <c r="C205" s="1">
         <v>165</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>204</v>
+      <c r="D205" s="5">
+        <f>DATE(2003,12,1)</f>
+        <v>37956</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4557,8 +3509,9 @@
       <c r="C206" s="1">
         <v>209</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>205</v>
+      <c r="D206" s="5">
+        <f>DATE(2004,1,1)</f>
+        <v>37987</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4571,8 +3524,9 @@
       <c r="C207" s="1">
         <v>153</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>206</v>
+      <c r="D207" s="5">
+        <f>DATE(2004,2,1)</f>
+        <v>38018</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4585,8 +3539,9 @@
       <c r="C208" s="1">
         <v>163</v>
       </c>
-      <c r="D208" s="1" t="s">
-        <v>207</v>
+      <c r="D208" s="5">
+        <f>DATE(2004,3,1)</f>
+        <v>38047</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4599,8 +3554,9 @@
       <c r="C209" s="1">
         <v>155</v>
       </c>
-      <c r="D209" s="1" t="s">
-        <v>208</v>
+      <c r="D209" s="5">
+        <f>DATE(2004,4,1)</f>
+        <v>38078</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4613,8 +3569,9 @@
       <c r="C210" s="1">
         <v>145</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>209</v>
+      <c r="D210" s="5">
+        <f>DATE(2004,5,1)</f>
+        <v>38108</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4627,8 +3584,9 @@
       <c r="C211" s="1">
         <v>110</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>210</v>
+      <c r="D211" s="5">
+        <f>DATE(2004,6,1)</f>
+        <v>38139</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4641,8 +3599,9 @@
       <c r="C212" s="1">
         <v>69</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>211</v>
+      <c r="D212" s="5">
+        <f>DATE(2004,7,1)</f>
+        <v>38169</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4655,8 +3614,9 @@
       <c r="C213" s="1">
         <v>18</v>
       </c>
-      <c r="D213" s="1" t="s">
-        <v>212</v>
+      <c r="D213" s="5">
+        <f>DATE(2004,8,1)</f>
+        <v>38200</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4669,8 +3629,9 @@
       <c r="C214" s="1">
         <v>-52</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>213</v>
+      <c r="D214" s="5">
+        <f>DATE(2004,9,1)</f>
+        <v>38231</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4683,8 +3644,9 @@
       <c r="C215" s="1">
         <v>-98</v>
       </c>
-      <c r="D215" s="1" t="s">
-        <v>214</v>
+      <c r="D215" s="5">
+        <f>DATE(2004,10,1)</f>
+        <v>38261</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4697,8 +3659,9 @@
       <c r="C216" s="1">
         <v>-198</v>
       </c>
-      <c r="D216" s="1" t="s">
-        <v>215</v>
+      <c r="D216" s="5">
+        <f>DATE(2004,11,1)</f>
+        <v>38292</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4711,8 +3674,9 @@
       <c r="C217" s="1">
         <v>-247</v>
       </c>
-      <c r="D217" s="1" t="s">
-        <v>216</v>
+      <c r="D217" s="5">
+        <f>DATE(2004,12,1)</f>
+        <v>38322</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4725,8 +3689,9 @@
       <c r="C218" s="1">
         <v>-283</v>
       </c>
-      <c r="D218" s="1" t="s">
-        <v>217</v>
+      <c r="D218" s="5">
+        <f>DATE(2005,1,1)</f>
+        <v>38353</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4739,8 +3704,9 @@
       <c r="C219" s="1">
         <v>-297</v>
       </c>
-      <c r="D219" s="1" t="s">
-        <v>218</v>
+      <c r="D219" s="5">
+        <f>DATE(2005,2,1)</f>
+        <v>38384</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4753,8 +3719,9 @@
       <c r="C220" s="1">
         <v>-297</v>
       </c>
-      <c r="D220" s="1" t="s">
-        <v>219</v>
+      <c r="D220" s="5">
+        <f>DATE(2005,3,1)</f>
+        <v>38412</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4767,8 +3734,9 @@
       <c r="C221" s="1">
         <v>-329</v>
       </c>
-      <c r="D221" s="1" t="s">
-        <v>220</v>
+      <c r="D221" s="5">
+        <f>DATE(2005,4,1)</f>
+        <v>38443</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -4781,8 +3749,9 @@
       <c r="C222" s="1">
         <v>-330</v>
       </c>
-      <c r="D222" s="1" t="s">
-        <v>221</v>
+      <c r="D222" s="5">
+        <f>DATE(2005,5,1)</f>
+        <v>38473</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -4795,8 +3764,9 @@
       <c r="C223" s="1">
         <v>-331</v>
       </c>
-      <c r="D223" s="1" t="s">
-        <v>222</v>
+      <c r="D223" s="5">
+        <f>DATE(2005,6,1)</f>
+        <v>38504</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -4809,8 +3779,9 @@
       <c r="C224" s="1">
         <v>-339</v>
       </c>
-      <c r="D224" s="1" t="s">
-        <v>223</v>
+      <c r="D224" s="5">
+        <f>DATE(2005,7,1)</f>
+        <v>38534</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -4823,8 +3794,9 @@
       <c r="C225" s="1">
         <v>-324</v>
       </c>
-      <c r="D225" s="1" t="s">
-        <v>224</v>
+      <c r="D225" s="5">
+        <f>DATE(2005,8,1)</f>
+        <v>38565</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -4837,8 +3809,9 @@
       <c r="C226" s="1">
         <v>-334</v>
       </c>
-      <c r="D226" s="1" t="s">
-        <v>225</v>
+      <c r="D226" s="5">
+        <f>DATE(2005,9,1)</f>
+        <v>38596</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -4851,8 +3824,9 @@
       <c r="C227" s="1">
         <v>-320</v>
       </c>
-      <c r="D227" s="1" t="s">
-        <v>226</v>
+      <c r="D227" s="5">
+        <f>DATE(2005,10,1)</f>
+        <v>38626</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4865,8 +3839,9 @@
       <c r="C228" s="1">
         <v>-136</v>
       </c>
-      <c r="D228" s="1" t="s">
-        <v>227</v>
+      <c r="D228" s="5">
+        <f>DATE(2005,11,1)</f>
+        <v>38657</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -4879,8 +3854,9 @@
       <c r="C229" s="1">
         <v>34</v>
       </c>
-      <c r="D229" s="1" t="s">
-        <v>228</v>
+      <c r="D229" s="5">
+        <f>DATE(2005,12,1)</f>
+        <v>38687</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -4893,8 +3869,9 @@
       <c r="C230" s="1">
         <v>94</v>
       </c>
-      <c r="D230" s="1" t="s">
-        <v>229</v>
+      <c r="D230" s="5">
+        <f>DATE(2006,1,1)</f>
+        <v>38718</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4907,8 +3884,9 @@
       <c r="C231" s="1">
         <v>164</v>
       </c>
-      <c r="D231" s="1" t="s">
-        <v>230</v>
+      <c r="D231" s="5">
+        <f>DATE(2006,2,1)</f>
+        <v>38749</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -4921,8 +3899,9 @@
       <c r="C232" s="1">
         <v>176</v>
       </c>
-      <c r="D232" s="1" t="s">
-        <v>231</v>
+      <c r="D232" s="5">
+        <f>DATE(2006,3,1)</f>
+        <v>38777</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4935,8 +3914,9 @@
       <c r="C233" s="1">
         <v>126</v>
       </c>
-      <c r="D233" s="1" t="s">
-        <v>232</v>
+      <c r="D233" s="5">
+        <f>DATE(2006,4,1)</f>
+        <v>38808</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -4949,8 +3929,9 @@
       <c r="C234" s="1">
         <v>141</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>233</v>
+      <c r="D234" s="5">
+        <f>DATE(2006,5,1)</f>
+        <v>38838</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -4963,8 +3944,9 @@
       <c r="C235" s="1">
         <v>173</v>
       </c>
-      <c r="D235" s="1" t="s">
-        <v>234</v>
+      <c r="D235" s="5">
+        <f>DATE(2006,6,1)</f>
+        <v>38869</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -4977,8 +3959,9 @@
       <c r="C236" s="1">
         <v>131</v>
       </c>
-      <c r="D236" s="1" t="s">
-        <v>235</v>
+      <c r="D236" s="5">
+        <f>DATE(2006,7,1)</f>
+        <v>38899</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -4991,8 +3974,9 @@
       <c r="C237" s="1">
         <v>65</v>
       </c>
-      <c r="D237" s="1" t="s">
-        <v>236</v>
+      <c r="D237" s="5">
+        <f>DATE(2006,8,1)</f>
+        <v>38930</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -5005,8 +3989,9 @@
       <c r="C238" s="1">
         <v>76</v>
       </c>
-      <c r="D238" s="1" t="s">
-        <v>237</v>
+      <c r="D238" s="5">
+        <f>DATE(2006,9,1)</f>
+        <v>38961</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -5019,8 +4004,9 @@
       <c r="C239" s="1">
         <v>14</v>
       </c>
-      <c r="D239" s="1" t="s">
-        <v>238</v>
+      <c r="D239" s="5">
+        <f>DATE(2006,10,1)</f>
+        <v>38991</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -5033,8 +4019,9 @@
       <c r="C240" s="1">
         <v>-123</v>
       </c>
-      <c r="D240" s="1" t="s">
-        <v>239</v>
+      <c r="D240" s="5">
+        <f>DATE(2006,11,1)</f>
+        <v>39022</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -5047,8 +4034,9 @@
       <c r="C241" s="1">
         <v>-210</v>
       </c>
-      <c r="D241" s="1" t="s">
-        <v>240</v>
+      <c r="D241" s="5">
+        <f>DATE(2006,12,1)</f>
+        <v>39052</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -5061,8 +4049,9 @@
       <c r="C242" s="1">
         <v>-231</v>
       </c>
-      <c r="D242" s="1" t="s">
-        <v>241</v>
+      <c r="D242" s="5">
+        <f>DATE(2007,1,1)</f>
+        <v>39083</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -5075,8 +4064,9 @@
       <c r="C243" s="1">
         <v>-226</v>
       </c>
-      <c r="D243" s="1" t="s">
-        <v>242</v>
+      <c r="D243" s="5">
+        <f>DATE(2007,2,1)</f>
+        <v>39114</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -5089,8 +4079,9 @@
       <c r="C244" s="1">
         <v>-250</v>
       </c>
-      <c r="D244" s="1" t="s">
-        <v>243</v>
+      <c r="D244" s="5">
+        <f>DATE(2007,3,1)</f>
+        <v>39142</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -5103,8 +4094,9 @@
       <c r="C245" s="1">
         <v>-278</v>
       </c>
-      <c r="D245" s="1" t="s">
-        <v>244</v>
+      <c r="D245" s="5">
+        <f>DATE(2007,4,1)</f>
+        <v>39173</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -5117,8 +4109,9 @@
       <c r="C246" s="1">
         <v>-304</v>
       </c>
-      <c r="D246" s="1" t="s">
-        <v>245</v>
+      <c r="D246" s="5">
+        <f>DATE(2007,5,1)</f>
+        <v>39203</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -5131,8 +4124,9 @@
       <c r="C247" s="1">
         <v>-318</v>
       </c>
-      <c r="D247" s="1" t="s">
-        <v>246</v>
+      <c r="D247" s="5">
+        <f>DATE(2007,6,1)</f>
+        <v>39234</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -5145,8 +4139,9 @@
       <c r="C248" s="1">
         <v>-324</v>
       </c>
-      <c r="D248" s="1" t="s">
-        <v>247</v>
+      <c r="D248" s="5">
+        <f>DATE(2007,7,1)</f>
+        <v>39264</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -5159,8 +4154,9 @@
       <c r="C249" s="1">
         <v>-333</v>
       </c>
-      <c r="D249" s="1" t="s">
-        <v>248</v>
+      <c r="D249" s="5">
+        <f>DATE(2007,8,1)</f>
+        <v>39295</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -5173,8 +4169,9 @@
       <c r="C250" s="1">
         <v>-343</v>
       </c>
-      <c r="D250" s="1" t="s">
-        <v>249</v>
+      <c r="D250" s="5">
+        <f>DATE(2007,9,1)</f>
+        <v>39326</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -5187,8 +4184,9 @@
       <c r="C251" s="1">
         <v>-319</v>
       </c>
-      <c r="D251" s="1" t="s">
-        <v>250</v>
+      <c r="D251" s="5">
+        <f>DATE(2007,10,1)</f>
+        <v>39356</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -5201,8 +4199,9 @@
       <c r="C252" s="1">
         <v>2</v>
       </c>
-      <c r="D252" s="1" t="s">
-        <v>251</v>
+      <c r="D252" s="5">
+        <f>DATE(2007,11,1)</f>
+        <v>39387</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -5215,8 +4214,9 @@
       <c r="C253" s="1">
         <v>125</v>
       </c>
-      <c r="D253" s="1" t="s">
-        <v>252</v>
+      <c r="D253" s="5">
+        <f>DATE(2007,12,1)</f>
+        <v>39417</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -5229,8 +4229,9 @@
       <c r="C254" s="1">
         <v>118</v>
       </c>
-      <c r="D254" s="1" t="s">
-        <v>253</v>
+      <c r="D254" s="5">
+        <f>DATE(2008,1,1)</f>
+        <v>39448</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -5243,8 +4244,9 @@
       <c r="C255" s="1">
         <v>139</v>
       </c>
-      <c r="D255" s="1" t="s">
-        <v>254</v>
+      <c r="D255" s="5">
+        <f>DATE(2008,2,1)</f>
+        <v>39479</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -5257,8 +4259,9 @@
       <c r="C256" s="1">
         <v>190</v>
       </c>
-      <c r="D256" s="1" t="s">
-        <v>255</v>
+      <c r="D256" s="5">
+        <f>DATE(2008,3,1)</f>
+        <v>39508</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5271,8 +4274,9 @@
       <c r="C257" s="1">
         <v>169</v>
       </c>
-      <c r="D257" s="1" t="s">
-        <v>256</v>
+      <c r="D257" s="5">
+        <f>DATE(2008,4,1)</f>
+        <v>39539</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5285,8 +4289,9 @@
       <c r="C258" s="1">
         <v>127</v>
       </c>
-      <c r="D258" s="1" t="s">
-        <v>257</v>
+      <c r="D258" s="5">
+        <f>DATE(2008,5,1)</f>
+        <v>39569</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5299,8 +4304,9 @@
       <c r="C259" s="1">
         <v>168</v>
       </c>
-      <c r="D259" s="1" t="s">
-        <v>258</v>
+      <c r="D259" s="5">
+        <f>DATE(2008,6,1)</f>
+        <v>39600</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5313,8 +4319,9 @@
       <c r="C260" s="1">
         <v>142</v>
       </c>
-      <c r="D260" s="1" t="s">
-        <v>259</v>
+      <c r="D260" s="5">
+        <f>DATE(2008,7,1)</f>
+        <v>39630</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -5327,8 +4334,9 @@
       <c r="C261" s="1">
         <v>116</v>
       </c>
-      <c r="D261" s="1" t="s">
-        <v>260</v>
+      <c r="D261" s="5">
+        <f>DATE(2008,8,1)</f>
+        <v>39661</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5341,8 +4349,9 @@
       <c r="C262" s="1">
         <v>127</v>
       </c>
-      <c r="D262" s="1" t="s">
-        <v>261</v>
+      <c r="D262" s="5">
+        <f>DATE(2008,9,1)</f>
+        <v>39692</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5355,8 +4364,9 @@
       <c r="C263" s="1">
         <v>54</v>
       </c>
-      <c r="D263" s="1" t="s">
-        <v>262</v>
+      <c r="D263" s="5">
+        <f>DATE(2008,10,1)</f>
+        <v>39722</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5369,8 +4379,9 @@
       <c r="C264" s="1">
         <v>-52</v>
       </c>
-      <c r="D264" s="1" t="s">
-        <v>263</v>
+      <c r="D264" s="5">
+        <f>DATE(2008,11,1)</f>
+        <v>39753</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5383,8 +4394,9 @@
       <c r="C265" s="1">
         <v>-82</v>
       </c>
-      <c r="D265" s="1" t="s">
-        <v>264</v>
+      <c r="D265" s="5">
+        <f>DATE(2008,12,1)</f>
+        <v>39783</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -5397,8 +4409,9 @@
       <c r="C266" s="1">
         <v>-49</v>
       </c>
-      <c r="D266" s="1" t="s">
-        <v>265</v>
+      <c r="D266" s="5">
+        <f>DATE(2009,1,1)</f>
+        <v>39814</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -5411,8 +4424,9 @@
       <c r="C267" s="1">
         <v>14</v>
       </c>
-      <c r="D267" s="1" t="s">
-        <v>266</v>
+      <c r="D267" s="5">
+        <f>DATE(2009,2,1)</f>
+        <v>39845</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5425,8 +4439,9 @@
       <c r="C268" s="1">
         <v>-50</v>
       </c>
-      <c r="D268" s="1" t="s">
-        <v>267</v>
+      <c r="D268" s="5">
+        <f>DATE(2009,3,1)</f>
+        <v>39873</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5439,8 +4454,9 @@
       <c r="C269" s="1">
         <v>-198</v>
       </c>
-      <c r="D269" s="1" t="s">
-        <v>268</v>
+      <c r="D269" s="5">
+        <f>DATE(2009,4,1)</f>
+        <v>39904</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5453,8 +4469,9 @@
       <c r="C270" s="1">
         <v>-273</v>
       </c>
-      <c r="D270" s="1" t="s">
-        <v>269</v>
+      <c r="D270" s="5">
+        <f>DATE(2009,5,1)</f>
+        <v>39934</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -5467,8 +4484,9 @@
       <c r="C271" s="1">
         <v>-311</v>
       </c>
-      <c r="D271" s="1" t="s">
-        <v>270</v>
+      <c r="D271" s="5">
+        <f>DATE(2009,6,1)</f>
+        <v>39965</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5481,8 +4499,9 @@
       <c r="C272" s="1">
         <v>-328</v>
       </c>
-      <c r="D272" s="1" t="s">
-        <v>271</v>
+      <c r="D272" s="5">
+        <f>DATE(2009,7,1)</f>
+        <v>39995</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5495,8 +4514,9 @@
       <c r="C273" s="1">
         <v>-335</v>
       </c>
-      <c r="D273" s="1" t="s">
-        <v>272</v>
+      <c r="D273" s="5">
+        <f>DATE(2009,8,1)</f>
+        <v>40026</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5509,8 +4529,9 @@
       <c r="C274" s="1">
         <v>-347</v>
       </c>
-      <c r="D274" s="1" t="s">
-        <v>273</v>
+      <c r="D274" s="5">
+        <f>DATE(2009,9,1)</f>
+        <v>40057</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5523,8 +4544,9 @@
       <c r="C275" s="1">
         <v>-353</v>
       </c>
-      <c r="D275" s="1" t="s">
-        <v>274</v>
+      <c r="D275" s="5">
+        <f>DATE(2009,10,1)</f>
+        <v>40087</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5537,8 +4559,9 @@
       <c r="C276" s="1">
         <v>-328</v>
       </c>
-      <c r="D276" s="1" t="s">
-        <v>275</v>
+      <c r="D276" s="5">
+        <f>DATE(2009,11,1)</f>
+        <v>40118</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5551,8 +4574,9 @@
       <c r="C277" s="1">
         <v>-335</v>
       </c>
-      <c r="D277" s="1" t="s">
-        <v>276</v>
+      <c r="D277" s="5">
+        <f>DATE(2009,12,1)</f>
+        <v>40148</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -5565,8 +4589,9 @@
       <c r="C278" s="1">
         <v>-330</v>
       </c>
-      <c r="D278" s="1" t="s">
-        <v>277</v>
+      <c r="D278" s="5">
+        <f>DATE(2010,1,1)</f>
+        <v>40179</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -5579,8 +4604,9 @@
       <c r="C279" s="1">
         <v>-309</v>
       </c>
-      <c r="D279" s="1" t="s">
-        <v>278</v>
+      <c r="D279" s="5">
+        <f>DATE(2010,2,1)</f>
+        <v>40210</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -5593,8 +4619,9 @@
       <c r="C280" s="1">
         <v>-317</v>
       </c>
-      <c r="D280" s="1" t="s">
-        <v>279</v>
+      <c r="D280" s="5">
+        <f>DATE(2010,3,1)</f>
+        <v>40238</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -5607,8 +4634,9 @@
       <c r="C281" s="1">
         <v>-326</v>
       </c>
-      <c r="D281" s="1" t="s">
-        <v>280</v>
+      <c r="D281" s="5">
+        <f>DATE(2010,4,1)</f>
+        <v>40269</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5621,8 +4649,9 @@
       <c r="C282" s="1">
         <v>-347</v>
       </c>
-      <c r="D282" s="1" t="s">
-        <v>281</v>
+      <c r="D282" s="5">
+        <f>DATE(2010,5,1)</f>
+        <v>40299</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -5635,8 +4664,9 @@
       <c r="C283" s="1">
         <v>-104</v>
       </c>
-      <c r="D283" s="1" t="s">
-        <v>282</v>
+      <c r="D283" s="5">
+        <f>DATE(2010,6,1)</f>
+        <v>40330</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -5649,8 +4679,9 @@
       <c r="C284" s="1">
         <v>92</v>
       </c>
-      <c r="D284" s="1" t="s">
-        <v>283</v>
+      <c r="D284" s="5">
+        <f>DATE(2010,7,1)</f>
+        <v>40360</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -5663,8 +4694,9 @@
       <c r="C285" s="1">
         <v>111</v>
       </c>
-      <c r="D285" s="1" t="s">
-        <v>284</v>
+      <c r="D285" s="5">
+        <f>DATE(2010,8,1)</f>
+        <v>40391</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -5677,8 +4709,9 @@
       <c r="C286" s="1">
         <v>134</v>
       </c>
-      <c r="D286" s="1" t="s">
-        <v>285</v>
+      <c r="D286" s="5">
+        <f>DATE(2010,9,1)</f>
+        <v>40422</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -5691,8 +4724,9 @@
       <c r="C287" s="1">
         <v>111</v>
       </c>
-      <c r="D287" s="1" t="s">
-        <v>286</v>
+      <c r="D287" s="5">
+        <f>DATE(2010,10,1)</f>
+        <v>40452</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -5705,8 +4739,9 @@
       <c r="C288" s="1">
         <v>116</v>
       </c>
-      <c r="D288" s="1" t="s">
-        <v>287</v>
+      <c r="D288" s="5">
+        <f>DATE(2010,11,1)</f>
+        <v>40483</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5719,8 +4754,9 @@
       <c r="C289" s="1">
         <v>30</v>
       </c>
-      <c r="D289" s="1" t="s">
-        <v>288</v>
+      <c r="D289" s="5">
+        <f>DATE(2010,12,1)</f>
+        <v>40513</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -5733,8 +4769,9 @@
       <c r="C290" s="1">
         <v>30</v>
       </c>
-      <c r="D290" s="1" t="s">
-        <v>289</v>
+      <c r="D290" s="5">
+        <f>DATE(2011,1,1)</f>
+        <v>40544</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -5747,8 +4784,9 @@
       <c r="C291" s="1">
         <v>75</v>
       </c>
-      <c r="D291" s="1" t="s">
-        <v>290</v>
+      <c r="D291" s="5">
+        <f>DATE(2011,2,1)</f>
+        <v>40575</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5761,8 +4799,9 @@
       <c r="C292" s="1">
         <v>71</v>
       </c>
-      <c r="D292" s="1" t="s">
-        <v>291</v>
+      <c r="D292" s="5">
+        <f>DATE(2011,3,1)</f>
+        <v>40603</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -5775,8 +4814,9 @@
       <c r="C293" s="1">
         <v>27</v>
       </c>
-      <c r="D293" s="1" t="s">
-        <v>292</v>
+      <c r="D293" s="5">
+        <f>DATE(2011,4,1)</f>
+        <v>40634</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -5789,8 +4829,9 @@
       <c r="C294" s="1">
         <v>-121</v>
       </c>
-      <c r="D294" s="1" t="s">
-        <v>293</v>
+      <c r="D294" s="5">
+        <f>DATE(2011,5,1)</f>
+        <v>40664</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -5803,8 +4844,9 @@
       <c r="C295" s="1">
         <v>-256</v>
       </c>
-      <c r="D295" s="1" t="s">
-        <v>294</v>
+      <c r="D295" s="5">
+        <f>DATE(2011,6,1)</f>
+        <v>40695</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -5817,8 +4859,9 @@
       <c r="C296" s="1">
         <v>-302</v>
       </c>
-      <c r="D296" s="1" t="s">
-        <v>295</v>
+      <c r="D296" s="5">
+        <f>DATE(2011,7,1)</f>
+        <v>40725</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -5831,8 +4874,9 @@
       <c r="C297" s="1">
         <v>-292</v>
       </c>
-      <c r="D297" s="1" t="s">
-        <v>296</v>
+      <c r="D297" s="5">
+        <f>DATE(2011,8,1)</f>
+        <v>40756</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -5845,8 +4889,9 @@
       <c r="C298" s="1">
         <v>-312</v>
       </c>
-      <c r="D298" s="1" t="s">
-        <v>297</v>
+      <c r="D298" s="5">
+        <f>DATE(2011,9,1)</f>
+        <v>40787</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -5859,8 +4904,9 @@
       <c r="C299" s="1">
         <v>-307</v>
       </c>
-      <c r="D299" s="1" t="s">
-        <v>298</v>
+      <c r="D299" s="5">
+        <f>DATE(2011,10,1)</f>
+        <v>40817</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5873,8 +4919,9 @@
       <c r="C300" s="1">
         <v>-316</v>
       </c>
-      <c r="D300" s="1" t="s">
-        <v>299</v>
+      <c r="D300" s="5">
+        <f>DATE(2011,11,1)</f>
+        <v>40848</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -5887,8 +4934,9 @@
       <c r="C301" s="1">
         <v>-315</v>
       </c>
-      <c r="D301" s="1" t="s">
-        <v>300</v>
+      <c r="D301" s="5">
+        <f>DATE(2011,12,1)</f>
+        <v>40878</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -5901,8 +4949,9 @@
       <c r="C302" s="1">
         <v>-320</v>
       </c>
-      <c r="D302" s="1" t="s">
-        <v>301</v>
+      <c r="D302" s="5">
+        <f>DATE(2012,1,1)</f>
+        <v>40909</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -5915,8 +4964,9 @@
       <c r="C303" s="1">
         <v>-302</v>
       </c>
-      <c r="D303" s="1" t="s">
-        <v>302</v>
+      <c r="D303" s="5">
+        <f>DATE(2012,2,1)</f>
+        <v>40940</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -5929,8 +4979,9 @@
       <c r="C304" s="1">
         <v>-313</v>
       </c>
-      <c r="D304" s="1" t="s">
-        <v>303</v>
+      <c r="D304" s="5">
+        <f>DATE(2012,3,1)</f>
+        <v>40969</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -5943,8 +4994,9 @@
       <c r="C305" s="1">
         <v>-323</v>
       </c>
-      <c r="D305" s="1" t="s">
-        <v>304</v>
+      <c r="D305" s="5">
+        <f>DATE(2012,4,1)</f>
+        <v>41000</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -5957,8 +5009,9 @@
       <c r="C306" s="1">
         <v>-340</v>
       </c>
-      <c r="D306" s="1" t="s">
-        <v>305</v>
+      <c r="D306" s="5">
+        <f>DATE(2012,5,1)</f>
+        <v>41030</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -5971,8 +5024,9 @@
       <c r="C307" s="1">
         <v>-327</v>
       </c>
-      <c r="D307" s="1" t="s">
-        <v>306</v>
+      <c r="D307" s="5">
+        <f>DATE(2012,6,1)</f>
+        <v>41061</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -5985,8 +5039,9 @@
       <c r="C308" s="1">
         <v>-194</v>
       </c>
-      <c r="D308" s="1" t="s">
-        <v>307</v>
+      <c r="D308" s="5">
+        <f>DATE(2012,7,1)</f>
+        <v>41091</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -5999,8 +5054,9 @@
       <c r="C309" s="1">
         <v>-75</v>
       </c>
-      <c r="D309" s="1" t="s">
-        <v>308</v>
+      <c r="D309" s="5">
+        <f>DATE(2012,8,1)</f>
+        <v>41122</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -6013,8 +5069,9 @@
       <c r="C310" s="1">
         <v>-5</v>
       </c>
-      <c r="D310" s="1" t="s">
-        <v>309</v>
+      <c r="D310" s="5">
+        <f>DATE(2012,9,1)</f>
+        <v>41153</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -6027,8 +5084,9 @@
       <c r="C311" s="1">
         <v>10</v>
       </c>
-      <c r="D311" s="1" t="s">
-        <v>310</v>
+      <c r="D311" s="5">
+        <f>DATE(2012,10,1)</f>
+        <v>41183</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -6041,8 +5099,9 @@
       <c r="C312" s="1">
         <v>86</v>
       </c>
-      <c r="D312" s="1" t="s">
-        <v>311</v>
+      <c r="D312" s="5">
+        <f>DATE(2012,11,1)</f>
+        <v>41214</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -6055,8 +5114,9 @@
       <c r="C313" s="1">
         <v>176</v>
       </c>
-      <c r="D313" s="1" t="s">
-        <v>312</v>
+      <c r="D313" s="5">
+        <f>DATE(2012,12,1)</f>
+        <v>41244</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -6069,8 +5129,9 @@
       <c r="C314" s="1">
         <v>155</v>
       </c>
-      <c r="D314" s="1" t="s">
-        <v>313</v>
+      <c r="D314" s="5">
+        <f>DATE(2013,1,1)</f>
+        <v>41275</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -6083,8 +5144,9 @@
       <c r="C315" s="1">
         <v>154</v>
       </c>
-      <c r="D315" s="1" t="s">
-        <v>314</v>
+      <c r="D315" s="5">
+        <f>DATE(2013,2,1)</f>
+        <v>41306</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -6097,8 +5159,9 @@
       <c r="C316" s="1">
         <v>169</v>
       </c>
-      <c r="D316" s="1" t="s">
-        <v>315</v>
+      <c r="D316" s="5">
+        <f>DATE(2013,3,1)</f>
+        <v>41334</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -6111,8 +5174,9 @@
       <c r="C317" s="1">
         <v>165</v>
       </c>
-      <c r="D317" s="1" t="s">
-        <v>316</v>
+      <c r="D317" s="5">
+        <f>DATE(2013,4,1)</f>
+        <v>41365</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -6125,8 +5189,9 @@
       <c r="C318" s="1">
         <v>162</v>
       </c>
-      <c r="D318" s="1" t="s">
-        <v>317</v>
+      <c r="D318" s="5">
+        <f>DATE(2013,5,1)</f>
+        <v>41395</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -6139,8 +5204,9 @@
       <c r="C319" s="1">
         <v>185</v>
       </c>
-      <c r="D319" s="1" t="s">
-        <v>318</v>
+      <c r="D319" s="5">
+        <f>DATE(2013,6,1)</f>
+        <v>41426</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -6153,8 +5219,9 @@
       <c r="C320" s="1">
         <v>144</v>
       </c>
-      <c r="D320" s="1" t="s">
-        <v>319</v>
+      <c r="D320" s="5">
+        <f>DATE(2013,7,1)</f>
+        <v>41456</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -6167,8 +5234,9 @@
       <c r="C321" s="1">
         <v>164</v>
       </c>
-      <c r="D321" s="1" t="s">
-        <v>320</v>
+      <c r="D321" s="5">
+        <f>DATE(2013,8,1)</f>
+        <v>41487</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -6181,8 +5249,9 @@
       <c r="C322" s="1">
         <v>169</v>
       </c>
-      <c r="D322" s="1" t="s">
-        <v>321</v>
+      <c r="D322" s="5">
+        <f>DATE(2013,9,1)</f>
+        <v>41518</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -6195,8 +5264,9 @@
       <c r="C323" s="1">
         <v>124</v>
       </c>
-      <c r="D323" s="1" t="s">
-        <v>322</v>
+      <c r="D323" s="5">
+        <f>DATE(2013,10,1)</f>
+        <v>41548</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -6209,8 +5279,9 @@
       <c r="C324" s="1">
         <v>105</v>
       </c>
-      <c r="D324" s="1" t="s">
-        <v>323</v>
+      <c r="D324" s="5">
+        <f>DATE(2013,11,1)</f>
+        <v>41579</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -6223,8 +5294,9 @@
       <c r="C325" s="1">
         <v>81</v>
       </c>
-      <c r="D325" s="1" t="s">
-        <v>324</v>
+      <c r="D325" s="5">
+        <f>DATE(2013,12,1)</f>
+        <v>41609</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -6237,8 +5309,9 @@
       <c r="C326" s="1">
         <v>85</v>
       </c>
-      <c r="D326" s="1" t="s">
-        <v>325</v>
+      <c r="D326" s="5">
+        <f>DATE(2014,1,1)</f>
+        <v>41640</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -6251,8 +5324,9 @@
       <c r="C327" s="1">
         <v>61</v>
       </c>
-      <c r="D327" s="1" t="s">
-        <v>326</v>
+      <c r="D327" s="5">
+        <f>DATE(2014,2,1)</f>
+        <v>41671</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -6265,8 +5339,9 @@
       <c r="C328" s="1">
         <v>4</v>
       </c>
-      <c r="D328" s="1" t="s">
-        <v>327</v>
+      <c r="D328" s="5">
+        <f>DATE(2014,3,1)</f>
+        <v>41699</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -6279,8 +5354,9 @@
       <c r="C329" s="1">
         <v>-169</v>
       </c>
-      <c r="D329" s="1" t="s">
-        <v>328</v>
+      <c r="D329" s="5">
+        <f>DATE(2014,4,1)</f>
+        <v>41730</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -6293,8 +5369,9 @@
       <c r="C330" s="1">
         <v>-259</v>
       </c>
-      <c r="D330" s="1" t="s">
-        <v>329</v>
+      <c r="D330" s="5">
+        <f>DATE(2014,5,1)</f>
+        <v>41760</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -6307,8 +5384,9 @@
       <c r="C331" s="1">
         <v>-281</v>
       </c>
-      <c r="D331" s="1" t="s">
-        <v>330</v>
+      <c r="D331" s="5">
+        <f>DATE(2014,6,1)</f>
+        <v>41791</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -6321,8 +5399,9 @@
       <c r="C332" s="1">
         <v>-307</v>
       </c>
-      <c r="D332" s="1" t="s">
-        <v>331</v>
+      <c r="D332" s="5">
+        <f>DATE(2014,7,1)</f>
+        <v>41821</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -6335,8 +5414,9 @@
       <c r="C333" s="1">
         <v>-307</v>
       </c>
-      <c r="D333" s="1" t="s">
-        <v>332</v>
+      <c r="D333" s="5">
+        <f>DATE(2014,8,1)</f>
+        <v>41852</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -6349,8 +5429,9 @@
       <c r="C334" s="1">
         <v>-324</v>
       </c>
-      <c r="D334" s="1" t="s">
-        <v>333</v>
+      <c r="D334" s="5">
+        <f>DATE(2014,9,1)</f>
+        <v>41883</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -6363,8 +5444,9 @@
       <c r="C335" s="1">
         <v>-358</v>
       </c>
-      <c r="D335" s="1" t="s">
-        <v>334</v>
+      <c r="D335" s="5">
+        <f>DATE(2014,10,1)</f>
+        <v>41913</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -6377,8 +5459,9 @@
       <c r="C336" s="1">
         <v>-350</v>
       </c>
-      <c r="D336" s="1" t="s">
-        <v>335</v>
+      <c r="D336" s="5">
+        <f>DATE(2014,11,1)</f>
+        <v>41944</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -6391,8 +5474,9 @@
       <c r="C337" s="1">
         <v>-362</v>
       </c>
-      <c r="D337" s="1" t="s">
-        <v>336</v>
+      <c r="D337" s="5">
+        <f>DATE(2014,12,1)</f>
+        <v>41974</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -6405,8 +5489,9 @@
       <c r="C338" s="1">
         <v>-355</v>
       </c>
-      <c r="D338" s="1" t="s">
-        <v>337</v>
+      <c r="D338" s="5">
+        <f>DATE(2015,1,1)</f>
+        <v>42005</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -6419,8 +5504,9 @@
       <c r="C339" s="1">
         <v>-320</v>
       </c>
-      <c r="D339" s="1" t="s">
-        <v>338</v>
+      <c r="D339" s="5">
+        <f>DATE(2015,2,1)</f>
+        <v>42036</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -6433,8 +5519,9 @@
       <c r="C340" s="1">
         <v>-151</v>
       </c>
-      <c r="D340" s="1" t="s">
-        <v>339</v>
+      <c r="D340" s="5">
+        <f>DATE(2015,3,1)</f>
+        <v>42064</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -6447,8 +5534,9 @@
       <c r="C341" s="1">
         <v>3</v>
       </c>
-      <c r="D341" s="1" t="s">
-        <v>340</v>
+      <c r="D341" s="5">
+        <f>DATE(2015,4,1)</f>
+        <v>42095</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -6461,8 +5549,9 @@
       <c r="C342" s="1">
         <v>97</v>
       </c>
-      <c r="D342" s="1" t="s">
-        <v>341</v>
+      <c r="D342" s="5">
+        <f>DATE(2015,5,1)</f>
+        <v>42125</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -6475,8 +5564,9 @@
       <c r="C343" s="1">
         <v>127</v>
       </c>
-      <c r="D343" s="1" t="s">
-        <v>342</v>
+      <c r="D343" s="5">
+        <f>DATE(2015,6,1)</f>
+        <v>42156</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -6489,8 +5579,9 @@
       <c r="C344" s="1">
         <v>170</v>
       </c>
-      <c r="D344" s="1" t="s">
-        <v>343</v>
+      <c r="D344" s="5">
+        <f>DATE(2015,7,1)</f>
+        <v>42186</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -6503,8 +5594,9 @@
       <c r="C345" s="1">
         <v>163</v>
       </c>
-      <c r="D345" s="1" t="s">
-        <v>344</v>
+      <c r="D345" s="5">
+        <f>DATE(2015,8,1)</f>
+        <v>42217</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -6517,8 +5609,9 @@
       <c r="C346" s="1">
         <v>189</v>
       </c>
-      <c r="D346" s="1" t="s">
-        <v>345</v>
+      <c r="D346" s="5">
+        <f>DATE(2015,9,1)</f>
+        <v>42248</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -6531,8 +5624,9 @@
       <c r="C347" s="1">
         <v>133</v>
       </c>
-      <c r="D347" s="1" t="s">
-        <v>346</v>
+      <c r="D347" s="5">
+        <f>DATE(2015,10,1)</f>
+        <v>42278</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -6545,8 +5639,9 @@
       <c r="C348" s="1">
         <v>129</v>
       </c>
-      <c r="D348" s="1" t="s">
-        <v>347</v>
+      <c r="D348" s="5">
+        <f>DATE(2015,11,1)</f>
+        <v>42309</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -6559,8 +5654,9 @@
       <c r="C349" s="1">
         <v>96</v>
       </c>
-      <c r="D349" s="1" t="s">
-        <v>348</v>
+      <c r="D349" s="5">
+        <f>DATE(2015,12,1)</f>
+        <v>42339</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -6573,8 +5669,9 @@
       <c r="C350" s="1">
         <v>91</v>
       </c>
-      <c r="D350" s="1" t="s">
-        <v>349</v>
+      <c r="D350" s="5">
+        <f>DATE(2016,1,1)</f>
+        <v>42370</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -6587,8 +5684,9 @@
       <c r="C351" s="1">
         <v>135</v>
       </c>
-      <c r="D351" s="1" t="s">
-        <v>350</v>
+      <c r="D351" s="5">
+        <f>DATE(2016,2,1)</f>
+        <v>42401</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -6601,8 +5699,9 @@
       <c r="C352" s="1">
         <v>123</v>
       </c>
-      <c r="D352" s="1" t="s">
-        <v>351</v>
+      <c r="D352" s="5">
+        <f>DATE(2016,3,1)</f>
+        <v>42430</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -6615,8 +5714,9 @@
       <c r="C353" s="1">
         <v>115</v>
       </c>
-      <c r="D353" s="1" t="s">
-        <v>352</v>
+      <c r="D353" s="5">
+        <f>DATE(2016,4,1)</f>
+        <v>42461</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -6629,8 +5729,9 @@
       <c r="C354" s="1">
         <v>92</v>
       </c>
-      <c r="D354" s="1" t="s">
-        <v>353</v>
+      <c r="D354" s="5">
+        <f>DATE(2016,5,1)</f>
+        <v>42491</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -6643,8 +5744,9 @@
       <c r="C355" s="1">
         <v>76</v>
       </c>
-      <c r="D355" s="1" t="s">
-        <v>354</v>
+      <c r="D355" s="5">
+        <f>DATE(2016,6,1)</f>
+        <v>42522</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -6657,8 +5759,9 @@
       <c r="C356" s="1">
         <v>90</v>
       </c>
-      <c r="D356" s="1" t="s">
-        <v>355</v>
+      <c r="D356" s="5">
+        <f>DATE(2016,7,1)</f>
+        <v>42552</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -6671,8 +5774,9 @@
       <c r="C357" s="1">
         <v>123</v>
       </c>
-      <c r="D357" s="1" t="s">
-        <v>356</v>
+      <c r="D357" s="5">
+        <f>DATE(2016,8,1)</f>
+        <v>42583</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -6685,8 +5789,9 @@
       <c r="C358" s="1">
         <v>125</v>
       </c>
-      <c r="D358" s="1" t="s">
-        <v>357</v>
+      <c r="D358" s="5">
+        <f>DATE(2016,9,1)</f>
+        <v>42614</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -6699,8 +5804,9 @@
       <c r="C359" s="1">
         <v>141</v>
       </c>
-      <c r="D359" s="1" t="s">
-        <v>358</v>
+      <c r="D359" s="5">
+        <f>DATE(2016,10,1)</f>
+        <v>42644</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -6713,8 +5819,9 @@
       <c r="C360" s="1">
         <v>150</v>
       </c>
-      <c r="D360" s="1" t="s">
-        <v>359</v>
+      <c r="D360" s="5">
+        <f>DATE(2016,11,1)</f>
+        <v>42675</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -6727,8 +5834,9 @@
       <c r="C361" s="1">
         <v>169</v>
       </c>
-      <c r="D361" s="1" t="s">
-        <v>360</v>
+      <c r="D361" s="5">
+        <f>DATE(2016,12,1)</f>
+        <v>42705</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -6741,8 +5849,9 @@
       <c r="C362" s="1">
         <v>142</v>
       </c>
-      <c r="D362" s="1" t="s">
-        <v>361</v>
+      <c r="D362" s="5">
+        <f>DATE(2017,1,1)</f>
+        <v>42736</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -6755,8 +5864,9 @@
       <c r="C363" s="1">
         <v>159</v>
       </c>
-      <c r="D363" s="1" t="s">
-        <v>362</v>
+      <c r="D363" s="5">
+        <f>DATE(2017,2,1)</f>
+        <v>42767</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -6769,8 +5879,9 @@
       <c r="C364" s="1">
         <v>131</v>
       </c>
-      <c r="D364" s="1" t="s">
-        <v>363</v>
+      <c r="D364" s="5">
+        <f>DATE(2017,3,1)</f>
+        <v>42795</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -6783,8 +5894,9 @@
       <c r="C365" s="1">
         <v>52</v>
       </c>
-      <c r="D365" s="1" t="s">
-        <v>364</v>
+      <c r="D365" s="5">
+        <f>DATE(2017,4,1)</f>
+        <v>42826</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -6797,8 +5909,9 @@
       <c r="C366" s="1">
         <v>-207</v>
       </c>
-      <c r="D366" s="1" t="s">
-        <v>365</v>
+      <c r="D366" s="5">
+        <f>DATE(2017,5,1)</f>
+        <v>42856</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -6811,8 +5924,9 @@
       <c r="C367" s="1">
         <v>-287</v>
       </c>
-      <c r="D367" s="1" t="s">
-        <v>366</v>
+      <c r="D367" s="5">
+        <f>DATE(2017,6,1)</f>
+        <v>42887</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -6825,8 +5939,9 @@
       <c r="C368" s="1">
         <v>-310</v>
       </c>
-      <c r="D368" s="1" t="s">
-        <v>367</v>
+      <c r="D368" s="5">
+        <f>DATE(2017,7,1)</f>
+        <v>42917</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -6839,8 +5954,9 @@
       <c r="C369" s="1">
         <v>-329</v>
       </c>
-      <c r="D369" s="1" t="s">
-        <v>368</v>
+      <c r="D369" s="5">
+        <f>DATE(2017,8,1)</f>
+        <v>42948</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -6853,8 +5969,9 @@
       <c r="C370" s="1">
         <v>-347</v>
       </c>
-      <c r="D370" s="1" t="s">
-        <v>369</v>
+      <c r="D370" s="5">
+        <f>DATE(2017,9,1)</f>
+        <v>42979</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -6867,8 +5984,9 @@
       <c r="C371" s="1">
         <v>-375</v>
       </c>
-      <c r="D371" s="1" t="s">
-        <v>370</v>
+      <c r="D371" s="5">
+        <f>DATE(2017,10,1)</f>
+        <v>43009</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -6881,8 +5999,9 @@
       <c r="C372" s="1">
         <v>-356</v>
       </c>
-      <c r="D372" s="1" t="s">
-        <v>371</v>
+      <c r="D372" s="5">
+        <f>DATE(2017,11,1)</f>
+        <v>43040</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -6895,8 +6014,9 @@
       <c r="C373" s="1">
         <v>-329</v>
       </c>
-      <c r="D373" s="1" t="s">
-        <v>372</v>
+      <c r="D373" s="5">
+        <f>DATE(2017,12,1)</f>
+        <v>43070</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -6909,8 +6029,9 @@
       <c r="C374" s="1">
         <v>-338</v>
       </c>
-      <c r="D374" s="1" t="s">
-        <v>373</v>
+      <c r="D374" s="5">
+        <f>DATE(2018,1,1)</f>
+        <v>43101</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -6923,8 +6044,9 @@
       <c r="C375" s="1">
         <v>-327</v>
       </c>
-      <c r="D375" s="1" t="s">
-        <v>374</v>
+      <c r="D375" s="5">
+        <f>DATE(2018,2,1)</f>
+        <v>43132</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -6937,8 +6059,9 @@
       <c r="C376" s="1">
         <v>-342</v>
       </c>
-      <c r="D376" s="1" t="s">
-        <v>375</v>
+      <c r="D376" s="5">
+        <f>DATE(2018,3,1)</f>
+        <v>43160</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -6951,8 +6074,9 @@
       <c r="C377" s="1">
         <v>-347</v>
       </c>
-      <c r="D377" s="1" t="s">
-        <v>376</v>
+      <c r="D377" s="5">
+        <f>DATE(2018,4,1)</f>
+        <v>43191</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -6965,8 +6089,9 @@
       <c r="C378" s="1">
         <v>-349</v>
       </c>
-      <c r="D378" s="1" t="s">
-        <v>377</v>
+      <c r="D378" s="5">
+        <f>DATE(2018,5,1)</f>
+        <v>43221</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -6979,8 +6104,9 @@
       <c r="C379" s="1">
         <v>-311</v>
       </c>
-      <c r="D379" s="1" t="s">
-        <v>378</v>
+      <c r="D379" s="5">
+        <f>DATE(2018,6,1)</f>
+        <v>43252</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -6993,8 +6119,9 @@
       <c r="C380" s="1">
         <v>-81</v>
       </c>
-      <c r="D380" s="1" t="s">
-        <v>379</v>
+      <c r="D380" s="5">
+        <f>DATE(2018,7,1)</f>
+        <v>43282</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -7007,8 +6134,9 @@
       <c r="C381" s="1">
         <v>64</v>
       </c>
-      <c r="D381" s="1" t="s">
-        <v>380</v>
+      <c r="D381" s="5">
+        <f>DATE(2018,8,1)</f>
+        <v>43313</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -7021,8 +6149,9 @@
       <c r="C382" s="1">
         <v>131</v>
       </c>
-      <c r="D382" s="1" t="s">
-        <v>381</v>
+      <c r="D382" s="5">
+        <f>DATE(2018,9,1)</f>
+        <v>43344</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -7035,8 +6164,9 @@
       <c r="C383" s="1">
         <v>135</v>
       </c>
-      <c r="D383" s="1" t="s">
-        <v>382</v>
+      <c r="D383" s="5">
+        <f>DATE(2018,10,1)</f>
+        <v>43374</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7049,8 +6179,9 @@
       <c r="C384" s="1">
         <v>182</v>
       </c>
-      <c r="D384" s="1" t="s">
-        <v>383</v>
+      <c r="D384" s="5">
+        <f>DATE(2018,11,1)</f>
+        <v>43405</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -7063,8 +6194,9 @@
       <c r="C385" s="1">
         <v>204</v>
       </c>
-      <c r="D385" s="1" t="s">
-        <v>384</v>
+      <c r="D385" s="5">
+        <f>DATE(2018,12,1)</f>
+        <v>43435</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -7077,8 +6209,9 @@
       <c r="C386" s="1">
         <v>157</v>
       </c>
-      <c r="D386" s="1" t="s">
-        <v>385</v>
+      <c r="D386" s="5">
+        <f>DATE(2019,1,1)</f>
+        <v>43466</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -7091,8 +6224,9 @@
       <c r="C387" s="1">
         <v>73</v>
       </c>
-      <c r="D387" s="1" t="s">
-        <v>386</v>
+      <c r="D387" s="5">
+        <f>DATE(2019,2,1)</f>
+        <v>43497</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -7105,8 +6239,9 @@
       <c r="C388" s="1">
         <v>142</v>
       </c>
-      <c r="D388" s="1" t="s">
-        <v>387</v>
+      <c r="D388" s="5">
+        <f>DATE(2019,3,1)</f>
+        <v>43525</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -7119,8 +6254,9 @@
       <c r="C389" s="1">
         <v>136</v>
       </c>
-      <c r="D389" s="1" t="s">
-        <v>388</v>
+      <c r="D389" s="5">
+        <f>DATE(2019,4,1)</f>
+        <v>43556</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -7133,8 +6269,9 @@
       <c r="C390" s="1">
         <v>142</v>
       </c>
-      <c r="D390" s="1" t="s">
-        <v>389</v>
+      <c r="D390" s="5">
+        <f>DATE(2019,5,1)</f>
+        <v>43586</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -7147,8 +6284,9 @@
       <c r="C391" s="1">
         <v>90</v>
       </c>
-      <c r="D391" s="1" t="s">
-        <v>390</v>
+      <c r="D391" s="5">
+        <f>DATE(2019,6,1)</f>
+        <v>43617</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -7161,8 +6299,9 @@
       <c r="C392" s="1">
         <v>35</v>
       </c>
-      <c r="D392" s="1" t="s">
-        <v>391</v>
+      <c r="D392" s="5">
+        <f>DATE(2019,7,1)</f>
+        <v>43647</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -7175,8 +6314,9 @@
       <c r="C393" s="1">
         <v>11</v>
       </c>
-      <c r="D393" s="1" t="s">
-        <v>392</v>
+      <c r="D393" s="5">
+        <f>DATE(2019,8,1)</f>
+        <v>43678</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -7189,8 +6329,9 @@
       <c r="C394" s="1">
         <v>13</v>
       </c>
-      <c r="D394" s="1" t="s">
-        <v>393</v>
+      <c r="D394" s="5">
+        <f>DATE(2019,9,1)</f>
+        <v>43709</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -7203,8 +6344,9 @@
       <c r="C395" s="1">
         <v>-102</v>
       </c>
-      <c r="D395" s="1" t="s">
-        <v>394</v>
+      <c r="D395" s="5">
+        <f>DATE(2019,10,1)</f>
+        <v>43739</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -7217,8 +6359,9 @@
       <c r="C396" s="1">
         <v>-192</v>
       </c>
-      <c r="D396" s="1" t="s">
-        <v>395</v>
+      <c r="D396" s="5">
+        <f>DATE(2019,11,1)</f>
+        <v>43770</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -7231,8 +6374,9 @@
       <c r="C397" s="1">
         <v>-250</v>
       </c>
-      <c r="D397" s="1" t="s">
-        <v>396</v>
+      <c r="D397" s="5">
+        <f>DATE(2019,12,1)</f>
+        <v>43800</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -7245,8 +6389,9 @@
       <c r="C398" s="1">
         <v>-262</v>
       </c>
-      <c r="D398" s="1" t="s">
-        <v>397</v>
+      <c r="D398" s="5">
+        <f>DATE(2020,1,1)</f>
+        <v>43831</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -7259,8 +6404,9 @@
       <c r="C399" s="1">
         <v>-220</v>
       </c>
-      <c r="D399" s="1" t="s">
-        <v>398</v>
+      <c r="D399" s="5">
+        <f>DATE(2020,2,1)</f>
+        <v>43862</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -7273,8 +6419,9 @@
       <c r="C400" s="1">
         <v>-158</v>
       </c>
-      <c r="D400" s="1" t="s">
-        <v>399</v>
+      <c r="D400" s="5">
+        <f>DATE(2020,3,1)</f>
+        <v>43891</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -7287,8 +6434,9 @@
       <c r="C401" s="1">
         <v>-74</v>
       </c>
-      <c r="D401" s="1" t="s">
-        <v>400</v>
+      <c r="D401" s="5">
+        <f>DATE(2020,4,1)</f>
+        <v>43922</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -7301,8 +6449,9 @@
       <c r="C402" s="1">
         <v>-36</v>
       </c>
-      <c r="D402" s="1" t="s">
-        <v>401</v>
+      <c r="D402" s="5">
+        <f>DATE(2020,5,1)</f>
+        <v>43952</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -7315,8 +6464,9 @@
       <c r="C403" s="1">
         <v>-3</v>
       </c>
-      <c r="D403" s="1" t="s">
-        <v>402</v>
+      <c r="D403" s="5">
+        <f>DATE(2020,6,1)</f>
+        <v>43983</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -7329,8 +6479,9 @@
       <c r="C404" s="1">
         <v>11</v>
       </c>
-      <c r="D404" s="1" t="s">
-        <v>403</v>
+      <c r="D404" s="5">
+        <f>DATE(2020,7,1)</f>
+        <v>44013</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -7343,8 +6494,9 @@
       <c r="C405" s="1">
         <v>43</v>
       </c>
-      <c r="D405" s="1" t="s">
-        <v>404</v>
+      <c r="D405" s="5">
+        <f>DATE(2020,8,1)</f>
+        <v>44044</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -7357,8 +6509,9 @@
       <c r="C406" s="1">
         <v>87</v>
       </c>
-      <c r="D406" s="1" t="s">
-        <v>405</v>
+      <c r="D406" s="5">
+        <f>DATE(2020,9,1)</f>
+        <v>44075</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -7371,8 +6524,9 @@
       <c r="C407" s="1">
         <v>108</v>
       </c>
-      <c r="D407" s="1" t="s">
-        <v>406</v>
+      <c r="D407" s="5">
+        <f>DATE(2020,10,1)</f>
+        <v>44105</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -7385,8 +6539,9 @@
       <c r="C408" s="1">
         <v>60</v>
       </c>
-      <c r="D408" s="1" t="s">
-        <v>407</v>
+      <c r="D408" s="5">
+        <f>DATE(2020,11,1)</f>
+        <v>44136</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -7399,8 +6554,9 @@
       <c r="C409" s="1">
         <v>22</v>
       </c>
-      <c r="D409" s="1" t="s">
-        <v>408</v>
+      <c r="D409" s="5">
+        <f>DATE(2020,12,1)</f>
+        <v>44166</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -7413,8 +6569,9 @@
       <c r="C410" s="1">
         <v>11</v>
       </c>
-      <c r="D410" s="1" t="s">
-        <v>409</v>
+      <c r="D410" s="5">
+        <f>DATE(2021,1,1)</f>
+        <v>44197</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -7427,8 +6584,9 @@
       <c r="C411" s="1">
         <v>9</v>
       </c>
-      <c r="D411" s="1" t="s">
-        <v>410</v>
+      <c r="D411" s="5">
+        <f>DATE(2021,2,1)</f>
+        <v>44228</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -7441,8 +6599,9 @@
       <c r="C412" s="1">
         <v>-23</v>
       </c>
-      <c r="D412" s="1" t="s">
-        <v>411</v>
+      <c r="D412" s="5">
+        <f>DATE(2021,3,1)</f>
+        <v>44256</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -7455,8 +6614,9 @@
       <c r="C413" s="1">
         <v>-179</v>
       </c>
-      <c r="D413" s="1" t="s">
-        <v>412</v>
+      <c r="D413" s="5">
+        <f>DATE(2021,4,1)</f>
+        <v>44287</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -7469,8 +6629,9 @@
       <c r="C414" s="1">
         <v>-261</v>
       </c>
-      <c r="D414" s="1" t="s">
-        <v>413</v>
+      <c r="D414" s="5">
+        <f>DATE(2021,5,1)</f>
+        <v>44317</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -7483,8 +6644,9 @@
       <c r="C415" s="1">
         <v>-286</v>
       </c>
-      <c r="D415" s="1" t="s">
-        <v>414</v>
+      <c r="D415" s="5">
+        <f>DATE(2021,6,1)</f>
+        <v>44348</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -7497,8 +6659,9 @@
       <c r="C416" s="1">
         <v>-316</v>
       </c>
-      <c r="D416" s="1" t="s">
-        <v>415</v>
+      <c r="D416" s="5">
+        <f>DATE(2021,7,1)</f>
+        <v>44378</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -7511,8 +6674,9 @@
       <c r="C417" s="1">
         <v>-330</v>
       </c>
-      <c r="D417" s="1" t="s">
-        <v>416</v>
+      <c r="D417" s="5">
+        <f>DATE(2021,8,1)</f>
+        <v>44409</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -7525,8 +6689,9 @@
       <c r="C418" s="1">
         <v>-359</v>
       </c>
-      <c r="D418" s="1" t="s">
-        <v>417</v>
+      <c r="D418" s="5">
+        <f>DATE(2021,9,1)</f>
+        <v>44440</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -7539,8 +6704,9 @@
       <c r="C419" s="1">
         <v>-368</v>
       </c>
-      <c r="D419" s="1" t="s">
-        <v>418</v>
+      <c r="D419" s="5">
+        <f>DATE(2021,10,1)</f>
+        <v>44470</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -7553,15 +6719,16 @@
       <c r="C420" s="1">
         <v>-351</v>
       </c>
-      <c r="D420" s="1" t="s">
-        <v>419</v>
-      </c>
+      <c r="D420" s="5">
+        <f>DATE(2021,11,1)</f>
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D421" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D9 D2" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/QBO Data.xlsx
+++ b/QBO Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37a0ce551f5721cc/Documents/Coding TA/Uji Coba TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_5C01B3BFD3505B2853DA2511595ED87656CC0979" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4FB7880-74C0-40A6-975A-D1ADE08F5EE9}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_5C01B3BFD3505B2853DA2511595ED87656CC0979" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57F70C8E-37C9-40FA-AB86-8943757DA5F2}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,20 +412,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D421"/>
+  <dimension ref="A1:F421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="F410" sqref="F410"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -439,7 +441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>-260</v>
       </c>
@@ -453,8 +455,9 @@
         <f>DATE(1987,1,1)</f>
         <v>31778</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>-266</v>
       </c>
@@ -468,8 +471,9 @@
         <f>DATE(1987,2,1)</f>
         <v>31809</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>-271</v>
       </c>
@@ -483,8 +487,9 @@
         <f>DATE(1987,3,1)</f>
         <v>31837</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>-270</v>
       </c>
@@ -498,8 +503,9 @@
         <f>DATE(1987,4,1)</f>
         <v>31868</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>-268</v>
       </c>
@@ -513,8 +519,9 @@
         <f>DATE(1987,5,1)</f>
         <v>31898</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>-247</v>
       </c>
@@ -528,8 +535,9 @@
         <f>DATE(1987,6,1)</f>
         <v>31929</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>-63</v>
       </c>
@@ -543,8 +551,9 @@
         <f>DATE(1987,7,1)</f>
         <v>31959</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>92</v>
       </c>
@@ -558,8 +567,9 @@
         <f>DATE(1987,8,1)</f>
         <v>31990</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>138</v>
       </c>
@@ -573,8 +583,9 @@
         <f>DATE(1987,9,1)</f>
         <v>32021</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>117</v>
       </c>
@@ -588,8 +599,9 @@
         <f>DATE(1987,10,1)</f>
         <v>32051</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>77</v>
       </c>
@@ -603,8 +615,9 @@
         <f>DATE(1987,11,1)</f>
         <v>32082</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>57</v>
       </c>
@@ -618,8 +631,9 @@
         <f>DATE(1987,12,1)</f>
         <v>32112</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>54</v>
       </c>
@@ -633,8 +647,9 @@
         <f>DATE(1988,1,1)</f>
         <v>32143</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>46</v>
       </c>
@@ -648,8 +663,9 @@
         <f>DATE(1988,2,1)</f>
         <v>32174</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>78</v>
       </c>
@@ -663,8 +679,9 @@
         <f>DATE(1988,3,1)</f>
         <v>32203</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>70</v>
       </c>
@@ -678,8 +695,9 @@
         <f>DATE(1988,4,1)</f>
         <v>32234</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>50</v>
       </c>
@@ -693,8 +711,9 @@
         <f>DATE(1988,5,1)</f>
         <v>32264</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>-23</v>
       </c>
@@ -708,8 +727,9 @@
         <f>DATE(1988,6,1)</f>
         <v>32295</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>-102</v>
       </c>
@@ -723,8 +743,9 @@
         <f>DATE(1988,7,1)</f>
         <v>32325</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>-63</v>
       </c>
@@ -738,8 +759,9 @@
         <f>DATE(1988,8,1)</f>
         <v>32356</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>-50</v>
       </c>
@@ -753,8 +775,9 @@
         <f>DATE(1988,9,1)</f>
         <v>32387</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>-81</v>
       </c>
@@ -768,8 +791,9 @@
         <f>DATE(1988,10,1)</f>
         <v>32417</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>-101</v>
       </c>
@@ -783,8 +807,9 @@
         <f>DATE(1988,11,1)</f>
         <v>32448</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>-99</v>
       </c>
@@ -798,8 +823,9 @@
         <f>DATE(1988,12,1)</f>
         <v>32478</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>-84</v>
       </c>
@@ -813,8 +839,9 @@
         <f>DATE(1989,1,1)</f>
         <v>32509</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>-40</v>
       </c>
@@ -828,8 +855,9 @@
         <f>DATE(1989,2,1)</f>
         <v>32540</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>-38</v>
       </c>
@@ -843,8 +871,9 @@
         <f>DATE(1989,3,1)</f>
         <v>32568</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>-150</v>
       </c>
@@ -858,8 +887,9 @@
         <f>DATE(1989,4,1)</f>
         <v>32599</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>-250</v>
       </c>
@@ -873,8 +903,9 @@
         <f>DATE(1989,5,1)</f>
         <v>32629</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>-281</v>
       </c>
@@ -888,8 +919,9 @@
         <f>DATE(1989,6,1)</f>
         <v>32660</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>-306</v>
       </c>
@@ -903,8 +935,9 @@
         <f>DATE(1989,7,1)</f>
         <v>32690</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>-300</v>
       </c>
@@ -918,8 +951,9 @@
         <f>DATE(1989,8,1)</f>
         <v>32721</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>-310</v>
       </c>
@@ -933,8 +967,9 @@
         <f>DATE(1989,9,1)</f>
         <v>32752</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>-307</v>
       </c>
@@ -948,8 +983,9 @@
         <f>DATE(1989,10,1)</f>
         <v>32782</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>-306</v>
       </c>
@@ -963,8 +999,9 @@
         <f>DATE(1989,11,1)</f>
         <v>32813</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>-282</v>
       </c>
@@ -978,8 +1015,9 @@
         <f>DATE(1989,12,1)</f>
         <v>32843</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>-42</v>
       </c>
@@ -993,8 +1031,9 @@
         <f>DATE(1990,1,1)</f>
         <v>32874</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>-32</v>
       </c>
@@ -1008,8 +1047,9 @@
         <f>DATE(1990,2,1)</f>
         <v>32905</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>109</v>
       </c>
@@ -1023,8 +1063,9 @@
         <f>DATE(1990,3,1)</f>
         <v>32933</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>124</v>
       </c>
@@ -1038,8 +1079,9 @@
         <f>DATE(1990,4,1)</f>
         <v>32964</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>124</v>
       </c>
@@ -1053,8 +1095,9 @@
         <f>DATE(1990,5,1)</f>
         <v>32994</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>152</v>
       </c>
@@ -1068,8 +1111,9 @@
         <f>DATE(1990,6,1)</f>
         <v>33025</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F43"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>131</v>
       </c>
@@ -1083,8 +1127,9 @@
         <f>DATE(1990,7,1)</f>
         <v>33055</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F44"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>135</v>
       </c>
@@ -1098,8 +1143,9 @@
         <f>DATE(1990,8,1)</f>
         <v>33086</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F45"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>130</v>
       </c>
@@ -1113,8 +1159,9 @@
         <f>DATE(1990,9,1)</f>
         <v>33117</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>109</v>
       </c>
@@ -1128,8 +1175,9 @@
         <f>DATE(1990,10,1)</f>
         <v>33147</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F47"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>110</v>
       </c>
@@ -1143,8 +1191,9 @@
         <f>DATE(1990,11,1)</f>
         <v>33178</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>134</v>
       </c>
@@ -1158,8 +1207,9 @@
         <f>DATE(1990,12,1)</f>
         <v>33208</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>114</v>
       </c>
@@ -1173,8 +1223,9 @@
         <f>DATE(1991,1,1)</f>
         <v>33239</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>127</v>
       </c>
@@ -1188,8 +1239,9 @@
         <f>DATE(1991,2,1)</f>
         <v>33270</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>105</v>
       </c>
@@ -1203,8 +1255,9 @@
         <f>DATE(1991,3,1)</f>
         <v>33298</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>92</v>
       </c>
@@ -1218,8 +1271,9 @@
         <f>DATE(1991,4,1)</f>
         <v>33329</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F53"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>-67</v>
       </c>
@@ -1233,8 +1287,9 @@
         <f>DATE(1991,5,1)</f>
         <v>33359</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>-209</v>
       </c>
@@ -1248,8 +1303,9 @@
         <f>DATE(1991,6,1)</f>
         <v>33390</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>-250</v>
       </c>
@@ -1263,8 +1319,9 @@
         <f>DATE(1991,7,1)</f>
         <v>33420</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>-231</v>
       </c>
@@ -1278,8 +1335,9 @@
         <f>DATE(1991,8,1)</f>
         <v>33451</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>-215</v>
       </c>
@@ -1293,8 +1351,9 @@
         <f>DATE(1991,9,1)</f>
         <v>33482</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>-222</v>
       </c>
@@ -1308,8 +1367,9 @@
         <f>DATE(1991,10,1)</f>
         <v>33512</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>-242</v>
       </c>
@@ -1323,8 +1383,9 @@
         <f>DATE(1991,11,1)</f>
         <v>33543</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>-253</v>
       </c>
@@ -1338,8 +1399,9 @@
         <f>DATE(1991,12,1)</f>
         <v>33573</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F61"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>-253</v>
       </c>
@@ -1353,8 +1415,9 @@
         <f>DATE(1992,1,1)</f>
         <v>33604</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F62"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>-254</v>
       </c>
@@ -1368,8 +1431,9 @@
         <f>DATE(1992,2,1)</f>
         <v>33635</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F63"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>-260</v>
       </c>
@@ -1383,8 +1447,9 @@
         <f>DATE(1992,3,1)</f>
         <v>33664</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F64"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>-262</v>
       </c>
@@ -1398,8 +1463,9 @@
         <f>DATE(1992,4,1)</f>
         <v>33695</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F65"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>-275</v>
       </c>
@@ -1413,8 +1479,9 @@
         <f>DATE(1992,5,1)</f>
         <v>33725</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F66"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>-268</v>
       </c>
@@ -1428,8 +1495,9 @@
         <f>DATE(1992,6,1)</f>
         <v>33756</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F67"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>-79</v>
       </c>
@@ -1443,8 +1511,9 @@
         <f>DATE(1992,7,1)</f>
         <v>33786</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F68"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>8</v>
       </c>
@@ -1458,8 +1527,9 @@
         <f>DATE(1992,8,1)</f>
         <v>33817</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F69"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>75</v>
       </c>
@@ -1473,8 +1543,9 @@
         <f>DATE(1992,9,1)</f>
         <v>33848</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F70"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>112</v>
       </c>
@@ -1488,8 +1559,9 @@
         <f>DATE(1992,10,1)</f>
         <v>33878</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F71"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>141</v>
       </c>
@@ -1503,8 +1575,9 @@
         <f>DATE(1992,11,1)</f>
         <v>33909</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F72"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>176</v>
       </c>
@@ -1518,8 +1591,9 @@
         <f>DATE(1992,12,1)</f>
         <v>33939</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F73"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>155</v>
       </c>
@@ -1533,8 +1607,9 @@
         <f>DATE(1993,1,1)</f>
         <v>33970</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F74"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>164</v>
       </c>
@@ -1548,8 +1623,9 @@
         <f>DATE(1993,2,1)</f>
         <v>34001</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F75"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>170</v>
       </c>
@@ -1563,8 +1639,9 @@
         <f>DATE(1993,3,1)</f>
         <v>34029</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F76"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>112</v>
       </c>
@@ -1578,8 +1655,9 @@
         <f>DATE(1993,4,1)</f>
         <v>34060</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F77"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>108</v>
       </c>
@@ -1593,8 +1671,9 @@
         <f>DATE(1993,5,1)</f>
         <v>34090</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F78"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>48</v>
       </c>
@@ -1608,8 +1687,9 @@
         <f>DATE(1993,6,1)</f>
         <v>34121</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F79"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>-10</v>
       </c>
@@ -1623,8 +1703,9 @@
         <f>DATE(1993,7,1)</f>
         <v>34151</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F80"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>-8</v>
       </c>
@@ -1638,8 +1719,9 @@
         <f>DATE(1993,8,1)</f>
         <v>34182</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F81"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>-44</v>
       </c>
@@ -1653,8 +1735,9 @@
         <f>DATE(1993,9,1)</f>
         <v>34213</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F82"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>-111</v>
       </c>
@@ -1668,8 +1751,9 @@
         <f>DATE(1993,10,1)</f>
         <v>34243</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F83"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>-205</v>
       </c>
@@ -1683,8 +1767,9 @@
         <f>DATE(1993,11,1)</f>
         <v>34274</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F84"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>-240</v>
       </c>
@@ -1698,8 +1783,9 @@
         <f>DATE(1993,12,1)</f>
         <v>34304</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F85"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>-251</v>
       </c>
@@ -1713,8 +1799,9 @@
         <f>DATE(1994,1,1)</f>
         <v>34335</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F86"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>-265</v>
       </c>
@@ -1728,8 +1815,9 @@
         <f>DATE(1994,2,1)</f>
         <v>34366</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F87"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>-291</v>
       </c>
@@ -1743,8 +1831,9 @@
         <f>DATE(1994,3,1)</f>
         <v>34394</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F88"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>-298</v>
       </c>
@@ -1758,8 +1847,9 @@
         <f>DATE(1994,4,1)</f>
         <v>34425</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F89"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>-318</v>
       </c>
@@ -1773,8 +1863,9 @@
         <f>DATE(1994,5,1)</f>
         <v>34455</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F90"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>-328</v>
       </c>
@@ -1788,8 +1879,9 @@
         <f>DATE(1994,6,1)</f>
         <v>34486</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F91"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>-338</v>
       </c>
@@ -1803,8 +1895,9 @@
         <f>DATE(1994,7,1)</f>
         <v>34516</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F92"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>-336</v>
       </c>
@@ -1818,8 +1911,9 @@
         <f>DATE(1994,8,1)</f>
         <v>34547</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F93"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>-271</v>
       </c>
@@ -1833,8 +1927,9 @@
         <f>DATE(1994,9,1)</f>
         <v>34578</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F94"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>-9</v>
       </c>
@@ -1848,8 +1943,9 @@
         <f>DATE(1994,10,1)</f>
         <v>34608</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F95"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>109</v>
       </c>
@@ -1863,8 +1959,9 @@
         <f>DATE(1994,11,1)</f>
         <v>34639</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F96"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>167</v>
       </c>
@@ -1878,8 +1975,9 @@
         <f>DATE(1994,12,1)</f>
         <v>34669</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F97"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>178</v>
       </c>
@@ -1893,8 +1991,9 @@
         <f>DATE(1995,1,1)</f>
         <v>34700</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F98"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>115</v>
       </c>
@@ -1908,8 +2007,9 @@
         <f>DATE(1995,2,1)</f>
         <v>34731</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F99"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>86</v>
       </c>
@@ -1923,8 +2023,9 @@
         <f>DATE(1995,3,1)</f>
         <v>34759</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F100"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>110</v>
       </c>
@@ -1938,8 +2039,9 @@
         <f>DATE(1995,4,1)</f>
         <v>34790</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F101"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>155</v>
       </c>
@@ -1953,8 +2055,9 @@
         <f>DATE(1995,5,1)</f>
         <v>34820</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F102"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>151</v>
       </c>
@@ -1968,8 +2071,9 @@
         <f>DATE(1995,6,1)</f>
         <v>34851</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F103"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>125</v>
       </c>
@@ -1983,8 +2087,9 @@
         <f>DATE(1995,7,1)</f>
         <v>34881</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F104"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>72</v>
       </c>
@@ -1998,8 +2103,9 @@
         <f>DATE(1995,8,1)</f>
         <v>34912</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F105"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>34</v>
       </c>
@@ -2013,8 +2119,9 @@
         <f>DATE(1995,9,1)</f>
         <v>34943</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F106"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>-32</v>
       </c>
@@ -2028,8 +2135,9 @@
         <f>DATE(1995,10,1)</f>
         <v>34973</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F107"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>-131</v>
       </c>
@@ -2043,8 +2151,9 @@
         <f>DATE(1995,11,1)</f>
         <v>35004</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F108"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>-169</v>
       </c>
@@ -2058,8 +2167,9 @@
         <f>DATE(1995,12,1)</f>
         <v>35034</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F109"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>-183</v>
       </c>
@@ -2073,8 +2183,9 @@
         <f>DATE(1996,1,1)</f>
         <v>35065</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F110"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>-202</v>
       </c>
@@ -2088,8 +2199,9 @@
         <f>DATE(1996,2,1)</f>
         <v>35096</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F111"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>-239</v>
       </c>
@@ -2103,8 +2215,9 @@
         <f>DATE(1996,3,1)</f>
         <v>35125</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F112"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>-277</v>
       </c>
@@ -2118,8 +2231,9 @@
         <f>DATE(1996,4,1)</f>
         <v>35156</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F113"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>-307</v>
       </c>
@@ -2133,8 +2247,9 @@
         <f>DATE(1996,5,1)</f>
         <v>35186</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F114"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>-330</v>
       </c>
@@ -2148,8 +2263,9 @@
         <f>DATE(1996,6,1)</f>
         <v>35217</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F115"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>-325</v>
       </c>
@@ -2163,8 +2279,9 @@
         <f>DATE(1996,7,1)</f>
         <v>35247</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F116"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>-346</v>
       </c>
@@ -2178,8 +2295,9 @@
         <f>DATE(1996,8,1)</f>
         <v>35278</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F117"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>-355</v>
       </c>
@@ -2193,8 +2311,9 @@
         <f>DATE(1996,9,1)</f>
         <v>35309</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F118"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>-349</v>
       </c>
@@ -2208,8 +2327,9 @@
         <f>DATE(1996,10,1)</f>
         <v>35339</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F119"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>-284</v>
       </c>
@@ -2223,8 +2343,9 @@
         <f>DATE(1996,11,1)</f>
         <v>35370</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F120"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>-56</v>
       </c>
@@ -2238,8 +2359,9 @@
         <f>DATE(1996,12,1)</f>
         <v>35400</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F121"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>22</v>
       </c>
@@ -2253,8 +2375,9 @@
         <f>DATE(1997,1,1)</f>
         <v>35431</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F122"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>100</v>
       </c>
@@ -2268,8 +2391,9 @@
         <f>DATE(1997,2,1)</f>
         <v>35462</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F123"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>106</v>
       </c>
@@ -2283,8 +2407,9 @@
         <f>DATE(1997,3,1)</f>
         <v>35490</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F124"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>151</v>
       </c>
@@ -2298,8 +2423,9 @@
         <f>DATE(1997,4,1)</f>
         <v>35521</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F125"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>151</v>
       </c>
@@ -2313,8 +2439,9 @@
         <f>DATE(1997,5,1)</f>
         <v>35551</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F126"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>167</v>
       </c>
@@ -2328,8 +2455,9 @@
         <f>DATE(1997,6,1)</f>
         <v>35582</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F127"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>141</v>
       </c>
@@ -2343,8 +2471,9 @@
         <f>DATE(1997,7,1)</f>
         <v>35612</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F128"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>114</v>
       </c>
@@ -2358,8 +2487,9 @@
         <f>DATE(1997,8,1)</f>
         <v>35643</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F129"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>97</v>
       </c>
@@ -2373,8 +2503,9 @@
         <f>DATE(1997,9,1)</f>
         <v>35674</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F130"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>75</v>
       </c>
@@ -2388,8 +2519,9 @@
         <f>DATE(1997,10,1)</f>
         <v>35704</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F131"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>15</v>
       </c>
@@ -2403,8 +2535,9 @@
         <f>DATE(1997,11,1)</f>
         <v>35735</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F132"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>-49</v>
       </c>
@@ -2418,8 +2551,9 @@
         <f>DATE(1997,12,1)</f>
         <v>35765</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F133"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>-50</v>
       </c>
@@ -2433,8 +2567,9 @@
         <f>DATE(1998,1,1)</f>
         <v>35796</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F134"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>-57</v>
       </c>
@@ -2448,8 +2583,9 @@
         <f>DATE(1998,2,1)</f>
         <v>35827</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F135"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>-127</v>
       </c>
@@ -2463,8 +2599,9 @@
         <f>DATE(1998,3,1)</f>
         <v>35855</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F136"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>-253</v>
       </c>
@@ -2478,8 +2615,9 @@
         <f>DATE(1998,4,1)</f>
         <v>35886</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F137"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>-280</v>
       </c>
@@ -2493,8 +2631,9 @@
         <f>DATE(1998,5,1)</f>
         <v>35916</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F138"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>-297</v>
       </c>
@@ -2508,8 +2647,9 @@
         <f>DATE(1998,6,1)</f>
         <v>35947</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F139"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>-308</v>
       </c>
@@ -2523,8 +2663,9 @@
         <f>DATE(1998,7,1)</f>
         <v>35977</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F140"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>-321</v>
       </c>
@@ -2538,8 +2679,9 @@
         <f>DATE(1998,8,1)</f>
         <v>36008</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F141"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>-311</v>
       </c>
@@ -2553,8 +2695,9 @@
         <f>DATE(1998,9,1)</f>
         <v>36039</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F142"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>-292</v>
       </c>
@@ -2568,8 +2711,9 @@
         <f>DATE(1998,10,1)</f>
         <v>36069</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F143"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>-68</v>
       </c>
@@ -2583,8 +2727,9 @@
         <f>DATE(1998,11,1)</f>
         <v>36100</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F144"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>70</v>
       </c>
@@ -2598,8 +2743,9 @@
         <f>DATE(1998,12,1)</f>
         <v>36130</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F145"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>99</v>
       </c>
@@ -2613,8 +2759,9 @@
         <f>DATE(1999,1,1)</f>
         <v>36161</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F146"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>131</v>
       </c>
@@ -2628,8 +2775,9 @@
         <f>DATE(1999,2,1)</f>
         <v>36192</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F147"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>98</v>
       </c>
@@ -2643,8 +2791,9 @@
         <f>DATE(1999,3,1)</f>
         <v>36220</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F148"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>140</v>
       </c>
@@ -2658,8 +2807,9 @@
         <f>DATE(1999,4,1)</f>
         <v>36251</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F149"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>126</v>
       </c>
@@ -2673,8 +2823,9 @@
         <f>DATE(1999,5,1)</f>
         <v>36281</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F150"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>137</v>
       </c>
@@ -2688,8 +2839,9 @@
         <f>DATE(1999,6,1)</f>
         <v>36312</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F151"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>111</v>
       </c>
@@ -2703,8 +2855,9 @@
         <f>DATE(1999,7,1)</f>
         <v>36342</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F152"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>110</v>
       </c>
@@ -2718,8 +2871,9 @@
         <f>DATE(1999,8,1)</f>
         <v>36373</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F153"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>101</v>
       </c>
@@ -2733,8 +2887,9 @@
         <f>DATE(1999,9,1)</f>
         <v>36404</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F154"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>91</v>
       </c>
@@ -2748,8 +2903,9 @@
         <f>DATE(1999,10,1)</f>
         <v>36434</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F155"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>47</v>
       </c>
@@ -2763,8 +2919,9 @@
         <f>DATE(1999,11,1)</f>
         <v>36465</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F156"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>61</v>
       </c>
@@ -2778,8 +2935,9 @@
         <f>DATE(1999,12,1)</f>
         <v>36495</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F157"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>74</v>
       </c>
@@ -2793,8 +2951,9 @@
         <f>DATE(2000,1,1)</f>
         <v>36526</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F158"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>95</v>
       </c>
@@ -2808,8 +2967,9 @@
         <f>DATE(2000,2,1)</f>
         <v>36557</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F159"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>113</v>
       </c>
@@ -2823,8 +2983,9 @@
         <f>DATE(2000,3,1)</f>
         <v>36586</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F160"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>61</v>
       </c>
@@ -2838,8 +2999,9 @@
         <f>DATE(2000,4,1)</f>
         <v>36617</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F161"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>-71</v>
       </c>
@@ -2853,8 +3015,9 @@
         <f>DATE(2000,5,1)</f>
         <v>36647</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F162"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>-227</v>
       </c>
@@ -2868,8 +3031,9 @@
         <f>DATE(2000,6,1)</f>
         <v>36678</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F163"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>-282</v>
       </c>
@@ -2883,8 +3047,9 @@
         <f>DATE(2000,7,1)</f>
         <v>36708</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F164"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>-294</v>
       </c>
@@ -2898,8 +3063,9 @@
         <f>DATE(2000,8,1)</f>
         <v>36739</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F165"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>-288</v>
       </c>
@@ -2913,8 +3079,9 @@
         <f>DATE(2000,9,1)</f>
         <v>36770</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F166"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>-275</v>
       </c>
@@ -2928,8 +3095,9 @@
         <f>DATE(2000,10,1)</f>
         <v>36800</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F167"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>-253</v>
       </c>
@@ -2943,8 +3111,9 @@
         <f>DATE(2000,11,1)</f>
         <v>36831</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F168"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>-259</v>
       </c>
@@ -2958,8 +3127,9 @@
         <f>DATE(2000,12,1)</f>
         <v>36861</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F169"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>-284</v>
       </c>
@@ -2973,8 +3143,9 @@
         <f>DATE(2001,1,1)</f>
         <v>36892</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F170"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>-272</v>
       </c>
@@ -2988,8 +3159,9 @@
         <f>DATE(2001,2,1)</f>
         <v>36923</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F171"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>-269</v>
       </c>
@@ -3003,8 +3175,9 @@
         <f>DATE(2001,3,1)</f>
         <v>36951</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F172"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>-309</v>
       </c>
@@ -3018,8 +3191,9 @@
         <f>DATE(2001,4,1)</f>
         <v>36982</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F173"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>-318</v>
       </c>
@@ -3033,8 +3207,9 @@
         <f>DATE(2001,5,1)</f>
         <v>37012</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F174"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>-331</v>
       </c>
@@ -3048,8 +3223,9 @@
         <f>DATE(2001,6,1)</f>
         <v>37043</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F175"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>-349</v>
       </c>
@@ -3063,8 +3239,9 @@
         <f>DATE(2001,7,1)</f>
         <v>37073</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F176"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>-354</v>
       </c>
@@ -3078,8 +3255,9 @@
         <f>DATE(2001,8,1)</f>
         <v>37104</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F177"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>-307</v>
       </c>
@@ -3093,8 +3271,9 @@
         <f>DATE(2001,9,1)</f>
         <v>37135</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F178"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>-136</v>
       </c>
@@ -3108,8 +3287,9 @@
         <f>DATE(2001,10,1)</f>
         <v>37165</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F179"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>21</v>
       </c>
@@ -3123,8 +3303,9 @@
         <f>DATE(2001,11,1)</f>
         <v>37196</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F180"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>140</v>
       </c>
@@ -3138,8 +3319,9 @@
         <f>DATE(2001,12,1)</f>
         <v>37226</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F181"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>118</v>
       </c>
@@ -3153,8 +3335,9 @@
         <f>DATE(2002,1,1)</f>
         <v>37257</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F182"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>148</v>
       </c>
@@ -3168,8 +3351,9 @@
         <f>DATE(2002,2,1)</f>
         <v>37288</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F183"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>158</v>
       </c>
@@ -3183,8 +3367,9 @@
         <f>DATE(2002,3,1)</f>
         <v>37316</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F184"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>129</v>
       </c>
@@ -3198,8 +3383,9 @@
         <f>DATE(2002,4,1)</f>
         <v>37347</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F185"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>133</v>
       </c>
@@ -3213,8 +3399,9 @@
         <f>DATE(2002,5,1)</f>
         <v>37377</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F186"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>92</v>
       </c>
@@ -3228,8 +3415,9 @@
         <f>DATE(2002,6,1)</f>
         <v>37408</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F187"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>103</v>
       </c>
@@ -3243,8 +3431,9 @@
         <f>DATE(2002,7,1)</f>
         <v>37438</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F188"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>83</v>
       </c>
@@ -3258,8 +3447,9 @@
         <f>DATE(2002,8,1)</f>
         <v>37469</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F189"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>65</v>
       </c>
@@ -3273,8 +3463,9 @@
         <f>DATE(2002,9,1)</f>
         <v>37500</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F190"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>41</v>
       </c>
@@ -3288,8 +3479,9 @@
         <f>DATE(2002,10,1)</f>
         <v>37530</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F191"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>-42</v>
       </c>
@@ -3303,8 +3495,9 @@
         <f>DATE(2002,11,1)</f>
         <v>37561</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F192"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>-41</v>
       </c>
@@ -3318,8 +3511,9 @@
         <f>DATE(2002,12,1)</f>
         <v>37591</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F193"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>-14</v>
       </c>
@@ -3333,8 +3527,9 @@
         <f>DATE(2003,1,1)</f>
         <v>37622</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F194"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>-2</v>
       </c>
@@ -3348,8 +3543,9 @@
         <f>DATE(2003,2,1)</f>
         <v>37653</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F195"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>-73</v>
       </c>
@@ -3363,8 +3559,9 @@
         <f>DATE(2003,3,1)</f>
         <v>37681</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F196"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>-194</v>
       </c>
@@ -3378,8 +3575,9 @@
         <f>DATE(2003,4,1)</f>
         <v>37712</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F197"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>-269</v>
       </c>
@@ -3393,8 +3591,9 @@
         <f>DATE(2003,5,1)</f>
         <v>37742</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F198"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>-288</v>
       </c>
@@ -3408,8 +3607,9 @@
         <f>DATE(2003,6,1)</f>
         <v>37773</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F199"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>-313</v>
       </c>
@@ -3423,8 +3623,9 @@
         <f>DATE(2003,7,1)</f>
         <v>37803</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F200"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>-318</v>
       </c>
@@ -3438,8 +3639,9 @@
         <f>DATE(2003,8,1)</f>
         <v>37834</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F201"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>-313</v>
       </c>
@@ -3453,8 +3655,9 @@
         <f>DATE(2003,9,1)</f>
         <v>37865</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F202"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>-312</v>
       </c>
@@ -3468,8 +3671,9 @@
         <f>DATE(2003,10,1)</f>
         <v>37895</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F203"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>-321</v>
       </c>
@@ -3483,8 +3687,9 @@
         <f>DATE(2003,11,1)</f>
         <v>37926</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F204"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>-165</v>
       </c>
@@ -3498,8 +3703,9 @@
         <f>DATE(2003,12,1)</f>
         <v>37956</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F205"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>-16</v>
       </c>
@@ -3513,8 +3719,9 @@
         <f>DATE(2004,1,1)</f>
         <v>37987</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F206"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>78</v>
       </c>
@@ -3528,8 +3735,9 @@
         <f>DATE(2004,2,1)</f>
         <v>38018</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F207"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>112</v>
       </c>
@@ -3543,8 +3751,9 @@
         <f>DATE(2004,3,1)</f>
         <v>38047</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F208"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>126</v>
       </c>
@@ -3558,8 +3767,9 @@
         <f>DATE(2004,4,1)</f>
         <v>38078</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F209"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>120</v>
       </c>
@@ -3573,8 +3783,9 @@
         <f>DATE(2004,5,1)</f>
         <v>38108</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F210"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>95</v>
       </c>
@@ -3588,8 +3799,9 @@
         <f>DATE(2004,6,1)</f>
         <v>38139</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F211"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>90</v>
       </c>
@@ -3603,8 +3815,9 @@
         <f>DATE(2004,7,1)</f>
         <v>38169</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F212"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>98</v>
       </c>
@@ -3618,8 +3831,9 @@
         <f>DATE(2004,8,1)</f>
         <v>38200</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F213"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>88</v>
       </c>
@@ -3633,8 +3847,9 @@
         <f>DATE(2004,9,1)</f>
         <v>38231</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F214"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>73</v>
       </c>
@@ -3648,8 +3863,9 @@
         <f>DATE(2004,10,1)</f>
         <v>38261</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F215"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>48</v>
       </c>
@@ -3663,8 +3879,9 @@
         <f>DATE(2004,11,1)</f>
         <v>38292</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F216"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>14</v>
       </c>
@@ -3678,8 +3895,9 @@
         <f>DATE(2004,12,1)</f>
         <v>38322</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F217"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>-18</v>
       </c>
@@ -3693,8 +3911,10 @@
         <f>DATE(2005,1,1)</f>
         <v>38353</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218"/>
+      <c r="F218"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>18</v>
       </c>
@@ -3708,8 +3928,9 @@
         <f>DATE(2005,2,1)</f>
         <v>38384</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F219"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>-9</v>
       </c>
@@ -3723,8 +3944,9 @@
         <f>DATE(2005,3,1)</f>
         <v>38412</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F220"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>-178</v>
       </c>
@@ -3738,8 +3960,9 @@
         <f>DATE(2005,4,1)</f>
         <v>38443</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F221"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>-266</v>
       </c>
@@ -3753,8 +3976,9 @@
         <f>DATE(2005,5,1)</f>
         <v>38473</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F222"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>-286</v>
       </c>
@@ -3768,8 +3992,9 @@
         <f>DATE(2005,6,1)</f>
         <v>38504</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F223"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>-309</v>
       </c>
@@ -3783,8 +4008,9 @@
         <f>DATE(2005,7,1)</f>
         <v>38534</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F224"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>-316</v>
       </c>
@@ -3798,8 +4024,9 @@
         <f>DATE(2005,8,1)</f>
         <v>38565</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F225"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>-318</v>
       </c>
@@ -3813,8 +4040,9 @@
         <f>DATE(2005,9,1)</f>
         <v>38596</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F226"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>-320</v>
       </c>
@@ -3828,8 +4056,9 @@
         <f>DATE(2005,10,1)</f>
         <v>38626</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F227"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>-333</v>
       </c>
@@ -3843,8 +4072,9 @@
         <f>DATE(2005,11,1)</f>
         <v>38657</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F228"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>-324</v>
       </c>
@@ -3858,8 +4088,9 @@
         <f>DATE(2005,12,1)</f>
         <v>38687</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F229"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>-288</v>
       </c>
@@ -3873,8 +4104,9 @@
         <f>DATE(2006,1,1)</f>
         <v>38718</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F230"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>-93</v>
       </c>
@@ -3888,8 +4120,9 @@
         <f>DATE(2006,2,1)</f>
         <v>38749</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F231"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>83</v>
       </c>
@@ -3903,8 +4136,9 @@
         <f>DATE(2006,3,1)</f>
         <v>38777</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F232"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>85</v>
       </c>
@@ -3918,8 +4152,9 @@
         <f>DATE(2006,4,1)</f>
         <v>38808</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F233"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>106</v>
       </c>
@@ -3933,8 +4168,9 @@
         <f>DATE(2006,5,1)</f>
         <v>38838</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F234"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>123</v>
       </c>
@@ -3948,8 +4184,9 @@
         <f>DATE(2006,6,1)</f>
         <v>38869</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F235"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>126</v>
       </c>
@@ -3963,8 +4200,9 @@
         <f>DATE(2006,7,1)</f>
         <v>38899</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F236"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>71</v>
       </c>
@@ -3978,8 +4216,9 @@
         <f>DATE(2006,8,1)</f>
         <v>38930</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F237"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>109</v>
       </c>
@@ -3993,8 +4232,9 @@
         <f>DATE(2006,9,1)</f>
         <v>38961</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F238"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>93</v>
       </c>
@@ -4008,8 +4248,9 @@
         <f>DATE(2006,10,1)</f>
         <v>38991</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F239"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>89</v>
       </c>
@@ -4023,8 +4264,9 @@
         <f>DATE(2006,11,1)</f>
         <v>39022</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F240"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>73</v>
       </c>
@@ -4038,8 +4280,9 @@
         <f>DATE(2006,12,1)</f>
         <v>39052</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F241"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>54</v>
       </c>
@@ -4053,8 +4296,9 @@
         <f>DATE(2007,1,1)</f>
         <v>39083</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F242"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>53</v>
       </c>
@@ -4068,8 +4312,9 @@
         <f>DATE(2007,2,1)</f>
         <v>39114</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F243"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>14</v>
       </c>
@@ -4083,8 +4328,9 @@
         <f>DATE(2007,3,1)</f>
         <v>39142</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F244"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>-147</v>
       </c>
@@ -4098,8 +4344,9 @@
         <f>DATE(2007,4,1)</f>
         <v>39173</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F245"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>-253</v>
       </c>
@@ -4113,8 +4360,9 @@
         <f>DATE(2007,5,1)</f>
         <v>39203</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F246"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>-297</v>
       </c>
@@ -4128,8 +4376,9 @@
         <f>DATE(2007,6,1)</f>
         <v>39234</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F247"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>-313</v>
       </c>
@@ -4143,8 +4392,9 @@
         <f>DATE(2007,7,1)</f>
         <v>39264</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F248"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>-316</v>
       </c>
@@ -4158,8 +4408,9 @@
         <f>DATE(2007,8,1)</f>
         <v>39295</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F249"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>-321</v>
       </c>
@@ -4173,8 +4424,9 @@
         <f>DATE(2007,9,1)</f>
         <v>39326</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F250"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>-316</v>
       </c>
@@ -4188,8 +4440,9 @@
         <f>DATE(2007,10,1)</f>
         <v>39356</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F251"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>-320</v>
       </c>
@@ -4203,8 +4456,9 @@
         <f>DATE(2007,11,1)</f>
         <v>39387</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F252"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>-265</v>
       </c>
@@ -4218,8 +4472,9 @@
         <f>DATE(2007,12,1)</f>
         <v>39417</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F253"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>-126</v>
       </c>
@@ -4233,8 +4488,9 @@
         <f>DATE(2008,1,1)</f>
         <v>39448</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F254"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>38</v>
       </c>
@@ -4248,8 +4504,9 @@
         <f>DATE(2008,2,1)</f>
         <v>39479</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F255"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>112</v>
       </c>
@@ -4263,8 +4520,9 @@
         <f>DATE(2008,3,1)</f>
         <v>39508</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F256"/>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>124</v>
       </c>
@@ -4278,8 +4536,9 @@
         <f>DATE(2008,4,1)</f>
         <v>39539</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F257"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>124</v>
       </c>
@@ -4293,8 +4552,9 @@
         <f>DATE(2008,5,1)</f>
         <v>39569</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F258"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>157</v>
       </c>
@@ -4308,8 +4568,9 @@
         <f>DATE(2008,6,1)</f>
         <v>39600</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F259"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>135</v>
       </c>
@@ -4323,8 +4584,9 @@
         <f>DATE(2008,7,1)</f>
         <v>39630</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F260"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>118</v>
       </c>
@@ -4338,8 +4600,9 @@
         <f>DATE(2008,8,1)</f>
         <v>39661</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F261"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>105</v>
       </c>
@@ -4353,8 +4616,9 @@
         <f>DATE(2008,9,1)</f>
         <v>39692</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F262"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>93</v>
       </c>
@@ -4368,8 +4632,9 @@
         <f>DATE(2008,10,1)</f>
         <v>39722</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F263"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>75</v>
       </c>
@@ -4383,8 +4648,9 @@
         <f>DATE(2008,11,1)</f>
         <v>39753</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F264"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>111</v>
       </c>
@@ -4398,8 +4664,9 @@
         <f>DATE(2008,12,1)</f>
         <v>39783</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F265"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>119</v>
       </c>
@@ -4413,8 +4680,9 @@
         <f>DATE(2009,1,1)</f>
         <v>39814</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F266"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>155</v>
       </c>
@@ -4428,8 +4696,9 @@
         <f>DATE(2009,2,1)</f>
         <v>39845</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F267"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>118</v>
       </c>
@@ -4443,8 +4712,9 @@
         <f>DATE(2009,3,1)</f>
         <v>39873</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F268"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>103</v>
       </c>
@@ -4458,8 +4728,9 @@
         <f>DATE(2009,4,1)</f>
         <v>39904</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F269"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>32</v>
       </c>
@@ -4473,8 +4744,9 @@
         <f>DATE(2009,5,1)</f>
         <v>39934</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F270"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>-134</v>
       </c>
@@ -4488,8 +4760,9 @@
         <f>DATE(2009,6,1)</f>
         <v>39965</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F271"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>-227</v>
       </c>
@@ -4503,8 +4776,9 @@
         <f>DATE(2009,7,1)</f>
         <v>39995</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F272"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>-218</v>
       </c>
@@ -4518,8 +4792,9 @@
         <f>DATE(2009,8,1)</f>
         <v>40026</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F273"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>-220</v>
       </c>
@@ -4533,8 +4808,9 @@
         <f>DATE(2009,9,1)</f>
         <v>40057</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F274"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>-199</v>
       </c>
@@ -4548,8 +4824,9 @@
         <f>DATE(2009,10,1)</f>
         <v>40087</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F275"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>-252</v>
       </c>
@@ -4563,8 +4840,9 @@
         <f>DATE(2009,11,1)</f>
         <v>40118</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F276"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>-259</v>
       </c>
@@ -4578,8 +4856,9 @@
         <f>DATE(2009,12,1)</f>
         <v>40148</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F277"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>-265</v>
       </c>
@@ -4593,8 +4872,9 @@
         <f>DATE(2010,1,1)</f>
         <v>40179</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F278"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>-272</v>
       </c>
@@ -4608,8 +4888,9 @@
         <f>DATE(2010,2,1)</f>
         <v>40210</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F279"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>-269</v>
       </c>
@@ -4623,8 +4904,9 @@
         <f>DATE(2010,3,1)</f>
         <v>40238</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F280"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>-272</v>
       </c>
@@ -4638,8 +4920,9 @@
         <f>DATE(2010,4,1)</f>
         <v>40269</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F281"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>-263</v>
       </c>
@@ -4653,8 +4936,9 @@
         <f>DATE(2010,5,1)</f>
         <v>40299</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F282"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>-285</v>
       </c>
@@ -4668,8 +4952,9 @@
         <f>DATE(2010,6,1)</f>
         <v>40330</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F283"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>-59</v>
       </c>
@@ -4683,8 +4968,9 @@
         <f>DATE(2010,7,1)</f>
         <v>40360</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F284"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>117</v>
       </c>
@@ -4698,8 +4984,9 @@
         <f>DATE(2010,8,1)</f>
         <v>40391</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F285"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>134</v>
       </c>
@@ -4713,8 +5000,9 @@
         <f>DATE(2010,9,1)</f>
         <v>40422</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F286"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>116</v>
       </c>
@@ -4728,8 +5016,9 @@
         <f>DATE(2010,10,1)</f>
         <v>40452</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F287"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>118</v>
       </c>
@@ -4743,8 +5032,9 @@
         <f>DATE(2010,11,1)</f>
         <v>40483</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F288"/>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>83</v>
       </c>
@@ -4758,8 +5048,9 @@
         <f>DATE(2010,12,1)</f>
         <v>40513</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F289"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>97</v>
       </c>
@@ -4773,8 +5064,9 @@
         <f>DATE(2011,1,1)</f>
         <v>40544</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F290"/>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>97</v>
       </c>
@@ -4788,8 +5080,9 @@
         <f>DATE(2011,2,1)</f>
         <v>40575</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F291"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>101</v>
       </c>
@@ -4803,8 +5096,9 @@
         <f>DATE(2011,3,1)</f>
         <v>40603</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F292"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>92</v>
       </c>
@@ -4818,8 +5112,9 @@
         <f>DATE(2011,4,1)</f>
         <v>40634</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F293"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>96</v>
       </c>
@@ -4833,8 +5128,9 @@
         <f>DATE(2011,5,1)</f>
         <v>40664</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F294"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>70</v>
       </c>
@@ -4848,8 +5144,9 @@
         <f>DATE(2011,6,1)</f>
         <v>40695</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F295"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>9</v>
       </c>
@@ -4863,8 +5160,9 @@
         <f>DATE(2011,7,1)</f>
         <v>40725</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F296"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>25</v>
       </c>
@@ -4878,8 +5176,9 @@
         <f>DATE(2011,8,1)</f>
         <v>40756</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F297"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>-32</v>
       </c>
@@ -4893,8 +5192,9 @@
         <f>DATE(2011,9,1)</f>
         <v>40787</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F298"/>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>-75</v>
       </c>
@@ -4908,8 +5208,9 @@
         <f>DATE(2011,10,1)</f>
         <v>40817</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F299"/>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>-189</v>
       </c>
@@ -4923,8 +5224,9 @@
         <f>DATE(2011,11,1)</f>
         <v>40848</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F300"/>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>-239</v>
       </c>
@@ -4938,8 +5240,9 @@
         <f>DATE(2011,12,1)</f>
         <v>40878</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F301"/>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>-238</v>
       </c>
@@ -4953,8 +5256,9 @@
         <f>DATE(2012,1,1)</f>
         <v>40909</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F302"/>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>-213</v>
       </c>
@@ -4968,8 +5272,9 @@
         <f>DATE(2012,2,1)</f>
         <v>40940</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F303"/>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>-217</v>
       </c>
@@ -4983,8 +5288,9 @@
         <f>DATE(2012,3,1)</f>
         <v>40969</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F304"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>-257</v>
       </c>
@@ -4998,8 +5304,9 @@
         <f>DATE(2012,4,1)</f>
         <v>41000</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F305"/>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>-306</v>
       </c>
@@ -5013,8 +5320,9 @@
         <f>DATE(2012,5,1)</f>
         <v>41030</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F306"/>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>-325</v>
       </c>
@@ -5028,8 +5336,9 @@
         <f>DATE(2012,6,1)</f>
         <v>41061</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F307"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>-326</v>
       </c>
@@ -5043,8 +5352,9 @@
         <f>DATE(2012,7,1)</f>
         <v>41091</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F308"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>-347</v>
       </c>
@@ -5058,8 +5368,9 @@
         <f>DATE(2012,8,1)</f>
         <v>41122</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F309"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>-331</v>
       </c>
@@ -5073,8 +5384,9 @@
         <f>DATE(2012,9,1)</f>
         <v>41153</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F310"/>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>-336</v>
       </c>
@@ -5088,8 +5400,9 @@
         <f>DATE(2012,10,1)</f>
         <v>41183</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F311"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>-335</v>
       </c>
@@ -5103,8 +5416,9 @@
         <f>DATE(2012,11,1)</f>
         <v>41214</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F312"/>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>-161</v>
       </c>
@@ -5118,8 +5432,9 @@
         <f>DATE(2012,12,1)</f>
         <v>41244</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F313"/>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>-47</v>
       </c>
@@ -5133,8 +5448,9 @@
         <f>DATE(2013,1,1)</f>
         <v>41275</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F314"/>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>18</v>
       </c>
@@ -5148,8 +5464,9 @@
         <f>DATE(2013,2,1)</f>
         <v>41306</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F315"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>89</v>
       </c>
@@ -5163,8 +5480,9 @@
         <f>DATE(2013,3,1)</f>
         <v>41334</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F316"/>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>102</v>
       </c>
@@ -5178,8 +5496,9 @@
         <f>DATE(2013,4,1)</f>
         <v>41365</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F317"/>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>109</v>
       </c>
@@ -5193,8 +5512,9 @@
         <f>DATE(2013,5,1)</f>
         <v>41395</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F318"/>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>157</v>
       </c>
@@ -5208,8 +5528,9 @@
         <f>DATE(2013,6,1)</f>
         <v>41426</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F319"/>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>147</v>
       </c>
@@ -5223,8 +5544,9 @@
         <f>DATE(2013,7,1)</f>
         <v>41456</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F320"/>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>122</v>
       </c>
@@ -5238,8 +5560,9 @@
         <f>DATE(2013,8,1)</f>
         <v>41487</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F321"/>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>139</v>
       </c>
@@ -5253,8 +5576,9 @@
         <f>DATE(2013,9,1)</f>
         <v>41518</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F322"/>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>119</v>
       </c>
@@ -5268,8 +5592,9 @@
         <f>DATE(2013,10,1)</f>
         <v>41548</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F323"/>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>118</v>
       </c>
@@ -5283,8 +5608,9 @@
         <f>DATE(2013,11,1)</f>
         <v>41579</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F324"/>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>117</v>
       </c>
@@ -5298,8 +5624,9 @@
         <f>DATE(2013,12,1)</f>
         <v>41609</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F325"/>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>148</v>
       </c>
@@ -5313,8 +5640,9 @@
         <f>DATE(2014,1,1)</f>
         <v>41640</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F326"/>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>126</v>
       </c>
@@ -5328,8 +5656,9 @@
         <f>DATE(2014,2,1)</f>
         <v>41671</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F327"/>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>113</v>
       </c>
@@ -5343,8 +5672,9 @@
         <f>DATE(2014,3,1)</f>
         <v>41699</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F328"/>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>88</v>
       </c>
@@ -5358,8 +5688,9 @@
         <f>DATE(2014,4,1)</f>
         <v>41730</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F329"/>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>-131</v>
       </c>
@@ -5373,8 +5704,9 @@
         <f>DATE(2014,5,1)</f>
         <v>41760</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F330"/>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>-258</v>
       </c>
@@ -5388,8 +5720,9 @@
         <f>DATE(2014,6,1)</f>
         <v>41791</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F331"/>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>-307</v>
       </c>
@@ -5403,8 +5736,9 @@
         <f>DATE(2014,7,1)</f>
         <v>41821</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F332"/>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>-295</v>
       </c>
@@ -5418,8 +5752,9 @@
         <f>DATE(2014,8,1)</f>
         <v>41852</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F333"/>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>-317</v>
       </c>
@@ -5433,8 +5768,9 @@
         <f>DATE(2014,9,1)</f>
         <v>41883</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F334"/>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>-323</v>
       </c>
@@ -5448,8 +5784,9 @@
         <f>DATE(2014,10,1)</f>
         <v>41913</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F335"/>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>-312</v>
       </c>
@@ -5463,8 +5800,9 @@
         <f>DATE(2014,11,1)</f>
         <v>41944</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F336"/>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>-287</v>
       </c>
@@ -5478,8 +5816,9 @@
         <f>DATE(2014,12,1)</f>
         <v>41974</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F337"/>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>-278</v>
       </c>
@@ -5493,8 +5832,9 @@
         <f>DATE(2015,1,1)</f>
         <v>42005</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F338"/>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>-295</v>
       </c>
@@ -5508,8 +5848,9 @@
         <f>DATE(2015,2,1)</f>
         <v>42036</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F339"/>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>-314</v>
       </c>
@@ -5523,8 +5864,9 @@
         <f>DATE(2015,3,1)</f>
         <v>42064</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F340"/>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>-311</v>
       </c>
@@ -5538,8 +5880,9 @@
         <f>DATE(2015,4,1)</f>
         <v>42095</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F341"/>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>-140</v>
       </c>
@@ -5553,8 +5896,9 @@
         <f>DATE(2015,5,1)</f>
         <v>42125</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F342"/>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>75</v>
       </c>
@@ -5568,8 +5912,9 @@
         <f>DATE(2015,6,1)</f>
         <v>42156</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F343"/>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>129</v>
       </c>
@@ -5583,8 +5928,9 @@
         <f>DATE(2015,7,1)</f>
         <v>42186</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F344"/>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>135</v>
       </c>
@@ -5598,8 +5944,9 @@
         <f>DATE(2015,8,1)</f>
         <v>42217</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F345"/>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>162</v>
       </c>
@@ -5613,8 +5960,9 @@
         <f>DATE(2015,9,1)</f>
         <v>42248</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F346"/>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>132</v>
       </c>
@@ -5628,8 +5976,9 @@
         <f>DATE(2015,10,1)</f>
         <v>42278</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F347"/>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>138</v>
       </c>
@@ -5643,8 +5992,9 @@
         <f>DATE(2015,11,1)</f>
         <v>42309</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F348"/>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>89</v>
       </c>
@@ -5658,8 +6008,9 @@
         <f>DATE(2015,12,1)</f>
         <v>42339</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F349"/>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>100</v>
       </c>
@@ -5673,8 +6024,9 @@
         <f>DATE(2016,1,1)</f>
         <v>42370</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F350"/>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>95</v>
       </c>
@@ -5688,8 +6040,9 @@
         <f>DATE(2016,2,1)</f>
         <v>42401</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F351"/>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>21</v>
       </c>
@@ -5703,8 +6056,9 @@
         <f>DATE(2016,3,1)</f>
         <v>42430</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F352"/>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>-14</v>
       </c>
@@ -5718,8 +6072,9 @@
         <f>DATE(2016,4,1)</f>
         <v>42461</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F353"/>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>53</v>
       </c>
@@ -5733,8 +6088,9 @@
         <f>DATE(2016,5,1)</f>
         <v>42491</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F354"/>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>70</v>
       </c>
@@ -5748,8 +6104,9 @@
         <f>DATE(2016,6,1)</f>
         <v>42522</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F355"/>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>105</v>
       </c>
@@ -5763,8 +6120,9 @@
         <f>DATE(2016,7,1)</f>
         <v>42552</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F356"/>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>157</v>
       </c>
@@ -5778,8 +6136,9 @@
         <f>DATE(2016,8,1)</f>
         <v>42583</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F357"/>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>152</v>
       </c>
@@ -5793,8 +6152,9 @@
         <f>DATE(2016,9,1)</f>
         <v>42614</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F358"/>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>142</v>
       </c>
@@ -5808,8 +6168,9 @@
         <f>DATE(2016,10,1)</f>
         <v>42644</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F359"/>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>157</v>
       </c>
@@ -5823,8 +6184,9 @@
         <f>DATE(2016,11,1)</f>
         <v>42675</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F360"/>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>176</v>
       </c>
@@ -5838,8 +6200,9 @@
         <f>DATE(2016,12,1)</f>
         <v>42705</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F361"/>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>171</v>
       </c>
@@ -5853,8 +6216,9 @@
         <f>DATE(2017,1,1)</f>
         <v>42736</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F362"/>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>177</v>
       </c>
@@ -5868,8 +6232,9 @@
         <f>DATE(2017,2,1)</f>
         <v>42767</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F363"/>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>153</v>
       </c>
@@ -5883,8 +6248,9 @@
         <f>DATE(2017,3,1)</f>
         <v>42795</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F364"/>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>136</v>
       </c>
@@ -5898,8 +6264,9 @@
         <f>DATE(2017,4,1)</f>
         <v>42826</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F365"/>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>58</v>
       </c>
@@ -5913,8 +6280,9 @@
         <f>DATE(2017,5,1)</f>
         <v>42856</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F366"/>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>-145</v>
       </c>
@@ -5928,8 +6296,9 @@
         <f>DATE(2017,6,1)</f>
         <v>42887</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F367"/>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>-256</v>
       </c>
@@ -5943,8 +6312,9 @@
         <f>DATE(2017,7,1)</f>
         <v>42917</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F368"/>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>-256</v>
       </c>
@@ -5958,8 +6328,9 @@
         <f>DATE(2017,8,1)</f>
         <v>42948</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F369"/>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>-247</v>
       </c>
@@ -5973,8 +6344,9 @@
         <f>DATE(2017,9,1)</f>
         <v>42979</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F370"/>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>-258</v>
       </c>
@@ -5988,8 +6360,9 @@
         <f>DATE(2017,10,1)</f>
         <v>43009</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F371"/>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>-271</v>
       </c>
@@ -6003,8 +6376,9 @@
         <f>DATE(2017,11,1)</f>
         <v>43040</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F372"/>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>-281</v>
       </c>
@@ -6018,8 +6392,9 @@
         <f>DATE(2017,12,1)</f>
         <v>43070</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F373"/>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>-292</v>
       </c>
@@ -6033,8 +6408,9 @@
         <f>DATE(2018,1,1)</f>
         <v>43101</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F374"/>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>-278</v>
       </c>
@@ -6048,8 +6424,9 @@
         <f>DATE(2018,2,1)</f>
         <v>43132</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F375"/>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>-287</v>
       </c>
@@ -6063,8 +6440,9 @@
         <f>DATE(2018,3,1)</f>
         <v>43160</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F376"/>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>-314</v>
       </c>
@@ -6078,8 +6456,9 @@
         <f>DATE(2018,4,1)</f>
         <v>43191</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F377"/>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>-315</v>
       </c>
@@ -6093,8 +6472,9 @@
         <f>DATE(2018,5,1)</f>
         <v>43221</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F378"/>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>-329</v>
       </c>
@@ -6108,8 +6488,9 @@
         <f>DATE(2018,6,1)</f>
         <v>43252</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F379"/>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>-330</v>
       </c>
@@ -6123,8 +6504,9 @@
         <f>DATE(2018,7,1)</f>
         <v>43282</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F380"/>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>-310</v>
       </c>
@@ -6138,8 +6520,9 @@
         <f>DATE(2018,8,1)</f>
         <v>43313</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F381"/>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>-109</v>
       </c>
@@ -6153,8 +6536,9 @@
         <f>DATE(2018,9,1)</f>
         <v>43344</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F382"/>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>44</v>
       </c>
@@ -6168,8 +6552,9 @@
         <f>DATE(2018,10,1)</f>
         <v>43374</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F383"/>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>118</v>
       </c>
@@ -6183,8 +6568,9 @@
         <f>DATE(2018,11,1)</f>
         <v>43405</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F384"/>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>146</v>
       </c>
@@ -6198,8 +6584,9 @@
         <f>DATE(2018,12,1)</f>
         <v>43435</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F385"/>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>144</v>
       </c>
@@ -6213,8 +6600,9 @@
         <f>DATE(2019,1,1)</f>
         <v>43466</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F386"/>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>124</v>
       </c>
@@ -6228,8 +6616,9 @@
         <f>DATE(2019,2,1)</f>
         <v>43497</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F387"/>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>165</v>
       </c>
@@ -6243,8 +6632,9 @@
         <f>DATE(2019,3,1)</f>
         <v>43525</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F388"/>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>136</v>
       </c>
@@ -6258,8 +6648,9 @@
         <f>DATE(2019,4,1)</f>
         <v>43556</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F389"/>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>148</v>
       </c>
@@ -6273,8 +6664,9 @@
         <f>DATE(2019,5,1)</f>
         <v>43586</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F390"/>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>125</v>
       </c>
@@ -6288,8 +6680,9 @@
         <f>DATE(2019,6,1)</f>
         <v>43617</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F391"/>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>114</v>
       </c>
@@ -6303,8 +6696,9 @@
         <f>DATE(2019,7,1)</f>
         <v>43647</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F392"/>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>105</v>
       </c>
@@ -6318,8 +6712,9 @@
         <f>DATE(2019,8,1)</f>
         <v>43678</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F393"/>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>95</v>
       </c>
@@ -6333,8 +6728,9 @@
         <f>DATE(2019,9,1)</f>
         <v>43709</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F394"/>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>71</v>
       </c>
@@ -6348,8 +6744,9 @@
         <f>DATE(2019,10,1)</f>
         <v>43739</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F395"/>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>73</v>
       </c>
@@ -6363,8 +6760,9 @@
         <f>DATE(2019,11,1)</f>
         <v>43770</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F396"/>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>48</v>
       </c>
@@ -6378,8 +6776,9 @@
         <f>DATE(2019,12,1)</f>
         <v>43800</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F397"/>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>37</v>
       </c>
@@ -6393,8 +6792,9 @@
         <f>DATE(2020,1,1)</f>
         <v>43831</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F398"/>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>21</v>
       </c>
@@ -6408,8 +6808,9 @@
         <f>DATE(2020,2,1)</f>
         <v>43862</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F399"/>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>0</v>
       </c>
@@ -6423,8 +6824,9 @@
         <f>DATE(2020,3,1)</f>
         <v>43891</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F400"/>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>-28</v>
       </c>
@@ -6438,8 +6840,9 @@
         <f>DATE(2020,4,1)</f>
         <v>43922</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F401"/>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>-17</v>
       </c>
@@ -6453,8 +6856,9 @@
         <f>DATE(2020,5,1)</f>
         <v>43952</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F402"/>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>57</v>
       </c>
@@ -6468,8 +6872,9 @@
         <f>DATE(2020,6,1)</f>
         <v>43983</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F403"/>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>88</v>
       </c>
@@ -6483,8 +6888,9 @@
         <f>DATE(2020,7,1)</f>
         <v>44013</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F404"/>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>104</v>
       </c>
@@ -6498,8 +6904,9 @@
         <f>DATE(2020,8,1)</f>
         <v>44044</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F405"/>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>120</v>
       </c>
@@ -6513,8 +6920,9 @@
         <f>DATE(2020,9,1)</f>
         <v>44075</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F406"/>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>135</v>
       </c>
@@ -6528,8 +6936,9 @@
         <f>DATE(2020,10,1)</f>
         <v>44105</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F407"/>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>144</v>
       </c>
@@ -6543,8 +6952,9 @@
         <f>DATE(2020,11,1)</f>
         <v>44136</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F408"/>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>104</v>
       </c>
@@ -6558,8 +6968,9 @@
         <f>DATE(2020,12,1)</f>
         <v>44166</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F409"/>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>72</v>
       </c>
@@ -6573,8 +6984,9 @@
         <f>DATE(2021,1,1)</f>
         <v>44197</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F410"/>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>65</v>
       </c>
@@ -6588,8 +7000,9 @@
         <f>DATE(2021,2,1)</f>
         <v>44228</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F411"/>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>79</v>
       </c>
@@ -6603,8 +7016,9 @@
         <f>DATE(2021,3,1)</f>
         <v>44256</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F412"/>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>64</v>
       </c>
@@ -6618,8 +7032,9 @@
         <f>DATE(2021,4,1)</f>
         <v>44287</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F413"/>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>-37</v>
       </c>
@@ -6633,8 +7048,9 @@
         <f>DATE(2021,5,1)</f>
         <v>44317</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F414"/>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>-167</v>
       </c>
@@ -6648,8 +7064,9 @@
         <f>DATE(2021,6,1)</f>
         <v>44348</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F415"/>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>-238</v>
       </c>
@@ -6663,8 +7080,9 @@
         <f>DATE(2021,7,1)</f>
         <v>44378</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F416"/>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>-233</v>
       </c>
@@ -6678,8 +7096,9 @@
         <f>DATE(2021,8,1)</f>
         <v>44409</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F417"/>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>-268</v>
       </c>
@@ -6693,8 +7112,9 @@
         <f>DATE(2021,9,1)</f>
         <v>44440</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F418"/>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>-283</v>
       </c>
@@ -6708,8 +7128,9 @@
         <f>DATE(2021,10,1)</f>
         <v>44470</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F419"/>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>-279</v>
       </c>
@@ -6723,8 +7144,9 @@
         <f>DATE(2021,11,1)</f>
         <v>44501</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F420"/>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D421" s="5"/>
     </row>
   </sheetData>

--- a/QBO Data.xlsx
+++ b/QBO Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37a0ce551f5721cc/Documents/Coding TA/Uji Coba TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_5C01B3BFD3505B2853DA2511595ED87656CC0979" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57F70C8E-37C9-40FA-AB86-8943757DA5F2}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_5C01B3BFD3505B2853DA2511595ED87656CC0979" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7346E68-37BC-44AD-A2F9-F4B2D59D087C}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,22 +412,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F421"/>
+  <dimension ref="A1:D421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -441,7 +439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>-260</v>
       </c>
@@ -455,9 +453,8 @@
         <f>DATE(1987,1,1)</f>
         <v>31778</v>
       </c>
-      <c r="F2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>-266</v>
       </c>
@@ -471,9 +468,8 @@
         <f>DATE(1987,2,1)</f>
         <v>31809</v>
       </c>
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>-271</v>
       </c>
@@ -487,9 +483,8 @@
         <f>DATE(1987,3,1)</f>
         <v>31837</v>
       </c>
-      <c r="F4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>-270</v>
       </c>
@@ -503,9 +498,8 @@
         <f>DATE(1987,4,1)</f>
         <v>31868</v>
       </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>-268</v>
       </c>
@@ -519,9 +513,8 @@
         <f>DATE(1987,5,1)</f>
         <v>31898</v>
       </c>
-      <c r="F6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>-247</v>
       </c>
@@ -535,9 +528,8 @@
         <f>DATE(1987,6,1)</f>
         <v>31929</v>
       </c>
-      <c r="F7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>-63</v>
       </c>
@@ -551,9 +543,8 @@
         <f>DATE(1987,7,1)</f>
         <v>31959</v>
       </c>
-      <c r="F8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>92</v>
       </c>
@@ -567,9 +558,8 @@
         <f>DATE(1987,8,1)</f>
         <v>31990</v>
       </c>
-      <c r="F9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>138</v>
       </c>
@@ -583,9 +573,8 @@
         <f>DATE(1987,9,1)</f>
         <v>32021</v>
       </c>
-      <c r="F10"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>117</v>
       </c>
@@ -599,9 +588,8 @@
         <f>DATE(1987,10,1)</f>
         <v>32051</v>
       </c>
-      <c r="F11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>77</v>
       </c>
@@ -615,9 +603,8 @@
         <f>DATE(1987,11,1)</f>
         <v>32082</v>
       </c>
-      <c r="F12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>57</v>
       </c>
@@ -631,9 +618,8 @@
         <f>DATE(1987,12,1)</f>
         <v>32112</v>
       </c>
-      <c r="F13"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>54</v>
       </c>
@@ -647,9 +633,8 @@
         <f>DATE(1988,1,1)</f>
         <v>32143</v>
       </c>
-      <c r="F14"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>46</v>
       </c>
@@ -663,9 +648,8 @@
         <f>DATE(1988,2,1)</f>
         <v>32174</v>
       </c>
-      <c r="F15"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>78</v>
       </c>
@@ -679,9 +663,8 @@
         <f>DATE(1988,3,1)</f>
         <v>32203</v>
       </c>
-      <c r="F16"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>70</v>
       </c>
@@ -695,9 +678,8 @@
         <f>DATE(1988,4,1)</f>
         <v>32234</v>
       </c>
-      <c r="F17"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>50</v>
       </c>
@@ -711,9 +693,8 @@
         <f>DATE(1988,5,1)</f>
         <v>32264</v>
       </c>
-      <c r="F18"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>-23</v>
       </c>
@@ -727,9 +708,8 @@
         <f>DATE(1988,6,1)</f>
         <v>32295</v>
       </c>
-      <c r="F19"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>-102</v>
       </c>
@@ -743,9 +723,8 @@
         <f>DATE(1988,7,1)</f>
         <v>32325</v>
       </c>
-      <c r="F20"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>-63</v>
       </c>
@@ -759,9 +738,8 @@
         <f>DATE(1988,8,1)</f>
         <v>32356</v>
       </c>
-      <c r="F21"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>-50</v>
       </c>
@@ -775,9 +753,8 @@
         <f>DATE(1988,9,1)</f>
         <v>32387</v>
       </c>
-      <c r="F22"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>-81</v>
       </c>
@@ -791,9 +768,8 @@
         <f>DATE(1988,10,1)</f>
         <v>32417</v>
       </c>
-      <c r="F23"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>-101</v>
       </c>
@@ -807,9 +783,8 @@
         <f>DATE(1988,11,1)</f>
         <v>32448</v>
       </c>
-      <c r="F24"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>-99</v>
       </c>
@@ -823,9 +798,8 @@
         <f>DATE(1988,12,1)</f>
         <v>32478</v>
       </c>
-      <c r="F25"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>-84</v>
       </c>
@@ -839,9 +813,8 @@
         <f>DATE(1989,1,1)</f>
         <v>32509</v>
       </c>
-      <c r="F26"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>-40</v>
       </c>
@@ -855,9 +828,8 @@
         <f>DATE(1989,2,1)</f>
         <v>32540</v>
       </c>
-      <c r="F27"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>-38</v>
       </c>
@@ -871,9 +843,8 @@
         <f>DATE(1989,3,1)</f>
         <v>32568</v>
       </c>
-      <c r="F28"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>-150</v>
       </c>
@@ -887,9 +858,8 @@
         <f>DATE(1989,4,1)</f>
         <v>32599</v>
       </c>
-      <c r="F29"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>-250</v>
       </c>
@@ -903,9 +873,8 @@
         <f>DATE(1989,5,1)</f>
         <v>32629</v>
       </c>
-      <c r="F30"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>-281</v>
       </c>
@@ -919,9 +888,8 @@
         <f>DATE(1989,6,1)</f>
         <v>32660</v>
       </c>
-      <c r="F31"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>-306</v>
       </c>
@@ -935,9 +903,8 @@
         <f>DATE(1989,7,1)</f>
         <v>32690</v>
       </c>
-      <c r="F32"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>-300</v>
       </c>
@@ -951,9 +918,8 @@
         <f>DATE(1989,8,1)</f>
         <v>32721</v>
       </c>
-      <c r="F33"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>-310</v>
       </c>
@@ -967,9 +933,8 @@
         <f>DATE(1989,9,1)</f>
         <v>32752</v>
       </c>
-      <c r="F34"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>-307</v>
       </c>
@@ -983,9 +948,8 @@
         <f>DATE(1989,10,1)</f>
         <v>32782</v>
       </c>
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>-306</v>
       </c>
@@ -999,9 +963,8 @@
         <f>DATE(1989,11,1)</f>
         <v>32813</v>
       </c>
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>-282</v>
       </c>
@@ -1015,9 +978,8 @@
         <f>DATE(1989,12,1)</f>
         <v>32843</v>
       </c>
-      <c r="F37"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>-42</v>
       </c>
@@ -1031,9 +993,8 @@
         <f>DATE(1990,1,1)</f>
         <v>32874</v>
       </c>
-      <c r="F38"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>-32</v>
       </c>
@@ -1047,9 +1008,8 @@
         <f>DATE(1990,2,1)</f>
         <v>32905</v>
       </c>
-      <c r="F39"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>109</v>
       </c>
@@ -1063,9 +1023,8 @@
         <f>DATE(1990,3,1)</f>
         <v>32933</v>
       </c>
-      <c r="F40"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>124</v>
       </c>
@@ -1079,9 +1038,8 @@
         <f>DATE(1990,4,1)</f>
         <v>32964</v>
       </c>
-      <c r="F41"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>124</v>
       </c>
@@ -1095,9 +1053,8 @@
         <f>DATE(1990,5,1)</f>
         <v>32994</v>
       </c>
-      <c r="F42"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>152</v>
       </c>
@@ -1111,9 +1068,8 @@
         <f>DATE(1990,6,1)</f>
         <v>33025</v>
       </c>
-      <c r="F43"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>131</v>
       </c>
@@ -1127,9 +1083,8 @@
         <f>DATE(1990,7,1)</f>
         <v>33055</v>
       </c>
-      <c r="F44"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>135</v>
       </c>
@@ -1143,9 +1098,8 @@
         <f>DATE(1990,8,1)</f>
         <v>33086</v>
       </c>
-      <c r="F45"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>130</v>
       </c>
@@ -1159,9 +1113,8 @@
         <f>DATE(1990,9,1)</f>
         <v>33117</v>
       </c>
-      <c r="F46"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>109</v>
       </c>
@@ -1175,9 +1128,8 @@
         <f>DATE(1990,10,1)</f>
         <v>33147</v>
       </c>
-      <c r="F47"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>110</v>
       </c>
@@ -1191,9 +1143,8 @@
         <f>DATE(1990,11,1)</f>
         <v>33178</v>
       </c>
-      <c r="F48"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>134</v>
       </c>
@@ -1207,9 +1158,8 @@
         <f>DATE(1990,12,1)</f>
         <v>33208</v>
       </c>
-      <c r="F49"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>114</v>
       </c>
@@ -1223,9 +1173,8 @@
         <f>DATE(1991,1,1)</f>
         <v>33239</v>
       </c>
-      <c r="F50"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>127</v>
       </c>
@@ -1239,9 +1188,8 @@
         <f>DATE(1991,2,1)</f>
         <v>33270</v>
       </c>
-      <c r="F51"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>105</v>
       </c>
@@ -1255,9 +1203,8 @@
         <f>DATE(1991,3,1)</f>
         <v>33298</v>
       </c>
-      <c r="F52"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>92</v>
       </c>
@@ -1271,9 +1218,8 @@
         <f>DATE(1991,4,1)</f>
         <v>33329</v>
       </c>
-      <c r="F53"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>-67</v>
       </c>
@@ -1287,9 +1233,8 @@
         <f>DATE(1991,5,1)</f>
         <v>33359</v>
       </c>
-      <c r="F54"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>-209</v>
       </c>
@@ -1303,9 +1248,8 @@
         <f>DATE(1991,6,1)</f>
         <v>33390</v>
       </c>
-      <c r="F55"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>-250</v>
       </c>
@@ -1319,9 +1263,8 @@
         <f>DATE(1991,7,1)</f>
         <v>33420</v>
       </c>
-      <c r="F56"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>-231</v>
       </c>
@@ -1335,9 +1278,8 @@
         <f>DATE(1991,8,1)</f>
         <v>33451</v>
       </c>
-      <c r="F57"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>-215</v>
       </c>
@@ -1351,9 +1293,8 @@
         <f>DATE(1991,9,1)</f>
         <v>33482</v>
       </c>
-      <c r="F58"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>-222</v>
       </c>
@@ -1367,9 +1308,8 @@
         <f>DATE(1991,10,1)</f>
         <v>33512</v>
       </c>
-      <c r="F59"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>-242</v>
       </c>
@@ -1383,9 +1323,8 @@
         <f>DATE(1991,11,1)</f>
         <v>33543</v>
       </c>
-      <c r="F60"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>-253</v>
       </c>
@@ -1399,9 +1338,8 @@
         <f>DATE(1991,12,1)</f>
         <v>33573</v>
       </c>
-      <c r="F61"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>-253</v>
       </c>
@@ -1415,9 +1353,8 @@
         <f>DATE(1992,1,1)</f>
         <v>33604</v>
       </c>
-      <c r="F62"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>-254</v>
       </c>
@@ -1431,9 +1368,8 @@
         <f>DATE(1992,2,1)</f>
         <v>33635</v>
       </c>
-      <c r="F63"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>-260</v>
       </c>
@@ -1447,9 +1383,8 @@
         <f>DATE(1992,3,1)</f>
         <v>33664</v>
       </c>
-      <c r="F64"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>-262</v>
       </c>
@@ -1463,9 +1398,8 @@
         <f>DATE(1992,4,1)</f>
         <v>33695</v>
       </c>
-      <c r="F65"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>-275</v>
       </c>
@@ -1479,9 +1413,8 @@
         <f>DATE(1992,5,1)</f>
         <v>33725</v>
       </c>
-      <c r="F66"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>-268</v>
       </c>
@@ -1495,9 +1428,8 @@
         <f>DATE(1992,6,1)</f>
         <v>33756</v>
       </c>
-      <c r="F67"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>-79</v>
       </c>
@@ -1511,9 +1443,8 @@
         <f>DATE(1992,7,1)</f>
         <v>33786</v>
       </c>
-      <c r="F68"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>8</v>
       </c>
@@ -1527,9 +1458,8 @@
         <f>DATE(1992,8,1)</f>
         <v>33817</v>
       </c>
-      <c r="F69"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>75</v>
       </c>
@@ -1543,9 +1473,8 @@
         <f>DATE(1992,9,1)</f>
         <v>33848</v>
       </c>
-      <c r="F70"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>112</v>
       </c>
@@ -1559,9 +1488,8 @@
         <f>DATE(1992,10,1)</f>
         <v>33878</v>
       </c>
-      <c r="F71"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>141</v>
       </c>
@@ -1575,9 +1503,8 @@
         <f>DATE(1992,11,1)</f>
         <v>33909</v>
       </c>
-      <c r="F72"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>176</v>
       </c>
@@ -1591,9 +1518,8 @@
         <f>DATE(1992,12,1)</f>
         <v>33939</v>
       </c>
-      <c r="F73"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>155</v>
       </c>
@@ -1607,9 +1533,8 @@
         <f>DATE(1993,1,1)</f>
         <v>33970</v>
       </c>
-      <c r="F74"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>164</v>
       </c>
@@ -1623,9 +1548,8 @@
         <f>DATE(1993,2,1)</f>
         <v>34001</v>
       </c>
-      <c r="F75"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>170</v>
       </c>
@@ -1639,9 +1563,8 @@
         <f>DATE(1993,3,1)</f>
         <v>34029</v>
       </c>
-      <c r="F76"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>112</v>
       </c>
@@ -1655,9 +1578,8 @@
         <f>DATE(1993,4,1)</f>
         <v>34060</v>
       </c>
-      <c r="F77"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>108</v>
       </c>
@@ -1671,9 +1593,8 @@
         <f>DATE(1993,5,1)</f>
         <v>34090</v>
       </c>
-      <c r="F78"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>48</v>
       </c>
@@ -1687,9 +1608,8 @@
         <f>DATE(1993,6,1)</f>
         <v>34121</v>
       </c>
-      <c r="F79"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>-10</v>
       </c>
@@ -1703,9 +1623,8 @@
         <f>DATE(1993,7,1)</f>
         <v>34151</v>
       </c>
-      <c r="F80"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>-8</v>
       </c>
@@ -1719,9 +1638,8 @@
         <f>DATE(1993,8,1)</f>
         <v>34182</v>
       </c>
-      <c r="F81"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>-44</v>
       </c>
@@ -1735,9 +1653,8 @@
         <f>DATE(1993,9,1)</f>
         <v>34213</v>
       </c>
-      <c r="F82"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>-111</v>
       </c>
@@ -1751,9 +1668,8 @@
         <f>DATE(1993,10,1)</f>
         <v>34243</v>
       </c>
-      <c r="F83"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>-205</v>
       </c>
@@ -1767,9 +1683,8 @@
         <f>DATE(1993,11,1)</f>
         <v>34274</v>
       </c>
-      <c r="F84"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>-240</v>
       </c>
@@ -1783,9 +1698,8 @@
         <f>DATE(1993,12,1)</f>
         <v>34304</v>
       </c>
-      <c r="F85"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>-251</v>
       </c>
@@ -1799,9 +1713,8 @@
         <f>DATE(1994,1,1)</f>
         <v>34335</v>
       </c>
-      <c r="F86"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>-265</v>
       </c>
@@ -1815,9 +1728,8 @@
         <f>DATE(1994,2,1)</f>
         <v>34366</v>
       </c>
-      <c r="F87"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>-291</v>
       </c>
@@ -1831,9 +1743,8 @@
         <f>DATE(1994,3,1)</f>
         <v>34394</v>
       </c>
-      <c r="F88"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>-298</v>
       </c>
@@ -1847,9 +1758,8 @@
         <f>DATE(1994,4,1)</f>
         <v>34425</v>
       </c>
-      <c r="F89"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>-318</v>
       </c>
@@ -1863,9 +1773,8 @@
         <f>DATE(1994,5,1)</f>
         <v>34455</v>
       </c>
-      <c r="F90"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>-328</v>
       </c>
@@ -1879,9 +1788,8 @@
         <f>DATE(1994,6,1)</f>
         <v>34486</v>
       </c>
-      <c r="F91"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>-338</v>
       </c>
@@ -1895,9 +1803,8 @@
         <f>DATE(1994,7,1)</f>
         <v>34516</v>
       </c>
-      <c r="F92"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>-336</v>
       </c>
@@ -1911,9 +1818,8 @@
         <f>DATE(1994,8,1)</f>
         <v>34547</v>
       </c>
-      <c r="F93"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>-271</v>
       </c>
@@ -1927,9 +1833,8 @@
         <f>DATE(1994,9,1)</f>
         <v>34578</v>
       </c>
-      <c r="F94"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>-9</v>
       </c>
@@ -1943,9 +1848,8 @@
         <f>DATE(1994,10,1)</f>
         <v>34608</v>
       </c>
-      <c r="F95"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>109</v>
       </c>
@@ -1959,9 +1863,8 @@
         <f>DATE(1994,11,1)</f>
         <v>34639</v>
       </c>
-      <c r="F96"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>167</v>
       </c>
@@ -1975,9 +1878,8 @@
         <f>DATE(1994,12,1)</f>
         <v>34669</v>
       </c>
-      <c r="F97"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>178</v>
       </c>
@@ -1991,9 +1893,8 @@
         <f>DATE(1995,1,1)</f>
         <v>34700</v>
       </c>
-      <c r="F98"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>115</v>
       </c>
@@ -2007,9 +1908,8 @@
         <f>DATE(1995,2,1)</f>
         <v>34731</v>
       </c>
-      <c r="F99"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>86</v>
       </c>
@@ -2023,9 +1923,8 @@
         <f>DATE(1995,3,1)</f>
         <v>34759</v>
       </c>
-      <c r="F100"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>110</v>
       </c>
@@ -2039,9 +1938,8 @@
         <f>DATE(1995,4,1)</f>
         <v>34790</v>
       </c>
-      <c r="F101"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>155</v>
       </c>
@@ -2055,9 +1953,8 @@
         <f>DATE(1995,5,1)</f>
         <v>34820</v>
       </c>
-      <c r="F102"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>151</v>
       </c>
@@ -2071,9 +1968,8 @@
         <f>DATE(1995,6,1)</f>
         <v>34851</v>
       </c>
-      <c r="F103"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>125</v>
       </c>
@@ -2087,9 +1983,8 @@
         <f>DATE(1995,7,1)</f>
         <v>34881</v>
       </c>
-      <c r="F104"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>72</v>
       </c>
@@ -2103,9 +1998,8 @@
         <f>DATE(1995,8,1)</f>
         <v>34912</v>
       </c>
-      <c r="F105"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>34</v>
       </c>
@@ -2119,9 +2013,8 @@
         <f>DATE(1995,9,1)</f>
         <v>34943</v>
       </c>
-      <c r="F106"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>-32</v>
       </c>
@@ -2135,9 +2028,8 @@
         <f>DATE(1995,10,1)</f>
         <v>34973</v>
       </c>
-      <c r="F107"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>-131</v>
       </c>
@@ -2151,9 +2043,8 @@
         <f>DATE(1995,11,1)</f>
         <v>35004</v>
       </c>
-      <c r="F108"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>-169</v>
       </c>
@@ -2167,9 +2058,8 @@
         <f>DATE(1995,12,1)</f>
         <v>35034</v>
       </c>
-      <c r="F109"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>-183</v>
       </c>
@@ -2183,9 +2073,8 @@
         <f>DATE(1996,1,1)</f>
         <v>35065</v>
       </c>
-      <c r="F110"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>-202</v>
       </c>
@@ -2199,9 +2088,8 @@
         <f>DATE(1996,2,1)</f>
         <v>35096</v>
       </c>
-      <c r="F111"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>-239</v>
       </c>
@@ -2215,9 +2103,8 @@
         <f>DATE(1996,3,1)</f>
         <v>35125</v>
       </c>
-      <c r="F112"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>-277</v>
       </c>
@@ -2231,9 +2118,8 @@
         <f>DATE(1996,4,1)</f>
         <v>35156</v>
       </c>
-      <c r="F113"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>-307</v>
       </c>
@@ -2247,9 +2133,8 @@
         <f>DATE(1996,5,1)</f>
         <v>35186</v>
       </c>
-      <c r="F114"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>-330</v>
       </c>
@@ -2263,9 +2148,8 @@
         <f>DATE(1996,6,1)</f>
         <v>35217</v>
       </c>
-      <c r="F115"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>-325</v>
       </c>
@@ -2279,9 +2163,8 @@
         <f>DATE(1996,7,1)</f>
         <v>35247</v>
       </c>
-      <c r="F116"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>-346</v>
       </c>
@@ -2295,9 +2178,8 @@
         <f>DATE(1996,8,1)</f>
         <v>35278</v>
       </c>
-      <c r="F117"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>-355</v>
       </c>
@@ -2311,9 +2193,8 @@
         <f>DATE(1996,9,1)</f>
         <v>35309</v>
       </c>
-      <c r="F118"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>-349</v>
       </c>
@@ -2327,9 +2208,8 @@
         <f>DATE(1996,10,1)</f>
         <v>35339</v>
       </c>
-      <c r="F119"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>-284</v>
       </c>
@@ -2343,9 +2223,8 @@
         <f>DATE(1996,11,1)</f>
         <v>35370</v>
       </c>
-      <c r="F120"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>-56</v>
       </c>
@@ -2359,9 +2238,8 @@
         <f>DATE(1996,12,1)</f>
         <v>35400</v>
       </c>
-      <c r="F121"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>22</v>
       </c>
@@ -2375,9 +2253,8 @@
         <f>DATE(1997,1,1)</f>
         <v>35431</v>
       </c>
-      <c r="F122"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>100</v>
       </c>
@@ -2391,9 +2268,8 @@
         <f>DATE(1997,2,1)</f>
         <v>35462</v>
       </c>
-      <c r="F123"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>106</v>
       </c>
@@ -2407,9 +2283,8 @@
         <f>DATE(1997,3,1)</f>
         <v>35490</v>
       </c>
-      <c r="F124"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>151</v>
       </c>
@@ -2423,9 +2298,8 @@
         <f>DATE(1997,4,1)</f>
         <v>35521</v>
       </c>
-      <c r="F125"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>151</v>
       </c>
@@ -2439,9 +2313,8 @@
         <f>DATE(1997,5,1)</f>
         <v>35551</v>
       </c>
-      <c r="F126"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>167</v>
       </c>
@@ -2455,9 +2328,8 @@
         <f>DATE(1997,6,1)</f>
         <v>35582</v>
       </c>
-      <c r="F127"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>141</v>
       </c>
@@ -2471,9 +2343,8 @@
         <f>DATE(1997,7,1)</f>
         <v>35612</v>
       </c>
-      <c r="F128"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>114</v>
       </c>
@@ -2487,9 +2358,8 @@
         <f>DATE(1997,8,1)</f>
         <v>35643</v>
       </c>
-      <c r="F129"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>97</v>
       </c>
@@ -2503,9 +2373,8 @@
         <f>DATE(1997,9,1)</f>
         <v>35674</v>
       </c>
-      <c r="F130"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>75</v>
       </c>
@@ -2519,9 +2388,8 @@
         <f>DATE(1997,10,1)</f>
         <v>35704</v>
       </c>
-      <c r="F131"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>15</v>
       </c>
@@ -2535,9 +2403,8 @@
         <f>DATE(1997,11,1)</f>
         <v>35735</v>
       </c>
-      <c r="F132"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>-49</v>
       </c>
@@ -2551,9 +2418,8 @@
         <f>DATE(1997,12,1)</f>
         <v>35765</v>
       </c>
-      <c r="F133"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>-50</v>
       </c>
@@ -2567,9 +2433,8 @@
         <f>DATE(1998,1,1)</f>
         <v>35796</v>
       </c>
-      <c r="F134"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>-57</v>
       </c>
@@ -2583,9 +2448,8 @@
         <f>DATE(1998,2,1)</f>
         <v>35827</v>
       </c>
-      <c r="F135"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>-127</v>
       </c>
@@ -2599,9 +2463,8 @@
         <f>DATE(1998,3,1)</f>
         <v>35855</v>
       </c>
-      <c r="F136"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>-253</v>
       </c>
@@ -2615,9 +2478,8 @@
         <f>DATE(1998,4,1)</f>
         <v>35886</v>
       </c>
-      <c r="F137"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>-280</v>
       </c>
@@ -2631,9 +2493,8 @@
         <f>DATE(1998,5,1)</f>
         <v>35916</v>
       </c>
-      <c r="F138"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>-297</v>
       </c>
@@ -2647,9 +2508,8 @@
         <f>DATE(1998,6,1)</f>
         <v>35947</v>
       </c>
-      <c r="F139"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>-308</v>
       </c>
@@ -2663,9 +2523,8 @@
         <f>DATE(1998,7,1)</f>
         <v>35977</v>
       </c>
-      <c r="F140"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>-321</v>
       </c>
@@ -2679,9 +2538,8 @@
         <f>DATE(1998,8,1)</f>
         <v>36008</v>
       </c>
-      <c r="F141"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>-311</v>
       </c>
@@ -2695,9 +2553,8 @@
         <f>DATE(1998,9,1)</f>
         <v>36039</v>
       </c>
-      <c r="F142"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>-292</v>
       </c>
@@ -2711,9 +2568,8 @@
         <f>DATE(1998,10,1)</f>
         <v>36069</v>
       </c>
-      <c r="F143"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>-68</v>
       </c>
@@ -2727,9 +2583,8 @@
         <f>DATE(1998,11,1)</f>
         <v>36100</v>
       </c>
-      <c r="F144"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>70</v>
       </c>
@@ -2743,9 +2598,8 @@
         <f>DATE(1998,12,1)</f>
         <v>36130</v>
       </c>
-      <c r="F145"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>99</v>
       </c>
@@ -2759,9 +2613,8 @@
         <f>DATE(1999,1,1)</f>
         <v>36161</v>
       </c>
-      <c r="F146"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>131</v>
       </c>
@@ -2775,9 +2628,8 @@
         <f>DATE(1999,2,1)</f>
         <v>36192</v>
       </c>
-      <c r="F147"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>98</v>
       </c>
@@ -2791,9 +2643,8 @@
         <f>DATE(1999,3,1)</f>
         <v>36220</v>
       </c>
-      <c r="F148"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>140</v>
       </c>
@@ -2807,9 +2658,8 @@
         <f>DATE(1999,4,1)</f>
         <v>36251</v>
       </c>
-      <c r="F149"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>126</v>
       </c>
@@ -2823,9 +2673,8 @@
         <f>DATE(1999,5,1)</f>
         <v>36281</v>
       </c>
-      <c r="F150"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>137</v>
       </c>
@@ -2839,9 +2688,8 @@
         <f>DATE(1999,6,1)</f>
         <v>36312</v>
       </c>
-      <c r="F151"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>111</v>
       </c>
@@ -2855,9 +2703,8 @@
         <f>DATE(1999,7,1)</f>
         <v>36342</v>
       </c>
-      <c r="F152"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>110</v>
       </c>
@@ -2871,9 +2718,8 @@
         <f>DATE(1999,8,1)</f>
         <v>36373</v>
       </c>
-      <c r="F153"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>101</v>
       </c>
@@ -2887,9 +2733,8 @@
         <f>DATE(1999,9,1)</f>
         <v>36404</v>
       </c>
-      <c r="F154"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>91</v>
       </c>
@@ -2903,9 +2748,8 @@
         <f>DATE(1999,10,1)</f>
         <v>36434</v>
       </c>
-      <c r="F155"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>47</v>
       </c>
@@ -2919,9 +2763,8 @@
         <f>DATE(1999,11,1)</f>
         <v>36465</v>
       </c>
-      <c r="F156"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>61</v>
       </c>
@@ -2935,9 +2778,8 @@
         <f>DATE(1999,12,1)</f>
         <v>36495</v>
       </c>
-      <c r="F157"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>74</v>
       </c>
@@ -2951,9 +2793,8 @@
         <f>DATE(2000,1,1)</f>
         <v>36526</v>
       </c>
-      <c r="F158"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>95</v>
       </c>
@@ -2967,9 +2808,8 @@
         <f>DATE(2000,2,1)</f>
         <v>36557</v>
       </c>
-      <c r="F159"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>113</v>
       </c>
@@ -2983,9 +2823,8 @@
         <f>DATE(2000,3,1)</f>
         <v>36586</v>
       </c>
-      <c r="F160"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>61</v>
       </c>
@@ -2999,9 +2838,8 @@
         <f>DATE(2000,4,1)</f>
         <v>36617</v>
       </c>
-      <c r="F161"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>-71</v>
       </c>
@@ -3015,9 +2853,8 @@
         <f>DATE(2000,5,1)</f>
         <v>36647</v>
       </c>
-      <c r="F162"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>-227</v>
       </c>
@@ -3031,9 +2868,8 @@
         <f>DATE(2000,6,1)</f>
         <v>36678</v>
       </c>
-      <c r="F163"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>-282</v>
       </c>
@@ -3047,9 +2883,8 @@
         <f>DATE(2000,7,1)</f>
         <v>36708</v>
       </c>
-      <c r="F164"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>-294</v>
       </c>
@@ -3063,9 +2898,8 @@
         <f>DATE(2000,8,1)</f>
         <v>36739</v>
       </c>
-      <c r="F165"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>-288</v>
       </c>
@@ -3079,9 +2913,8 @@
         <f>DATE(2000,9,1)</f>
         <v>36770</v>
       </c>
-      <c r="F166"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>-275</v>
       </c>
@@ -3095,9 +2928,8 @@
         <f>DATE(2000,10,1)</f>
         <v>36800</v>
       </c>
-      <c r="F167"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>-253</v>
       </c>
@@ -3111,9 +2943,8 @@
         <f>DATE(2000,11,1)</f>
         <v>36831</v>
       </c>
-      <c r="F168"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>-259</v>
       </c>
@@ -3127,9 +2958,8 @@
         <f>DATE(2000,12,1)</f>
         <v>36861</v>
       </c>
-      <c r="F169"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>-284</v>
       </c>
@@ -3143,9 +2973,8 @@
         <f>DATE(2001,1,1)</f>
         <v>36892</v>
       </c>
-      <c r="F170"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>-272</v>
       </c>
@@ -3159,9 +2988,8 @@
         <f>DATE(2001,2,1)</f>
         <v>36923</v>
       </c>
-      <c r="F171"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>-269</v>
       </c>
@@ -3175,9 +3003,8 @@
         <f>DATE(2001,3,1)</f>
         <v>36951</v>
       </c>
-      <c r="F172"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>-309</v>
       </c>
@@ -3191,9 +3018,8 @@
         <f>DATE(2001,4,1)</f>
         <v>36982</v>
       </c>
-      <c r="F173"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>-318</v>
       </c>
@@ -3207,9 +3033,8 @@
         <f>DATE(2001,5,1)</f>
         <v>37012</v>
       </c>
-      <c r="F174"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>-331</v>
       </c>
@@ -3223,9 +3048,8 @@
         <f>DATE(2001,6,1)</f>
         <v>37043</v>
       </c>
-      <c r="F175"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>-349</v>
       </c>
@@ -3239,9 +3063,8 @@
         <f>DATE(2001,7,1)</f>
         <v>37073</v>
       </c>
-      <c r="F176"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>-354</v>
       </c>
@@ -3255,9 +3078,8 @@
         <f>DATE(2001,8,1)</f>
         <v>37104</v>
       </c>
-      <c r="F177"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>-307</v>
       </c>
@@ -3271,9 +3093,8 @@
         <f>DATE(2001,9,1)</f>
         <v>37135</v>
       </c>
-      <c r="F178"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>-136</v>
       </c>
@@ -3287,9 +3108,8 @@
         <f>DATE(2001,10,1)</f>
         <v>37165</v>
       </c>
-      <c r="F179"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>21</v>
       </c>
@@ -3303,9 +3123,8 @@
         <f>DATE(2001,11,1)</f>
         <v>37196</v>
       </c>
-      <c r="F180"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>140</v>
       </c>
@@ -3319,9 +3138,8 @@
         <f>DATE(2001,12,1)</f>
         <v>37226</v>
       </c>
-      <c r="F181"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>118</v>
       </c>
@@ -3335,9 +3153,8 @@
         <f>DATE(2002,1,1)</f>
         <v>37257</v>
       </c>
-      <c r="F182"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>148</v>
       </c>
@@ -3351,9 +3168,8 @@
         <f>DATE(2002,2,1)</f>
         <v>37288</v>
       </c>
-      <c r="F183"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>158</v>
       </c>
@@ -3367,9 +3183,8 @@
         <f>DATE(2002,3,1)</f>
         <v>37316</v>
       </c>
-      <c r="F184"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>129</v>
       </c>
@@ -3383,9 +3198,8 @@
         <f>DATE(2002,4,1)</f>
         <v>37347</v>
       </c>
-      <c r="F185"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>133</v>
       </c>
@@ -3399,9 +3213,8 @@
         <f>DATE(2002,5,1)</f>
         <v>37377</v>
       </c>
-      <c r="F186"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>92</v>
       </c>
@@ -3415,9 +3228,8 @@
         <f>DATE(2002,6,1)</f>
         <v>37408</v>
       </c>
-      <c r="F187"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>103</v>
       </c>
@@ -3431,9 +3243,8 @@
         <f>DATE(2002,7,1)</f>
         <v>37438</v>
       </c>
-      <c r="F188"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>83</v>
       </c>
@@ -3447,9 +3258,8 @@
         <f>DATE(2002,8,1)</f>
         <v>37469</v>
       </c>
-      <c r="F189"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>65</v>
       </c>
@@ -3463,9 +3273,8 @@
         <f>DATE(2002,9,1)</f>
         <v>37500</v>
       </c>
-      <c r="F190"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>41</v>
       </c>
@@ -3479,9 +3288,8 @@
         <f>DATE(2002,10,1)</f>
         <v>37530</v>
       </c>
-      <c r="F191"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>-42</v>
       </c>
@@ -3495,9 +3303,8 @@
         <f>DATE(2002,11,1)</f>
         <v>37561</v>
       </c>
-      <c r="F192"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>-41</v>
       </c>
@@ -3511,9 +3318,8 @@
         <f>DATE(2002,12,1)</f>
         <v>37591</v>
       </c>
-      <c r="F193"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>-14</v>
       </c>
@@ -3527,9 +3333,8 @@
         <f>DATE(2003,1,1)</f>
         <v>37622</v>
       </c>
-      <c r="F194"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>-2</v>
       </c>
@@ -3543,9 +3348,8 @@
         <f>DATE(2003,2,1)</f>
         <v>37653</v>
       </c>
-      <c r="F195"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>-73</v>
       </c>
@@ -3559,9 +3363,8 @@
         <f>DATE(2003,3,1)</f>
         <v>37681</v>
       </c>
-      <c r="F196"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>-194</v>
       </c>
@@ -3575,9 +3378,8 @@
         <f>DATE(2003,4,1)</f>
         <v>37712</v>
       </c>
-      <c r="F197"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>-269</v>
       </c>
@@ -3591,9 +3393,8 @@
         <f>DATE(2003,5,1)</f>
         <v>37742</v>
       </c>
-      <c r="F198"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>-288</v>
       </c>
@@ -3607,9 +3408,8 @@
         <f>DATE(2003,6,1)</f>
         <v>37773</v>
       </c>
-      <c r="F199"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>-313</v>
       </c>
@@ -3623,9 +3423,8 @@
         <f>DATE(2003,7,1)</f>
         <v>37803</v>
       </c>
-      <c r="F200"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>-318</v>
       </c>
@@ -3639,9 +3438,8 @@
         <f>DATE(2003,8,1)</f>
         <v>37834</v>
       </c>
-      <c r="F201"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>-313</v>
       </c>
@@ -3655,9 +3453,8 @@
         <f>DATE(2003,9,1)</f>
         <v>37865</v>
       </c>
-      <c r="F202"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>-312</v>
       </c>
@@ -3671,9 +3468,8 @@
         <f>DATE(2003,10,1)</f>
         <v>37895</v>
       </c>
-      <c r="F203"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>-321</v>
       </c>
@@ -3687,9 +3483,8 @@
         <f>DATE(2003,11,1)</f>
         <v>37926</v>
       </c>
-      <c r="F204"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>-165</v>
       </c>
@@ -3703,9 +3498,8 @@
         <f>DATE(2003,12,1)</f>
         <v>37956</v>
       </c>
-      <c r="F205"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>-16</v>
       </c>
@@ -3719,9 +3513,8 @@
         <f>DATE(2004,1,1)</f>
         <v>37987</v>
       </c>
-      <c r="F206"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>78</v>
       </c>
@@ -3735,9 +3528,8 @@
         <f>DATE(2004,2,1)</f>
         <v>38018</v>
       </c>
-      <c r="F207"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>112</v>
       </c>
@@ -3751,9 +3543,8 @@
         <f>DATE(2004,3,1)</f>
         <v>38047</v>
       </c>
-      <c r="F208"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>126</v>
       </c>
@@ -3767,9 +3558,8 @@
         <f>DATE(2004,4,1)</f>
         <v>38078</v>
       </c>
-      <c r="F209"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>120</v>
       </c>
@@ -3783,9 +3573,8 @@
         <f>DATE(2004,5,1)</f>
         <v>38108</v>
       </c>
-      <c r="F210"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>95</v>
       </c>
@@ -3799,9 +3588,8 @@
         <f>DATE(2004,6,1)</f>
         <v>38139</v>
       </c>
-      <c r="F211"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>90</v>
       </c>
@@ -3815,9 +3603,8 @@
         <f>DATE(2004,7,1)</f>
         <v>38169</v>
       </c>
-      <c r="F212"/>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>98</v>
       </c>
@@ -3831,9 +3618,8 @@
         <f>DATE(2004,8,1)</f>
         <v>38200</v>
       </c>
-      <c r="F213"/>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>88</v>
       </c>
@@ -3847,9 +3633,8 @@
         <f>DATE(2004,9,1)</f>
         <v>38231</v>
       </c>
-      <c r="F214"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>73</v>
       </c>
@@ -3863,9 +3648,8 @@
         <f>DATE(2004,10,1)</f>
         <v>38261</v>
       </c>
-      <c r="F215"/>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>48</v>
       </c>
@@ -3879,9 +3663,8 @@
         <f>DATE(2004,11,1)</f>
         <v>38292</v>
       </c>
-      <c r="F216"/>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>14</v>
       </c>
@@ -3895,9 +3678,8 @@
         <f>DATE(2004,12,1)</f>
         <v>38322</v>
       </c>
-      <c r="F217"/>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>-18</v>
       </c>
@@ -3911,10 +3693,8 @@
         <f>DATE(2005,1,1)</f>
         <v>38353</v>
       </c>
-      <c r="E218"/>
-      <c r="F218"/>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>18</v>
       </c>
@@ -3928,9 +3708,8 @@
         <f>DATE(2005,2,1)</f>
         <v>38384</v>
       </c>
-      <c r="F219"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>-9</v>
       </c>
@@ -3944,9 +3723,8 @@
         <f>DATE(2005,3,1)</f>
         <v>38412</v>
       </c>
-      <c r="F220"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>-178</v>
       </c>
@@ -3960,9 +3738,8 @@
         <f>DATE(2005,4,1)</f>
         <v>38443</v>
       </c>
-      <c r="F221"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>-266</v>
       </c>
@@ -3976,9 +3753,8 @@
         <f>DATE(2005,5,1)</f>
         <v>38473</v>
       </c>
-      <c r="F222"/>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>-286</v>
       </c>
@@ -3992,9 +3768,8 @@
         <f>DATE(2005,6,1)</f>
         <v>38504</v>
       </c>
-      <c r="F223"/>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>-309</v>
       </c>
@@ -4008,9 +3783,8 @@
         <f>DATE(2005,7,1)</f>
         <v>38534</v>
       </c>
-      <c r="F224"/>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>-316</v>
       </c>
@@ -4024,9 +3798,8 @@
         <f>DATE(2005,8,1)</f>
         <v>38565</v>
       </c>
-      <c r="F225"/>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>-318</v>
       </c>
@@ -4040,9 +3813,8 @@
         <f>DATE(2005,9,1)</f>
         <v>38596</v>
       </c>
-      <c r="F226"/>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>-320</v>
       </c>
@@ -4056,9 +3828,8 @@
         <f>DATE(2005,10,1)</f>
         <v>38626</v>
       </c>
-      <c r="F227"/>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>-333</v>
       </c>
@@ -4072,9 +3843,8 @@
         <f>DATE(2005,11,1)</f>
         <v>38657</v>
       </c>
-      <c r="F228"/>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>-324</v>
       </c>
@@ -4088,9 +3858,8 @@
         <f>DATE(2005,12,1)</f>
         <v>38687</v>
       </c>
-      <c r="F229"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>-288</v>
       </c>
@@ -4104,9 +3873,8 @@
         <f>DATE(2006,1,1)</f>
         <v>38718</v>
       </c>
-      <c r="F230"/>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>-93</v>
       </c>
@@ -4120,9 +3888,8 @@
         <f>DATE(2006,2,1)</f>
         <v>38749</v>
       </c>
-      <c r="F231"/>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>83</v>
       </c>
@@ -4136,9 +3903,8 @@
         <f>DATE(2006,3,1)</f>
         <v>38777</v>
       </c>
-      <c r="F232"/>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>85</v>
       </c>
@@ -4152,9 +3918,8 @@
         <f>DATE(2006,4,1)</f>
         <v>38808</v>
       </c>
-      <c r="F233"/>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>106</v>
       </c>
@@ -4168,9 +3933,8 @@
         <f>DATE(2006,5,1)</f>
         <v>38838</v>
       </c>
-      <c r="F234"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>123</v>
       </c>
@@ -4184,9 +3948,8 @@
         <f>DATE(2006,6,1)</f>
         <v>38869</v>
       </c>
-      <c r="F235"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>126</v>
       </c>
@@ -4200,9 +3963,8 @@
         <f>DATE(2006,7,1)</f>
         <v>38899</v>
       </c>
-      <c r="F236"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>71</v>
       </c>
@@ -4216,9 +3978,8 @@
         <f>DATE(2006,8,1)</f>
         <v>38930</v>
       </c>
-      <c r="F237"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>109</v>
       </c>
@@ -4232,9 +3993,8 @@
         <f>DATE(2006,9,1)</f>
         <v>38961</v>
       </c>
-      <c r="F238"/>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>93</v>
       </c>
@@ -4248,9 +4008,8 @@
         <f>DATE(2006,10,1)</f>
         <v>38991</v>
       </c>
-      <c r="F239"/>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>89</v>
       </c>
@@ -4264,9 +4023,8 @@
         <f>DATE(2006,11,1)</f>
         <v>39022</v>
       </c>
-      <c r="F240"/>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>73</v>
       </c>
@@ -4280,9 +4038,8 @@
         <f>DATE(2006,12,1)</f>
         <v>39052</v>
       </c>
-      <c r="F241"/>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>54</v>
       </c>
@@ -4296,9 +4053,8 @@
         <f>DATE(2007,1,1)</f>
         <v>39083</v>
       </c>
-      <c r="F242"/>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>53</v>
       </c>
@@ -4312,9 +4068,8 @@
         <f>DATE(2007,2,1)</f>
         <v>39114</v>
       </c>
-      <c r="F243"/>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>14</v>
       </c>
@@ -4328,9 +4083,8 @@
         <f>DATE(2007,3,1)</f>
         <v>39142</v>
       </c>
-      <c r="F244"/>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>-147</v>
       </c>
@@ -4344,9 +4098,8 @@
         <f>DATE(2007,4,1)</f>
         <v>39173</v>
       </c>
-      <c r="F245"/>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>-253</v>
       </c>
@@ -4360,9 +4113,8 @@
         <f>DATE(2007,5,1)</f>
         <v>39203</v>
       </c>
-      <c r="F246"/>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>-297</v>
       </c>
@@ -4376,9 +4128,8 @@
         <f>DATE(2007,6,1)</f>
         <v>39234</v>
       </c>
-      <c r="F247"/>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>-313</v>
       </c>
@@ -4392,9 +4143,8 @@
         <f>DATE(2007,7,1)</f>
         <v>39264</v>
       </c>
-      <c r="F248"/>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>-316</v>
       </c>
@@ -4408,9 +4158,8 @@
         <f>DATE(2007,8,1)</f>
         <v>39295</v>
       </c>
-      <c r="F249"/>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>-321</v>
       </c>
@@ -4424,9 +4173,8 @@
         <f>DATE(2007,9,1)</f>
         <v>39326</v>
       </c>
-      <c r="F250"/>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>-316</v>
       </c>
@@ -4440,9 +4188,8 @@
         <f>DATE(2007,10,1)</f>
         <v>39356</v>
       </c>
-      <c r="F251"/>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>-320</v>
       </c>
@@ -4456,9 +4203,8 @@
         <f>DATE(2007,11,1)</f>
         <v>39387</v>
       </c>
-      <c r="F252"/>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>-265</v>
       </c>
@@ -4472,9 +4218,8 @@
         <f>DATE(2007,12,1)</f>
         <v>39417</v>
       </c>
-      <c r="F253"/>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>-126</v>
       </c>
@@ -4488,9 +4233,8 @@
         <f>DATE(2008,1,1)</f>
         <v>39448</v>
       </c>
-      <c r="F254"/>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>38</v>
       </c>
@@ -4504,9 +4248,8 @@
         <f>DATE(2008,2,1)</f>
         <v>39479</v>
       </c>
-      <c r="F255"/>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>112</v>
       </c>
@@ -4520,9 +4263,8 @@
         <f>DATE(2008,3,1)</f>
         <v>39508</v>
       </c>
-      <c r="F256"/>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>124</v>
       </c>
@@ -4536,9 +4278,8 @@
         <f>DATE(2008,4,1)</f>
         <v>39539</v>
       </c>
-      <c r="F257"/>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>124</v>
       </c>
@@ -4552,9 +4293,8 @@
         <f>DATE(2008,5,1)</f>
         <v>39569</v>
       </c>
-      <c r="F258"/>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>157</v>
       </c>
@@ -4568,9 +4308,8 @@
         <f>DATE(2008,6,1)</f>
         <v>39600</v>
       </c>
-      <c r="F259"/>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>135</v>
       </c>
@@ -4584,9 +4323,8 @@
         <f>DATE(2008,7,1)</f>
         <v>39630</v>
       </c>
-      <c r="F260"/>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>118</v>
       </c>
@@ -4600,9 +4338,8 @@
         <f>DATE(2008,8,1)</f>
         <v>39661</v>
       </c>
-      <c r="F261"/>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>105</v>
       </c>
@@ -4616,9 +4353,8 @@
         <f>DATE(2008,9,1)</f>
         <v>39692</v>
       </c>
-      <c r="F262"/>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>93</v>
       </c>
@@ -4632,9 +4368,8 @@
         <f>DATE(2008,10,1)</f>
         <v>39722</v>
       </c>
-      <c r="F263"/>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>75</v>
       </c>
@@ -4648,9 +4383,8 @@
         <f>DATE(2008,11,1)</f>
         <v>39753</v>
       </c>
-      <c r="F264"/>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>111</v>
       </c>
@@ -4664,9 +4398,8 @@
         <f>DATE(2008,12,1)</f>
         <v>39783</v>
       </c>
-      <c r="F265"/>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>119</v>
       </c>
@@ -4680,9 +4413,8 @@
         <f>DATE(2009,1,1)</f>
         <v>39814</v>
       </c>
-      <c r="F266"/>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>155</v>
       </c>
@@ -4696,9 +4428,8 @@
         <f>DATE(2009,2,1)</f>
         <v>39845</v>
       </c>
-      <c r="F267"/>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>118</v>
       </c>
@@ -4712,9 +4443,8 @@
         <f>DATE(2009,3,1)</f>
         <v>39873</v>
       </c>
-      <c r="F268"/>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>103</v>
       </c>
@@ -4728,9 +4458,8 @@
         <f>DATE(2009,4,1)</f>
         <v>39904</v>
       </c>
-      <c r="F269"/>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>32</v>
       </c>
@@ -4744,9 +4473,8 @@
         <f>DATE(2009,5,1)</f>
         <v>39934</v>
       </c>
-      <c r="F270"/>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>-134</v>
       </c>
@@ -4760,9 +4488,8 @@
         <f>DATE(2009,6,1)</f>
         <v>39965</v>
       </c>
-      <c r="F271"/>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>-227</v>
       </c>
@@ -4776,9 +4503,8 @@
         <f>DATE(2009,7,1)</f>
         <v>39995</v>
       </c>
-      <c r="F272"/>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>-218</v>
       </c>
@@ -4792,9 +4518,8 @@
         <f>DATE(2009,8,1)</f>
         <v>40026</v>
       </c>
-      <c r="F273"/>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>-220</v>
       </c>
@@ -4808,9 +4533,8 @@
         <f>DATE(2009,9,1)</f>
         <v>40057</v>
       </c>
-      <c r="F274"/>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>-199</v>
       </c>
@@ -4824,9 +4548,8 @@
         <f>DATE(2009,10,1)</f>
         <v>40087</v>
       </c>
-      <c r="F275"/>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>-252</v>
       </c>
@@ -4840,9 +4563,8 @@
         <f>DATE(2009,11,1)</f>
         <v>40118</v>
       </c>
-      <c r="F276"/>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>-259</v>
       </c>
@@ -4856,9 +4578,8 @@
         <f>DATE(2009,12,1)</f>
         <v>40148</v>
       </c>
-      <c r="F277"/>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>-265</v>
       </c>
@@ -4872,9 +4593,8 @@
         <f>DATE(2010,1,1)</f>
         <v>40179</v>
       </c>
-      <c r="F278"/>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>-272</v>
       </c>
@@ -4888,9 +4608,8 @@
         <f>DATE(2010,2,1)</f>
         <v>40210</v>
       </c>
-      <c r="F279"/>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>-269</v>
       </c>
@@ -4904,9 +4623,8 @@
         <f>DATE(2010,3,1)</f>
         <v>40238</v>
       </c>
-      <c r="F280"/>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>-272</v>
       </c>
@@ -4920,9 +4638,8 @@
         <f>DATE(2010,4,1)</f>
         <v>40269</v>
       </c>
-      <c r="F281"/>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>-263</v>
       </c>
@@ -4936,9 +4653,8 @@
         <f>DATE(2010,5,1)</f>
         <v>40299</v>
       </c>
-      <c r="F282"/>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>-285</v>
       </c>
@@ -4952,9 +4668,8 @@
         <f>DATE(2010,6,1)</f>
         <v>40330</v>
       </c>
-      <c r="F283"/>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>-59</v>
       </c>
@@ -4968,9 +4683,8 @@
         <f>DATE(2010,7,1)</f>
         <v>40360</v>
       </c>
-      <c r="F284"/>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>117</v>
       </c>
@@ -4984,9 +4698,8 @@
         <f>DATE(2010,8,1)</f>
         <v>40391</v>
       </c>
-      <c r="F285"/>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>134</v>
       </c>
@@ -5000,9 +4713,8 @@
         <f>DATE(2010,9,1)</f>
         <v>40422</v>
       </c>
-      <c r="F286"/>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>116</v>
       </c>
@@ -5016,9 +4728,8 @@
         <f>DATE(2010,10,1)</f>
         <v>40452</v>
       </c>
-      <c r="F287"/>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>118</v>
       </c>
@@ -5032,9 +4743,8 @@
         <f>DATE(2010,11,1)</f>
         <v>40483</v>
       </c>
-      <c r="F288"/>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>83</v>
       </c>
@@ -5048,9 +4758,8 @@
         <f>DATE(2010,12,1)</f>
         <v>40513</v>
       </c>
-      <c r="F289"/>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>97</v>
       </c>
@@ -5064,9 +4773,8 @@
         <f>DATE(2011,1,1)</f>
         <v>40544</v>
       </c>
-      <c r="F290"/>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>97</v>
       </c>
@@ -5080,9 +4788,8 @@
         <f>DATE(2011,2,1)</f>
         <v>40575</v>
       </c>
-      <c r="F291"/>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>101</v>
       </c>
@@ -5096,9 +4803,8 @@
         <f>DATE(2011,3,1)</f>
         <v>40603</v>
       </c>
-      <c r="F292"/>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>92</v>
       </c>
@@ -5112,9 +4818,8 @@
         <f>DATE(2011,4,1)</f>
         <v>40634</v>
       </c>
-      <c r="F293"/>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>96</v>
       </c>
@@ -5128,9 +4833,8 @@
         <f>DATE(2011,5,1)</f>
         <v>40664</v>
       </c>
-      <c r="F294"/>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>70</v>
       </c>
@@ -5144,9 +4848,8 @@
         <f>DATE(2011,6,1)</f>
         <v>40695</v>
       </c>
-      <c r="F295"/>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>9</v>
       </c>
@@ -5160,9 +4863,8 @@
         <f>DATE(2011,7,1)</f>
         <v>40725</v>
       </c>
-      <c r="F296"/>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>25</v>
       </c>
@@ -5176,9 +4878,8 @@
         <f>DATE(2011,8,1)</f>
         <v>40756</v>
       </c>
-      <c r="F297"/>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>-32</v>
       </c>
@@ -5192,9 +4893,8 @@
         <f>DATE(2011,9,1)</f>
         <v>40787</v>
       </c>
-      <c r="F298"/>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>-75</v>
       </c>
@@ -5208,9 +4908,8 @@
         <f>DATE(2011,10,1)</f>
         <v>40817</v>
       </c>
-      <c r="F299"/>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>-189</v>
       </c>
@@ -5224,9 +4923,8 @@
         <f>DATE(2011,11,1)</f>
         <v>40848</v>
       </c>
-      <c r="F300"/>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>-239</v>
       </c>
@@ -5240,9 +4938,8 @@
         <f>DATE(2011,12,1)</f>
         <v>40878</v>
       </c>
-      <c r="F301"/>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>-238</v>
       </c>
@@ -5256,9 +4953,8 @@
         <f>DATE(2012,1,1)</f>
         <v>40909</v>
       </c>
-      <c r="F302"/>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>-213</v>
       </c>
@@ -5272,9 +4968,8 @@
         <f>DATE(2012,2,1)</f>
         <v>40940</v>
       </c>
-      <c r="F303"/>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>-217</v>
       </c>
@@ -5288,9 +4983,8 @@
         <f>DATE(2012,3,1)</f>
         <v>40969</v>
       </c>
-      <c r="F304"/>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>-257</v>
       </c>
@@ -5304,9 +4998,8 @@
         <f>DATE(2012,4,1)</f>
         <v>41000</v>
       </c>
-      <c r="F305"/>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>-306</v>
       </c>
@@ -5320,9 +5013,8 @@
         <f>DATE(2012,5,1)</f>
         <v>41030</v>
       </c>
-      <c r="F306"/>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>-325</v>
       </c>
@@ -5336,9 +5028,8 @@
         <f>DATE(2012,6,1)</f>
         <v>41061</v>
       </c>
-      <c r="F307"/>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>-326</v>
       </c>
@@ -5352,9 +5043,8 @@
         <f>DATE(2012,7,1)</f>
         <v>41091</v>
       </c>
-      <c r="F308"/>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>-347</v>
       </c>
@@ -5368,9 +5058,8 @@
         <f>DATE(2012,8,1)</f>
         <v>41122</v>
       </c>
-      <c r="F309"/>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>-331</v>
       </c>
@@ -5384,9 +5073,8 @@
         <f>DATE(2012,9,1)</f>
         <v>41153</v>
       </c>
-      <c r="F310"/>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>-336</v>
       </c>
@@ -5400,9 +5088,8 @@
         <f>DATE(2012,10,1)</f>
         <v>41183</v>
       </c>
-      <c r="F311"/>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>-335</v>
       </c>
@@ -5416,9 +5103,8 @@
         <f>DATE(2012,11,1)</f>
         <v>41214</v>
       </c>
-      <c r="F312"/>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>-161</v>
       </c>
@@ -5432,9 +5118,8 @@
         <f>DATE(2012,12,1)</f>
         <v>41244</v>
       </c>
-      <c r="F313"/>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>-47</v>
       </c>
@@ -5448,9 +5133,8 @@
         <f>DATE(2013,1,1)</f>
         <v>41275</v>
       </c>
-      <c r="F314"/>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>18</v>
       </c>
@@ -5464,9 +5148,8 @@
         <f>DATE(2013,2,1)</f>
         <v>41306</v>
       </c>
-      <c r="F315"/>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>89</v>
       </c>
@@ -5480,9 +5163,8 @@
         <f>DATE(2013,3,1)</f>
         <v>41334</v>
       </c>
-      <c r="F316"/>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>102</v>
       </c>
@@ -5496,9 +5178,8 @@
         <f>DATE(2013,4,1)</f>
         <v>41365</v>
       </c>
-      <c r="F317"/>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>109</v>
       </c>
@@ -5512,9 +5193,8 @@
         <f>DATE(2013,5,1)</f>
         <v>41395</v>
       </c>
-      <c r="F318"/>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>157</v>
       </c>
@@ -5528,9 +5208,8 @@
         <f>DATE(2013,6,1)</f>
         <v>41426</v>
       </c>
-      <c r="F319"/>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>147</v>
       </c>
@@ -5544,9 +5223,8 @@
         <f>DATE(2013,7,1)</f>
         <v>41456</v>
       </c>
-      <c r="F320"/>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>122</v>
       </c>
@@ -5560,9 +5238,8 @@
         <f>DATE(2013,8,1)</f>
         <v>41487</v>
       </c>
-      <c r="F321"/>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>139</v>
       </c>
@@ -5576,9 +5253,8 @@
         <f>DATE(2013,9,1)</f>
         <v>41518</v>
       </c>
-      <c r="F322"/>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>119</v>
       </c>
@@ -5592,9 +5268,8 @@
         <f>DATE(2013,10,1)</f>
         <v>41548</v>
       </c>
-      <c r="F323"/>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>118</v>
       </c>
@@ -5608,9 +5283,8 @@
         <f>DATE(2013,11,1)</f>
         <v>41579</v>
       </c>
-      <c r="F324"/>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>117</v>
       </c>
@@ -5624,9 +5298,8 @@
         <f>DATE(2013,12,1)</f>
         <v>41609</v>
       </c>
-      <c r="F325"/>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>148</v>
       </c>
@@ -5640,9 +5313,8 @@
         <f>DATE(2014,1,1)</f>
         <v>41640</v>
       </c>
-      <c r="F326"/>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>126</v>
       </c>
@@ -5656,9 +5328,8 @@
         <f>DATE(2014,2,1)</f>
         <v>41671</v>
       </c>
-      <c r="F327"/>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>113</v>
       </c>
@@ -5672,9 +5343,8 @@
         <f>DATE(2014,3,1)</f>
         <v>41699</v>
       </c>
-      <c r="F328"/>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>88</v>
       </c>
@@ -5688,9 +5358,8 @@
         <f>DATE(2014,4,1)</f>
         <v>41730</v>
       </c>
-      <c r="F329"/>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>-131</v>
       </c>
@@ -5704,9 +5373,8 @@
         <f>DATE(2014,5,1)</f>
         <v>41760</v>
       </c>
-      <c r="F330"/>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>-258</v>
       </c>
@@ -5720,9 +5388,8 @@
         <f>DATE(2014,6,1)</f>
         <v>41791</v>
       </c>
-      <c r="F331"/>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>-307</v>
       </c>
@@ -5736,9 +5403,8 @@
         <f>DATE(2014,7,1)</f>
         <v>41821</v>
       </c>
-      <c r="F332"/>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>-295</v>
       </c>
@@ -5752,9 +5418,8 @@
         <f>DATE(2014,8,1)</f>
         <v>41852</v>
       </c>
-      <c r="F333"/>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>-317</v>
       </c>
@@ -5768,9 +5433,8 @@
         <f>DATE(2014,9,1)</f>
         <v>41883</v>
       </c>
-      <c r="F334"/>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>-323</v>
       </c>
@@ -5784,9 +5448,8 @@
         <f>DATE(2014,10,1)</f>
         <v>41913</v>
       </c>
-      <c r="F335"/>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>-312</v>
       </c>
@@ -5800,9 +5463,8 @@
         <f>DATE(2014,11,1)</f>
         <v>41944</v>
       </c>
-      <c r="F336"/>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>-287</v>
       </c>
@@ -5816,9 +5478,8 @@
         <f>DATE(2014,12,1)</f>
         <v>41974</v>
       </c>
-      <c r="F337"/>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>-278</v>
       </c>
@@ -5832,9 +5493,8 @@
         <f>DATE(2015,1,1)</f>
         <v>42005</v>
       </c>
-      <c r="F338"/>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>-295</v>
       </c>
@@ -5848,9 +5508,8 @@
         <f>DATE(2015,2,1)</f>
         <v>42036</v>
       </c>
-      <c r="F339"/>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>-314</v>
       </c>
@@ -5864,9 +5523,8 @@
         <f>DATE(2015,3,1)</f>
         <v>42064</v>
       </c>
-      <c r="F340"/>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>-311</v>
       </c>
@@ -5880,9 +5538,8 @@
         <f>DATE(2015,4,1)</f>
         <v>42095</v>
       </c>
-      <c r="F341"/>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>-140</v>
       </c>
@@ -5896,9 +5553,8 @@
         <f>DATE(2015,5,1)</f>
         <v>42125</v>
       </c>
-      <c r="F342"/>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>75</v>
       </c>
@@ -5912,9 +5568,8 @@
         <f>DATE(2015,6,1)</f>
         <v>42156</v>
       </c>
-      <c r="F343"/>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>129</v>
       </c>
@@ -5928,9 +5583,8 @@
         <f>DATE(2015,7,1)</f>
         <v>42186</v>
       </c>
-      <c r="F344"/>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>135</v>
       </c>
@@ -5944,9 +5598,8 @@
         <f>DATE(2015,8,1)</f>
         <v>42217</v>
       </c>
-      <c r="F345"/>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>162</v>
       </c>
@@ -5960,9 +5613,8 @@
         <f>DATE(2015,9,1)</f>
         <v>42248</v>
       </c>
-      <c r="F346"/>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>132</v>
       </c>
@@ -5976,9 +5628,8 @@
         <f>DATE(2015,10,1)</f>
         <v>42278</v>
       </c>
-      <c r="F347"/>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>138</v>
       </c>
@@ -5992,9 +5643,8 @@
         <f>DATE(2015,11,1)</f>
         <v>42309</v>
       </c>
-      <c r="F348"/>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>89</v>
       </c>
@@ -6008,9 +5658,8 @@
         <f>DATE(2015,12,1)</f>
         <v>42339</v>
       </c>
-      <c r="F349"/>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>100</v>
       </c>
@@ -6024,9 +5673,8 @@
         <f>DATE(2016,1,1)</f>
         <v>42370</v>
       </c>
-      <c r="F350"/>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>95</v>
       </c>
@@ -6040,9 +5688,8 @@
         <f>DATE(2016,2,1)</f>
         <v>42401</v>
       </c>
-      <c r="F351"/>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>21</v>
       </c>
@@ -6056,9 +5703,8 @@
         <f>DATE(2016,3,1)</f>
         <v>42430</v>
       </c>
-      <c r="F352"/>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>-14</v>
       </c>
@@ -6072,9 +5718,8 @@
         <f>DATE(2016,4,1)</f>
         <v>42461</v>
       </c>
-      <c r="F353"/>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>53</v>
       </c>
@@ -6088,9 +5733,8 @@
         <f>DATE(2016,5,1)</f>
         <v>42491</v>
       </c>
-      <c r="F354"/>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>70</v>
       </c>
@@ -6104,9 +5748,8 @@
         <f>DATE(2016,6,1)</f>
         <v>42522</v>
       </c>
-      <c r="F355"/>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>105</v>
       </c>
@@ -6120,9 +5763,8 @@
         <f>DATE(2016,7,1)</f>
         <v>42552</v>
       </c>
-      <c r="F356"/>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>157</v>
       </c>
@@ -6136,9 +5778,8 @@
         <f>DATE(2016,8,1)</f>
         <v>42583</v>
       </c>
-      <c r="F357"/>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>152</v>
       </c>
@@ -6152,9 +5793,8 @@
         <f>DATE(2016,9,1)</f>
         <v>42614</v>
       </c>
-      <c r="F358"/>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>142</v>
       </c>
@@ -6168,9 +5808,8 @@
         <f>DATE(2016,10,1)</f>
         <v>42644</v>
       </c>
-      <c r="F359"/>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>157</v>
       </c>
@@ -6184,9 +5823,8 @@
         <f>DATE(2016,11,1)</f>
         <v>42675</v>
       </c>
-      <c r="F360"/>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>176</v>
       </c>
@@ -6200,9 +5838,8 @@
         <f>DATE(2016,12,1)</f>
         <v>42705</v>
       </c>
-      <c r="F361"/>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>171</v>
       </c>
@@ -6216,9 +5853,8 @@
         <f>DATE(2017,1,1)</f>
         <v>42736</v>
       </c>
-      <c r="F362"/>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>177</v>
       </c>
@@ -6232,9 +5868,8 @@
         <f>DATE(2017,2,1)</f>
         <v>42767</v>
       </c>
-      <c r="F363"/>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>153</v>
       </c>
@@ -6248,9 +5883,8 @@
         <f>DATE(2017,3,1)</f>
         <v>42795</v>
       </c>
-      <c r="F364"/>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>136</v>
       </c>
@@ -6264,9 +5898,8 @@
         <f>DATE(2017,4,1)</f>
         <v>42826</v>
       </c>
-      <c r="F365"/>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>58</v>
       </c>
@@ -6280,9 +5913,8 @@
         <f>DATE(2017,5,1)</f>
         <v>42856</v>
       </c>
-      <c r="F366"/>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>-145</v>
       </c>
@@ -6296,9 +5928,8 @@
         <f>DATE(2017,6,1)</f>
         <v>42887</v>
       </c>
-      <c r="F367"/>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>-256</v>
       </c>
@@ -6312,9 +5943,8 @@
         <f>DATE(2017,7,1)</f>
         <v>42917</v>
       </c>
-      <c r="F368"/>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>-256</v>
       </c>
@@ -6328,9 +5958,8 @@
         <f>DATE(2017,8,1)</f>
         <v>42948</v>
       </c>
-      <c r="F369"/>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>-247</v>
       </c>
@@ -6344,9 +5973,8 @@
         <f>DATE(2017,9,1)</f>
         <v>42979</v>
       </c>
-      <c r="F370"/>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>-258</v>
       </c>
@@ -6360,9 +5988,8 @@
         <f>DATE(2017,10,1)</f>
         <v>43009</v>
       </c>
-      <c r="F371"/>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>-271</v>
       </c>
@@ -6376,9 +6003,8 @@
         <f>DATE(2017,11,1)</f>
         <v>43040</v>
       </c>
-      <c r="F372"/>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>-281</v>
       </c>
@@ -6392,9 +6018,8 @@
         <f>DATE(2017,12,1)</f>
         <v>43070</v>
       </c>
-      <c r="F373"/>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>-292</v>
       </c>
@@ -6408,9 +6033,8 @@
         <f>DATE(2018,1,1)</f>
         <v>43101</v>
       </c>
-      <c r="F374"/>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>-278</v>
       </c>
@@ -6424,9 +6048,8 @@
         <f>DATE(2018,2,1)</f>
         <v>43132</v>
       </c>
-      <c r="F375"/>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>-287</v>
       </c>
@@ -6440,9 +6063,8 @@
         <f>DATE(2018,3,1)</f>
         <v>43160</v>
       </c>
-      <c r="F376"/>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>-314</v>
       </c>
@@ -6456,9 +6078,8 @@
         <f>DATE(2018,4,1)</f>
         <v>43191</v>
       </c>
-      <c r="F377"/>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>-315</v>
       </c>
@@ -6472,9 +6093,8 @@
         <f>DATE(2018,5,1)</f>
         <v>43221</v>
       </c>
-      <c r="F378"/>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>-329</v>
       </c>
@@ -6488,9 +6108,8 @@
         <f>DATE(2018,6,1)</f>
         <v>43252</v>
       </c>
-      <c r="F379"/>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>-330</v>
       </c>
@@ -6504,9 +6123,8 @@
         <f>DATE(2018,7,1)</f>
         <v>43282</v>
       </c>
-      <c r="F380"/>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>-310</v>
       </c>
@@ -6520,9 +6138,8 @@
         <f>DATE(2018,8,1)</f>
         <v>43313</v>
       </c>
-      <c r="F381"/>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>-109</v>
       </c>
@@ -6536,9 +6153,8 @@
         <f>DATE(2018,9,1)</f>
         <v>43344</v>
       </c>
-      <c r="F382"/>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>44</v>
       </c>
@@ -6552,9 +6168,8 @@
         <f>DATE(2018,10,1)</f>
         <v>43374</v>
       </c>
-      <c r="F383"/>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>118</v>
       </c>
@@ -6568,9 +6183,8 @@
         <f>DATE(2018,11,1)</f>
         <v>43405</v>
       </c>
-      <c r="F384"/>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>146</v>
       </c>
@@ -6584,9 +6198,8 @@
         <f>DATE(2018,12,1)</f>
         <v>43435</v>
       </c>
-      <c r="F385"/>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>144</v>
       </c>
@@ -6600,9 +6213,8 @@
         <f>DATE(2019,1,1)</f>
         <v>43466</v>
       </c>
-      <c r="F386"/>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>124</v>
       </c>
@@ -6616,9 +6228,8 @@
         <f>DATE(2019,2,1)</f>
         <v>43497</v>
       </c>
-      <c r="F387"/>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>165</v>
       </c>
@@ -6632,9 +6243,8 @@
         <f>DATE(2019,3,1)</f>
         <v>43525</v>
       </c>
-      <c r="F388"/>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>136</v>
       </c>
@@ -6648,9 +6258,8 @@
         <f>DATE(2019,4,1)</f>
         <v>43556</v>
       </c>
-      <c r="F389"/>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>148</v>
       </c>
@@ -6664,9 +6273,8 @@
         <f>DATE(2019,5,1)</f>
         <v>43586</v>
       </c>
-      <c r="F390"/>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>125</v>
       </c>
@@ -6680,9 +6288,8 @@
         <f>DATE(2019,6,1)</f>
         <v>43617</v>
       </c>
-      <c r="F391"/>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>114</v>
       </c>
@@ -6696,9 +6303,8 @@
         <f>DATE(2019,7,1)</f>
         <v>43647</v>
       </c>
-      <c r="F392"/>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>105</v>
       </c>
@@ -6712,9 +6318,8 @@
         <f>DATE(2019,8,1)</f>
         <v>43678</v>
       </c>
-      <c r="F393"/>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>95</v>
       </c>
@@ -6728,9 +6333,8 @@
         <f>DATE(2019,9,1)</f>
         <v>43709</v>
       </c>
-      <c r="F394"/>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>71</v>
       </c>
@@ -6744,9 +6348,8 @@
         <f>DATE(2019,10,1)</f>
         <v>43739</v>
       </c>
-      <c r="F395"/>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>73</v>
       </c>
@@ -6760,9 +6363,8 @@
         <f>DATE(2019,11,1)</f>
         <v>43770</v>
       </c>
-      <c r="F396"/>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>48</v>
       </c>
@@ -6776,9 +6378,8 @@
         <f>DATE(2019,12,1)</f>
         <v>43800</v>
       </c>
-      <c r="F397"/>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>37</v>
       </c>
@@ -6792,9 +6393,8 @@
         <f>DATE(2020,1,1)</f>
         <v>43831</v>
       </c>
-      <c r="F398"/>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>21</v>
       </c>
@@ -6808,9 +6408,8 @@
         <f>DATE(2020,2,1)</f>
         <v>43862</v>
       </c>
-      <c r="F399"/>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>0</v>
       </c>
@@ -6824,9 +6423,8 @@
         <f>DATE(2020,3,1)</f>
         <v>43891</v>
       </c>
-      <c r="F400"/>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>-28</v>
       </c>
@@ -6840,9 +6438,8 @@
         <f>DATE(2020,4,1)</f>
         <v>43922</v>
       </c>
-      <c r="F401"/>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>-17</v>
       </c>
@@ -6856,9 +6453,8 @@
         <f>DATE(2020,5,1)</f>
         <v>43952</v>
       </c>
-      <c r="F402"/>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>57</v>
       </c>
@@ -6872,9 +6468,8 @@
         <f>DATE(2020,6,1)</f>
         <v>43983</v>
       </c>
-      <c r="F403"/>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>88</v>
       </c>
@@ -6888,9 +6483,8 @@
         <f>DATE(2020,7,1)</f>
         <v>44013</v>
       </c>
-      <c r="F404"/>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>104</v>
       </c>
@@ -6904,9 +6498,8 @@
         <f>DATE(2020,8,1)</f>
         <v>44044</v>
       </c>
-      <c r="F405"/>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>120</v>
       </c>
@@ -6920,9 +6513,8 @@
         <f>DATE(2020,9,1)</f>
         <v>44075</v>
       </c>
-      <c r="F406"/>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>135</v>
       </c>
@@ -6936,9 +6528,8 @@
         <f>DATE(2020,10,1)</f>
         <v>44105</v>
       </c>
-      <c r="F407"/>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>144</v>
       </c>
@@ -6952,9 +6543,8 @@
         <f>DATE(2020,11,1)</f>
         <v>44136</v>
       </c>
-      <c r="F408"/>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>104</v>
       </c>
@@ -6968,9 +6558,8 @@
         <f>DATE(2020,12,1)</f>
         <v>44166</v>
       </c>
-      <c r="F409"/>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>72</v>
       </c>
@@ -6984,9 +6573,8 @@
         <f>DATE(2021,1,1)</f>
         <v>44197</v>
       </c>
-      <c r="F410"/>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>65</v>
       </c>
@@ -7000,9 +6588,8 @@
         <f>DATE(2021,2,1)</f>
         <v>44228</v>
       </c>
-      <c r="F411"/>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>79</v>
       </c>
@@ -7016,9 +6603,8 @@
         <f>DATE(2021,3,1)</f>
         <v>44256</v>
       </c>
-      <c r="F412"/>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>64</v>
       </c>
@@ -7032,9 +6618,8 @@
         <f>DATE(2021,4,1)</f>
         <v>44287</v>
       </c>
-      <c r="F413"/>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>-37</v>
       </c>
@@ -7048,9 +6633,8 @@
         <f>DATE(2021,5,1)</f>
         <v>44317</v>
       </c>
-      <c r="F414"/>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>-167</v>
       </c>
@@ -7064,9 +6648,8 @@
         <f>DATE(2021,6,1)</f>
         <v>44348</v>
       </c>
-      <c r="F415"/>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>-238</v>
       </c>
@@ -7080,9 +6663,8 @@
         <f>DATE(2021,7,1)</f>
         <v>44378</v>
       </c>
-      <c r="F416"/>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>-233</v>
       </c>
@@ -7096,9 +6678,8 @@
         <f>DATE(2021,8,1)</f>
         <v>44409</v>
       </c>
-      <c r="F417"/>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>-268</v>
       </c>
@@ -7112,9 +6693,8 @@
         <f>DATE(2021,9,1)</f>
         <v>44440</v>
       </c>
-      <c r="F418"/>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>-283</v>
       </c>
@@ -7128,9 +6708,8 @@
         <f>DATE(2021,10,1)</f>
         <v>44470</v>
       </c>
-      <c r="F419"/>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>-279</v>
       </c>
@@ -7144,9 +6723,8 @@
         <f>DATE(2021,11,1)</f>
         <v>44501</v>
       </c>
-      <c r="F420"/>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D421" s="5"/>
     </row>
   </sheetData>
